--- a/designment/document/mvc-framework-document.xlsx
+++ b/designment/document/mvc-framework-document.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="261">
   <si>
     <t xml:space="preserve">fs</t>
   </si>
@@ -512,9 +512,6 @@
     - [Dynamic Event Target (DET)](./document/guide/DynamicEventTarget/index.md)
       - [DET Object](./document/guide/DynamicEventTarget/DET-Object/index.md)
     - [Dynamic Event System (DES)](./document/guid/DynamicEventSystem/index.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bruh</t>
   </si>
   <si>
     <t xml:space="preserve">Demonstration</t>
@@ -2093,8 +2090,12 @@
   </sheetPr>
   <dimension ref="A1:Z238"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J247" activeCellId="0" sqref="J247"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="0"/>
@@ -14394,8 +14395,12 @@
   </sheetPr>
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="H39" activeCellId="0" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -14601,9 +14606,7 @@
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="45"/>
-      <c r="D18" s="56" t="s">
-        <v>154</v>
-      </c>
+      <c r="D18" s="56"/>
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
@@ -14630,7 +14633,7 @@
         <v>149</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
@@ -14649,7 +14652,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C23" s="43"/>
       <c r="D23" s="43"/>
@@ -14663,7 +14666,7 @@
         <v>140</v>
       </c>
       <c r="D24" s="59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
@@ -14673,7 +14676,7 @@
       <c r="B25" s="44"/>
       <c r="C25" s="57"/>
       <c r="D25" s="46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
@@ -14685,7 +14688,7 @@
         <v>143</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
@@ -14695,7 +14698,7 @@
       <c r="B27" s="44"/>
       <c r="C27" s="57"/>
       <c r="D27" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
@@ -14707,7 +14710,7 @@
         <v>149</v>
       </c>
       <c r="D28" s="64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
@@ -14716,10 +14719,10 @@
       <c r="A29" s="65"/>
       <c r="B29" s="65"/>
       <c r="C29" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="67" t="s">
         <v>161</v>
-      </c>
-      <c r="D29" s="67" t="s">
-        <v>162</v>
       </c>
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
@@ -14728,10 +14731,10 @@
       <c r="A30" s="44"/>
       <c r="B30" s="44"/>
       <c r="C30" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="46" t="s">
         <v>163</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>164</v>
       </c>
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
@@ -14740,10 +14743,10 @@
       <c r="A31" s="44"/>
       <c r="B31" s="44"/>
       <c r="C31" s="57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
@@ -14752,10 +14755,10 @@
       <c r="A32" s="44"/>
       <c r="B32" s="44"/>
       <c r="C32" s="57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
@@ -14765,7 +14768,7 @@
       <c r="B33" s="44"/>
       <c r="C33" s="57"/>
       <c r="D33" s="46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
@@ -14775,7 +14778,7 @@
       <c r="B34" s="44"/>
       <c r="C34" s="57"/>
       <c r="D34" s="46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
@@ -14785,7 +14788,7 @@
       <c r="B35" s="44"/>
       <c r="C35" s="57"/>
       <c r="D35" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
@@ -14810,7 +14813,7 @@
         <v>140</v>
       </c>
       <c r="D37" s="59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
@@ -14820,7 +14823,7 @@
       <c r="B38" s="58"/>
       <c r="C38" s="57"/>
       <c r="D38" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
@@ -14830,17 +14833,17 @@
       <c r="B39" s="58"/>
       <c r="C39" s="57"/>
       <c r="D39" s="46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="141.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="58"/>
       <c r="B40" s="58"/>
       <c r="C40" s="68"/>
       <c r="D40" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
@@ -14852,7 +14855,7 @@
         <v>143</v>
       </c>
       <c r="D41" s="61" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
@@ -14864,7 +14867,7 @@
         <v>149</v>
       </c>
       <c r="D42" s="64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
@@ -14873,10 +14876,10 @@
       <c r="A43" s="58"/>
       <c r="B43" s="58"/>
       <c r="C43" s="66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D43" s="67" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -14886,7 +14889,7 @@
       <c r="B44" s="58"/>
       <c r="C44" s="70"/>
       <c r="D44" s="71" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
@@ -14898,7 +14901,7 @@
         <v>149</v>
       </c>
       <c r="D45" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
@@ -14907,10 +14910,10 @@
       <c r="A46" s="58"/>
       <c r="B46" s="58"/>
       <c r="C46" s="66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D46" s="67" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
@@ -14920,7 +14923,7 @@
       <c r="B47" s="58"/>
       <c r="C47" s="70"/>
       <c r="D47" s="71" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
@@ -14929,10 +14932,10 @@
       <c r="A48" s="58"/>
       <c r="B48" s="58"/>
       <c r="C48" s="66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D48" s="67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
@@ -14942,7 +14945,7 @@
       <c r="B49" s="58"/>
       <c r="C49" s="72"/>
       <c r="D49" s="71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
@@ -14954,7 +14957,7 @@
         <v>143</v>
       </c>
       <c r="D50" s="61" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
@@ -14966,7 +14969,7 @@
         <v>149</v>
       </c>
       <c r="D51" s="64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
@@ -14975,10 +14978,10 @@
       <c r="A52" s="58"/>
       <c r="B52" s="58"/>
       <c r="C52" s="66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="67" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
@@ -14988,7 +14991,7 @@
       <c r="B53" s="58"/>
       <c r="C53" s="57"/>
       <c r="D53" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
@@ -14998,7 +15001,7 @@
       <c r="B54" s="58"/>
       <c r="C54" s="70"/>
       <c r="D54" s="71" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
@@ -15008,7 +15011,7 @@
       <c r="B55" s="58"/>
       <c r="C55" s="57"/>
       <c r="D55" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
@@ -15025,10 +15028,10 @@
       <c r="A57" s="58"/>
       <c r="B57" s="58"/>
       <c r="C57" s="66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D57" s="67" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
@@ -15038,7 +15041,7 @@
       <c r="B58" s="58"/>
       <c r="C58" s="57"/>
       <c r="D58" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
@@ -15048,7 +15051,7 @@
       <c r="B59" s="58"/>
       <c r="C59" s="70"/>
       <c r="D59" s="71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
@@ -15058,7 +15061,7 @@
       <c r="B60" s="58"/>
       <c r="C60" s="57"/>
       <c r="D60" s="46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
@@ -15067,10 +15070,10 @@
       <c r="A61" s="58"/>
       <c r="B61" s="58"/>
       <c r="C61" s="66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D61" s="67" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
@@ -15080,7 +15083,7 @@
       <c r="B62" s="58"/>
       <c r="C62" s="57"/>
       <c r="D62" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
@@ -15090,7 +15093,7 @@
       <c r="B63" s="58"/>
       <c r="C63" s="70"/>
       <c r="D63" s="71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
@@ -15100,7 +15103,7 @@
       <c r="B64" s="58"/>
       <c r="C64" s="57"/>
       <c r="D64" s="46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
@@ -15112,7 +15115,7 @@
         <v>149</v>
       </c>
       <c r="D65" s="64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
@@ -15122,7 +15125,7 @@
       <c r="B66" s="58"/>
       <c r="C66" s="57"/>
       <c r="D66" s="46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
@@ -15131,10 +15134,10 @@
       <c r="A67" s="58"/>
       <c r="B67" s="58"/>
       <c r="C67" s="66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D67" s="67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
@@ -15144,7 +15147,7 @@
       <c r="B68" s="58"/>
       <c r="C68" s="57"/>
       <c r="D68" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
@@ -15154,7 +15157,7 @@
       <c r="B69" s="58"/>
       <c r="C69" s="70"/>
       <c r="D69" s="71" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
@@ -15164,7 +15167,7 @@
       <c r="B70" s="58"/>
       <c r="C70" s="57"/>
       <c r="D70" s="46" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
@@ -15176,7 +15179,7 @@
         <v>149</v>
       </c>
       <c r="D71" s="64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
@@ -15185,10 +15188,10 @@
       <c r="A72" s="58"/>
       <c r="B72" s="58"/>
       <c r="C72" s="66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D72" s="67" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
@@ -15198,7 +15201,7 @@
       <c r="B73" s="58"/>
       <c r="C73" s="57"/>
       <c r="D73" s="46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
@@ -15208,7 +15211,7 @@
       <c r="B74" s="58"/>
       <c r="C74" s="70"/>
       <c r="D74" s="71" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
@@ -15218,7 +15221,7 @@
       <c r="B75" s="58"/>
       <c r="C75" s="57"/>
       <c r="D75" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
@@ -15230,7 +15233,7 @@
         <v>149</v>
       </c>
       <c r="D76" s="64" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
@@ -15239,10 +15242,10 @@
       <c r="A77" s="58"/>
       <c r="B77" s="58"/>
       <c r="C77" s="66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D77" s="67" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
@@ -15252,7 +15255,7 @@
       <c r="B78" s="58"/>
       <c r="C78" s="57"/>
       <c r="D78" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
@@ -15262,7 +15265,7 @@
       <c r="B79" s="58"/>
       <c r="C79" s="70"/>
       <c r="D79" s="71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
@@ -15272,7 +15275,7 @@
       <c r="B80" s="58"/>
       <c r="C80" s="57"/>
       <c r="D80" s="46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
@@ -15284,7 +15287,7 @@
         <v>149</v>
       </c>
       <c r="D81" s="64" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
@@ -15293,10 +15296,10 @@
       <c r="A82" s="58"/>
       <c r="B82" s="58"/>
       <c r="C82" s="66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D82" s="67" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
@@ -15306,7 +15309,7 @@
       <c r="B83" s="58"/>
       <c r="C83" s="57"/>
       <c r="D83" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
@@ -15316,7 +15319,7 @@
       <c r="B84" s="58"/>
       <c r="C84" s="70"/>
       <c r="D84" s="71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
@@ -15326,7 +15329,7 @@
       <c r="B85" s="58"/>
       <c r="C85" s="57"/>
       <c r="D85" s="46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
@@ -15338,7 +15341,7 @@
         <v>149</v>
       </c>
       <c r="D86" s="64" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
@@ -15347,10 +15350,10 @@
       <c r="A87" s="58"/>
       <c r="B87" s="58"/>
       <c r="C87" s="66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D87" s="67" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
@@ -15360,7 +15363,7 @@
       <c r="B88" s="58"/>
       <c r="C88" s="57"/>
       <c r="D88" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
@@ -15370,7 +15373,7 @@
       <c r="B89" s="58"/>
       <c r="C89" s="70"/>
       <c r="D89" s="71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
@@ -15380,7 +15383,7 @@
       <c r="B90" s="58"/>
       <c r="C90" s="57"/>
       <c r="D90" s="46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
@@ -15391,7 +15394,7 @@
         <v>15</v>
       </c>
       <c r="B91" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C91" s="43"/>
       <c r="D91" s="74"/>
@@ -15405,7 +15408,7 @@
         <v>140</v>
       </c>
       <c r="D92" s="76" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
@@ -15425,7 +15428,7 @@
       <c r="B94" s="44"/>
       <c r="C94" s="79"/>
       <c r="D94" s="80" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
@@ -15435,7 +15438,7 @@
       <c r="B95" s="44"/>
       <c r="C95" s="79"/>
       <c r="D95" s="80" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
@@ -15447,7 +15450,7 @@
         <v>149</v>
       </c>
       <c r="D96" s="83" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
@@ -15456,10 +15459,10 @@
       <c r="A97" s="84"/>
       <c r="B97" s="84"/>
       <c r="C97" s="85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D97" s="86" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
@@ -15476,10 +15479,10 @@
       <c r="A99" s="84"/>
       <c r="B99" s="84"/>
       <c r="C99" s="85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D99" s="86" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
@@ -15499,7 +15502,7 @@
         <v>149</v>
       </c>
       <c r="D101" s="83" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E101" s="37"/>
       <c r="F101" s="38"/>
@@ -15508,10 +15511,10 @@
       <c r="A102" s="84"/>
       <c r="B102" s="84"/>
       <c r="C102" s="85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D102" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E102" s="37"/>
       <c r="F102" s="38"/>
@@ -15528,10 +15531,10 @@
       <c r="A104" s="84"/>
       <c r="B104" s="84"/>
       <c r="C104" s="85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D104" s="86" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E104" s="37"/>
       <c r="F104" s="38"/>
@@ -15551,7 +15554,7 @@
         <v>149</v>
       </c>
       <c r="D106" s="83" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E106" s="37"/>
       <c r="F106" s="38"/>
@@ -15560,10 +15563,10 @@
       <c r="A107" s="84"/>
       <c r="B107" s="84"/>
       <c r="C107" s="85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D107" s="86" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E107" s="37"/>
       <c r="F107" s="38"/>
@@ -15583,7 +15586,7 @@
         <v>149</v>
       </c>
       <c r="D109" s="83" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E109" s="37"/>
       <c r="F109" s="38"/>
@@ -15592,10 +15595,10 @@
       <c r="A110" s="84"/>
       <c r="B110" s="84"/>
       <c r="C110" s="85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D110" s="86" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E110" s="37"/>
       <c r="F110" s="38"/>
@@ -15604,10 +15607,10 @@
       <c r="A111" s="84"/>
       <c r="B111" s="84"/>
       <c r="C111" s="85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D111" s="86" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E111" s="37"/>
       <c r="F111" s="38"/>
@@ -15627,7 +15630,7 @@
         <v>149</v>
       </c>
       <c r="D113" s="83" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E113" s="37"/>
       <c r="F113" s="38"/>
@@ -15636,10 +15639,10 @@
       <c r="A114" s="84"/>
       <c r="B114" s="84"/>
       <c r="C114" s="85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D114" s="86" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E114" s="37"/>
       <c r="F114" s="38"/>
@@ -15659,7 +15662,7 @@
         <v>149</v>
       </c>
       <c r="D116" s="83" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E116" s="37"/>
       <c r="F116" s="38"/>
@@ -15668,10 +15671,10 @@
       <c r="A117" s="84"/>
       <c r="B117" s="84"/>
       <c r="C117" s="85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D117" s="86" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E117" s="37"/>
       <c r="F117" s="38"/>
@@ -15691,7 +15694,7 @@
         <v>149</v>
       </c>
       <c r="D119" s="83" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E119" s="37"/>
       <c r="F119" s="38"/>
@@ -15700,10 +15703,10 @@
       <c r="A120" s="84"/>
       <c r="B120" s="84"/>
       <c r="C120" s="85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D120" s="86" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E120" s="37"/>
       <c r="F120" s="38"/>
@@ -15723,7 +15726,7 @@
         <v>149</v>
       </c>
       <c r="D122" s="83" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E122" s="37"/>
       <c r="F122" s="38"/>
@@ -15732,10 +15735,10 @@
       <c r="A123" s="84"/>
       <c r="B123" s="84"/>
       <c r="C123" s="85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D123" s="86" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E123" s="37"/>
       <c r="F123" s="38"/>
@@ -15755,7 +15758,7 @@
         <v>149</v>
       </c>
       <c r="D125" s="83" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E125" s="37"/>
       <c r="F125" s="38"/>
@@ -15764,10 +15767,10 @@
       <c r="A126" s="84"/>
       <c r="B126" s="84"/>
       <c r="C126" s="85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D126" s="86" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E126" s="37"/>
       <c r="F126" s="38"/>
@@ -15784,10 +15787,10 @@
       <c r="A128" s="84"/>
       <c r="B128" s="84"/>
       <c r="C128" s="85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D128" s="86" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E128" s="37"/>
       <c r="F128" s="38"/>
@@ -15804,10 +15807,10 @@
       <c r="A130" s="84"/>
       <c r="B130" s="84"/>
       <c r="C130" s="85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D130" s="86" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E130" s="37"/>
       <c r="F130" s="38"/>
@@ -15827,7 +15830,7 @@
         <v>149</v>
       </c>
       <c r="D132" s="83" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E132" s="37"/>
       <c r="F132" s="38"/>
@@ -15836,10 +15839,10 @@
       <c r="A133" s="84"/>
       <c r="B133" s="84"/>
       <c r="C133" s="85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D133" s="86" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E133" s="37"/>
       <c r="F133" s="38"/>
@@ -15856,10 +15859,10 @@
       <c r="A135" s="84"/>
       <c r="B135" s="84"/>
       <c r="C135" s="85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D135" s="86" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E135" s="37"/>
       <c r="F135" s="38"/>
@@ -15918,12 +15921,12 @@
   </sheetPr>
   <dimension ref="A1:AC40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O35" activeCellId="0" sqref="O35"/>
+      <selection pane="bottomRight" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15975,10 +15978,10 @@
         <v>134</v>
       </c>
       <c r="C2" s="91" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="91" t="s">
         <v>253</v>
-      </c>
-      <c r="D2" s="91" t="s">
-        <v>254</v>
       </c>
       <c r="E2" s="40" t="s">
         <v>135</v>
@@ -16025,7 +16028,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C4" s="92"/>
       <c r="D4" s="92"/>
@@ -16049,16 +16052,16 @@
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="95" t="s">
         <v>256</v>
-      </c>
-      <c r="D5" s="95" t="s">
-        <v>257</v>
       </c>
       <c r="E5" s="48" t="s">
         <v>140</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G5" s="96"/>
       <c r="H5" s="96"/>
@@ -16261,7 +16264,7 @@
       <c r="D14" s="95"/>
       <c r="E14" s="48"/>
       <c r="F14" s="49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G14" s="96"/>
       <c r="H14" s="96"/>
@@ -16284,7 +16287,7 @@
       <c r="D15" s="95"/>
       <c r="E15" s="48"/>
       <c r="F15" s="49" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G15" s="96"/>
       <c r="H15" s="96"/>
@@ -16353,7 +16356,7 @@
       <c r="D18" s="95"/>
       <c r="E18" s="48"/>
       <c r="F18" s="49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G18" s="96"/>
       <c r="H18" s="96"/>

--- a/designment/document/mvc-framework-document.xlsx
+++ b/designment/document/mvc-framework-document.xlsx
@@ -19,10 +19,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0" vbProcedure="false">VINE_Documents!$A$1:$Y$237</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_COM" vbProcedure="false">VINE_Documents!$A$4:$Y$237</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_SUP" vbProcedure="false">VINE_Documents!$A$1:$Y$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="AREA" vbProcedure="false">VORM_0_Guide_DET!$A$1:$E$137</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0" vbProcedure="false">VORM_0_Guide_DET!$D$1:$D$137</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0" vbProcedure="false">VORM_0_Guide_DET!$A$1:$E$137</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_COM" vbProcedure="false">VORM_0_Guide_DET!$A$5:$E$137</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="AREA" vbProcedure="false">VORM_0_Guide_DET!$A$1:$E$148</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0" vbProcedure="false">VORM_0_Guide_DET!$D$1:$D$148</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0" vbProcedure="false">VORM_0_Guide_DET!$A$1:$E$148</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_COM" vbProcedure="false">VORM_0_Guide_DET!$A$5:$E$148</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_SUP" vbProcedure="false">VORM_0_Guide_DET!$A$1:$E$4</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="AREA" vbProcedure="false">VORM_0_Classification!$A$1:$P$22</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="LMN_0" vbProcedure="false">VORM_0_Classification!$F$1:$O$22</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="272">
   <si>
     <t xml:space="preserve">fs</t>
   </si>
@@ -585,17 +585,22 @@
    1. setPrototypeOf</t>
   </si>
   <si>
-    <t xml:space="preserve">DET Object Instantiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DET Object Creation</t>
+    <t xml:space="preserve">Importation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">```
+import { DET } from '/dependencies/mvc-framework.js'
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instantiation</t>
   </si>
   <si>
     <t xml:space="preserve">New DET Object</t>
   </si>
   <si>
     <t xml:space="preserve">```
-const object = new DynamicEventTarget({
+const object = new DET({
   aaa: 111,
   bbb: true,
   ccc: "333",
@@ -613,6 +618,50 @@
 ```</t>
   </si>
   <si>
+    <t xml:space="preserve">Parsement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">```
+object.parse()
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">```
+object.inspect()
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Returns**  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">```
+{
+  "aaa": 111,
+  "bbb": true,
+  "ccc": "333",
+  "ddd": {
+    "eee": 555,
+    "fff": false,
+    "ggg": "777",
+    "hhh": {
+      "iii": 999,
+      "jjj": null,
+      "kkk": "111111"
+    }
+  }
+}
+```</t>
+  </si>
+  <si>
     <t xml:space="preserve">DET Object Event Listener Signment</t>
   </si>
   <si>
@@ -625,7 +674,9 @@
 }
 object.addEventListener("assign", objectAssign)
 object.assign({ aaa: 111111 })
-// CONSOLE LOG: assign { sources: [{ aaa: 111111 }]
+/*
+Log: assign { target: DynamicEventTarget }
+*/
 ```</t>
   </si>
   <si>
@@ -635,7 +686,16 @@
     <t xml:space="preserve">```
 object.removeEventListener("assign", objectAssign)
 object.assign({ aaa: 111111111 })
-// CONSOLE LOG: EMPTY
+/*
+Log: empty
+*/
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bubble Event Listener</t>
+  </si>
+  <si>
+    <t xml:space="preserve">```
 ```</t>
   </si>
   <si>
@@ -939,7 +999,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1046,15 +1106,22 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFE082"/>
+      <sz val="16"/>
       <name val="FreeMono"/>
       <family val="3"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="16"/>
+      <sz val="14"/>
+      <name val="FreeMono"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFE082"/>
       <name val="FreeMono"/>
       <family val="3"/>
       <charset val="1"/>
@@ -1504,7 +1571,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="109">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1777,11 +1844,31 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="28" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="28" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="38" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="38" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="31" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="31" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1793,11 +1880,39 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="37" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="37" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="35" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="35" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="39" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="24" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="39" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="35" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="35" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1805,7 +1920,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2091,11 +2206,11 @@
   <dimension ref="A1:Z238"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="0"/>
@@ -14393,14 +14508,14 @@
     <tabColor rgb="FFD500F9"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="H39" activeCellId="0" sqref="H39"/>
+      <selection pane="bottomLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
+      <selection pane="bottomRight" activeCell="D60" activeCellId="0" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -14806,13 +14921,13 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="48" t="s">
+    <row r="37" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="68"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="D37" s="70" t="s">
         <v>169</v>
       </c>
       <c r="E37" s="37"/>
@@ -14838,294 +14953,300 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" customFormat="false" ht="141.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="58"/>
       <c r="B40" s="58"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="69" t="s">
+      <c r="C40" s="71"/>
+      <c r="D40" s="72" t="s">
         <v>172</v>
       </c>
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="58"/>
       <c r="B41" s="58"/>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="61" t="s">
+      <c r="D41" s="74" t="s">
         <v>173</v>
       </c>
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="58"/>
       <c r="B42" s="58"/>
-      <c r="C42" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="D42" s="64" t="s">
+      <c r="C42" s="75"/>
+      <c r="D42" s="76" t="s">
         <v>174</v>
       </c>
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="58"/>
       <c r="B43" s="58"/>
-      <c r="C43" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D43" s="67" t="s">
+      <c r="C43" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="74" t="s">
         <v>175</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" customFormat="false" ht="166.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="58"/>
       <c r="B44" s="58"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="71" t="s">
+      <c r="C44" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="78" t="s">
         <v>176</v>
       </c>
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="166.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="58"/>
       <c r="B45" s="58"/>
-      <c r="C45" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="D45" s="64" t="s">
+      <c r="C45" s="75"/>
+      <c r="D45" s="76" t="s">
         <v>177</v>
       </c>
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="58"/>
       <c r="B46" s="58"/>
-      <c r="C46" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D46" s="67" t="s">
+      <c r="C46" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="80" t="s">
         <v>178</v>
       </c>
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" customFormat="false" ht="88.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="58"/>
       <c r="B47" s="58"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="71" t="s">
+      <c r="C47" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="78" t="s">
         <v>179</v>
       </c>
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="58"/>
       <c r="B48" s="58"/>
-      <c r="C48" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D48" s="67" t="s">
+      <c r="C48" s="75"/>
+      <c r="D48" s="76" t="s">
         <v>180</v>
       </c>
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="58"/>
       <c r="B49" s="58"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="71" t="s">
+      <c r="C49" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="80" t="s">
         <v>181</v>
       </c>
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="58"/>
       <c r="B50" s="58"/>
-      <c r="C50" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="D50" s="61" t="s">
+      <c r="C50" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="78" t="s">
         <v>182</v>
       </c>
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="58"/>
       <c r="B51" s="58"/>
-      <c r="C51" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" s="64" t="s">
+      <c r="C51" s="75"/>
+      <c r="D51" s="76" t="s">
         <v>183</v>
       </c>
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="58"/>
       <c r="B52" s="58"/>
-      <c r="C52" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D52" s="67" t="s">
+      <c r="C52" s="57"/>
+      <c r="D52" s="46" t="s">
         <v>184</v>
       </c>
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="53" customFormat="false" ht="171.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="58"/>
       <c r="B53" s="58"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="46" t="s">
+      <c r="C53" s="75"/>
+      <c r="D53" s="76" t="s">
         <v>185</v>
       </c>
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" customFormat="false" ht="69.35" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="54" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="58"/>
       <c r="B54" s="58"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="71" t="s">
+      <c r="C54" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" s="80" t="s">
         <v>186</v>
       </c>
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" s="1" customFormat="true" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="58"/>
       <c r="B55" s="58"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="46" t="s">
+      <c r="C55" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" s="78" t="s">
         <v>187</v>
       </c>
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="56" customFormat="false" ht="111.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="58"/>
       <c r="B56" s="58"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="46"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="76" t="s">
+        <v>188</v>
+      </c>
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="58"/>
       <c r="B57" s="58"/>
-      <c r="C57" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D57" s="67" t="s">
-        <v>188</v>
+      <c r="C57" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="D57" s="78" t="s">
+        <v>189</v>
       </c>
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="58" customFormat="false" ht="71.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="58"/>
       <c r="B58" s="58"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="46" t="s">
-        <v>189</v>
+      <c r="C58" s="81"/>
+      <c r="D58" s="82" t="s">
+        <v>190</v>
       </c>
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="58"/>
       <c r="B59" s="58"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="71" t="s">
-        <v>190</v>
+      <c r="C59" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" s="78" t="s">
+        <v>191</v>
       </c>
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="60" customFormat="false" ht="21.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="58"/>
       <c r="B60" s="58"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="46" t="s">
-        <v>191</v>
+      <c r="C60" s="81"/>
+      <c r="D60" s="82" t="s">
+        <v>192</v>
       </c>
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="61" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="58"/>
       <c r="B61" s="58"/>
-      <c r="C61" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D61" s="67" t="s">
-        <v>192</v>
+      <c r="C61" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="74" t="s">
+        <v>193</v>
       </c>
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="58"/>
       <c r="B62" s="58"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="46" t="s">
-        <v>193</v>
+      <c r="C62" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="D62" s="84" t="s">
+        <v>194</v>
       </c>
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A63" s="58"/>
       <c r="B63" s="58"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="71" t="s">
-        <v>194</v>
+      <c r="C63" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" s="67" t="s">
+        <v>195</v>
       </c>
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A64" s="58"/>
       <c r="B64" s="58"/>
       <c r="C64" s="57"/>
       <c r="D64" s="46" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="65" customFormat="false" ht="69.35" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A65" s="58"/>
       <c r="B65" s="58"/>
-      <c r="C65" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="D65" s="64" t="s">
-        <v>196</v>
+      <c r="C65" s="75"/>
+      <c r="D65" s="76" t="s">
+        <v>197</v>
       </c>
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="66" s="1" customFormat="true" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A66" s="58"/>
       <c r="B66" s="58"/>
       <c r="C66" s="57"/>
       <c r="D66" s="46" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
@@ -15133,52 +15254,48 @@
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A67" s="58"/>
       <c r="B67" s="58"/>
-      <c r="C67" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D67" s="67" t="s">
-        <v>198</v>
-      </c>
+      <c r="C67" s="57"/>
+      <c r="D67" s="46"/>
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A68" s="58"/>
       <c r="B68" s="58"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="46" t="s">
+      <c r="C68" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D68" s="67" t="s">
         <v>199</v>
       </c>
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A69" s="58"/>
       <c r="B69" s="58"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="71" t="s">
+      <c r="C69" s="57"/>
+      <c r="D69" s="46" t="s">
         <v>200</v>
       </c>
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="70" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A70" s="58"/>
       <c r="B70" s="58"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="46" t="s">
+      <c r="C70" s="75"/>
+      <c r="D70" s="76" t="s">
         <v>201</v>
       </c>
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="71" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A71" s="58"/>
       <c r="B71" s="58"/>
-      <c r="C71" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="D71" s="64" t="s">
+      <c r="C71" s="57"/>
+      <c r="D71" s="46" t="s">
         <v>202</v>
       </c>
       <c r="E71" s="37"/>
@@ -15206,17 +15323,17 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" customFormat="false" ht="69.35" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="74" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A74" s="58"/>
       <c r="B74" s="58"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="71" t="s">
+      <c r="C74" s="75"/>
+      <c r="D74" s="76" t="s">
         <v>205</v>
       </c>
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="75" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A75" s="58"/>
       <c r="B75" s="58"/>
       <c r="C75" s="57"/>
@@ -15226,13 +15343,13 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A76" s="58"/>
       <c r="B76" s="58"/>
-      <c r="C76" s="63" t="s">
+      <c r="C76" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="D76" s="64" t="s">
+      <c r="D76" s="84" t="s">
         <v>207</v>
       </c>
       <c r="E76" s="37"/>
@@ -15241,10 +15358,8 @@
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A77" s="58"/>
       <c r="B77" s="58"/>
-      <c r="C77" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D77" s="67" t="s">
+      <c r="C77" s="57"/>
+      <c r="D77" s="46" t="s">
         <v>208</v>
       </c>
       <c r="E77" s="37"/>
@@ -15253,52 +15368,52 @@
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A78" s="58"/>
       <c r="B78" s="58"/>
-      <c r="C78" s="57"/>
-      <c r="D78" s="46" t="s">
+      <c r="C78" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D78" s="67" t="s">
         <v>209</v>
       </c>
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A79" s="58"/>
       <c r="B79" s="58"/>
-      <c r="C79" s="70"/>
-      <c r="D79" s="71" t="s">
+      <c r="C79" s="57"/>
+      <c r="D79" s="46" t="s">
         <v>210</v>
       </c>
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="80" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A80" s="58"/>
       <c r="B80" s="58"/>
-      <c r="C80" s="57"/>
-      <c r="D80" s="46" t="s">
+      <c r="C80" s="75"/>
+      <c r="D80" s="76" t="s">
         <v>211</v>
       </c>
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="81" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A81" s="58"/>
       <c r="B81" s="58"/>
-      <c r="C81" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="D81" s="64" t="s">
+      <c r="C81" s="57"/>
+      <c r="D81" s="46" t="s">
         <v>212</v>
       </c>
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A82" s="58"/>
       <c r="B82" s="58"/>
-      <c r="C82" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D82" s="67" t="s">
+      <c r="C82" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="D82" s="84" t="s">
         <v>213</v>
       </c>
       <c r="E82" s="37"/>
@@ -15307,52 +15422,52 @@
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A83" s="58"/>
       <c r="B83" s="58"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="46" t="s">
+      <c r="C83" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D83" s="67" t="s">
         <v>214</v>
       </c>
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A84" s="58"/>
       <c r="B84" s="58"/>
-      <c r="C84" s="70"/>
-      <c r="D84" s="71" t="s">
+      <c r="C84" s="57"/>
+      <c r="D84" s="46" t="s">
         <v>215</v>
       </c>
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="85" customFormat="false" ht="69.35" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A85" s="58"/>
       <c r="B85" s="58"/>
-      <c r="C85" s="57"/>
-      <c r="D85" s="46" t="s">
+      <c r="C85" s="75"/>
+      <c r="D85" s="76" t="s">
         <v>216</v>
       </c>
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="86" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A86" s="58"/>
       <c r="B86" s="58"/>
-      <c r="C86" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="D86" s="64" t="s">
+      <c r="C86" s="57"/>
+      <c r="D86" s="46" t="s">
         <v>217</v>
       </c>
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A87" s="58"/>
       <c r="B87" s="58"/>
-      <c r="C87" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D87" s="67" t="s">
+      <c r="C87" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="D87" s="84" t="s">
         <v>218</v>
       </c>
       <c r="E87" s="37"/>
@@ -15361,436 +15476,440 @@
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A88" s="58"/>
       <c r="B88" s="58"/>
-      <c r="C88" s="57"/>
-      <c r="D88" s="46" t="s">
+      <c r="C88" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D88" s="67" t="s">
         <v>219</v>
       </c>
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A89" s="58"/>
       <c r="B89" s="58"/>
-      <c r="C89" s="70"/>
-      <c r="D89" s="71" t="s">
+      <c r="C89" s="57"/>
+      <c r="D89" s="46" t="s">
         <v>220</v>
       </c>
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="90" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A90" s="58"/>
       <c r="B90" s="58"/>
-      <c r="C90" s="57"/>
-      <c r="D90" s="46" t="s">
+      <c r="C90" s="75"/>
+      <c r="D90" s="76" t="s">
         <v>221</v>
       </c>
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="73" t="n">
+    <row r="91" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A91" s="58"/>
+      <c r="B91" s="58"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="E91" s="37"/>
+      <c r="F91" s="38"/>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A92" s="58"/>
+      <c r="B92" s="58"/>
+      <c r="C92" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="D92" s="84" t="s">
+        <v>223</v>
+      </c>
+      <c r="E92" s="37"/>
+      <c r="F92" s="38"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A93" s="58"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D93" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="E93" s="37"/>
+      <c r="F93" s="38"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A94" s="58"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="E94" s="37"/>
+      <c r="F94" s="38"/>
+    </row>
+    <row r="95" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A95" s="58"/>
+      <c r="B95" s="58"/>
+      <c r="C95" s="75"/>
+      <c r="D95" s="76" t="s">
+        <v>226</v>
+      </c>
+      <c r="E95" s="37"/>
+      <c r="F95" s="38"/>
+    </row>
+    <row r="96" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A96" s="58"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="E96" s="37"/>
+      <c r="F96" s="38"/>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A97" s="58"/>
+      <c r="B97" s="58"/>
+      <c r="C97" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="D97" s="84" t="s">
+        <v>228</v>
+      </c>
+      <c r="E97" s="37"/>
+      <c r="F97" s="38"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A98" s="58"/>
+      <c r="B98" s="58"/>
+      <c r="C98" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D98" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="E98" s="37"/>
+      <c r="F98" s="38"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A99" s="58"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="57"/>
+      <c r="D99" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="E99" s="37"/>
+      <c r="F99" s="38"/>
+    </row>
+    <row r="100" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A100" s="58"/>
+      <c r="B100" s="58"/>
+      <c r="C100" s="75"/>
+      <c r="D100" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="E100" s="37"/>
+      <c r="F100" s="38"/>
+    </row>
+    <row r="101" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A101" s="58"/>
+      <c r="B101" s="58"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E101" s="37"/>
+      <c r="F101" s="38"/>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="85" t="n">
         <f aca="false">VINE_Documents!$A$19</f>
         <v>15</v>
       </c>
-      <c r="B91" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="C91" s="43"/>
-      <c r="D91" s="74"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="38"/>
-    </row>
-    <row r="92" customFormat="false" ht="19.7" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A92" s="47"/>
-      <c r="B92" s="47"/>
-      <c r="C92" s="75" t="s">
-        <v>140</v>
-      </c>
-      <c r="D92" s="76" t="s">
-        <v>223</v>
-      </c>
-      <c r="E92" s="37"/>
-      <c r="F92" s="38"/>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A93" s="60"/>
-      <c r="B93" s="60"/>
-      <c r="C93" s="77" t="s">
-        <v>143</v>
-      </c>
-      <c r="D93" s="78"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="38"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A94" s="44"/>
-      <c r="B94" s="44"/>
-      <c r="C94" s="79"/>
-      <c r="D94" s="80" t="s">
-        <v>224</v>
-      </c>
-      <c r="E94" s="37"/>
-      <c r="F94" s="38"/>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A95" s="44"/>
-      <c r="B95" s="44"/>
-      <c r="C95" s="79"/>
-      <c r="D95" s="80" t="s">
-        <v>225</v>
-      </c>
-      <c r="E95" s="37"/>
-      <c r="F95" s="38"/>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A96" s="81"/>
-      <c r="B96" s="81"/>
-      <c r="C96" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="D96" s="83" t="s">
-        <v>226</v>
-      </c>
-      <c r="E96" s="37"/>
-      <c r="F96" s="38"/>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A97" s="84"/>
-      <c r="B97" s="84"/>
-      <c r="C97" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="D97" s="86" t="s">
-        <v>227</v>
-      </c>
-      <c r="E97" s="37"/>
-      <c r="F97" s="38"/>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A98" s="44"/>
-      <c r="B98" s="44"/>
-      <c r="C98" s="79"/>
-      <c r="D98" s="80"/>
-      <c r="E98" s="37"/>
-      <c r="F98" s="38"/>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A99" s="84"/>
-      <c r="B99" s="84"/>
-      <c r="C99" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="D99" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="E99" s="37"/>
-      <c r="F99" s="38"/>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A100" s="44"/>
-      <c r="B100" s="44"/>
-      <c r="C100" s="79"/>
-      <c r="D100" s="80"/>
-      <c r="E100" s="37"/>
-      <c r="F100" s="38"/>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A101" s="81"/>
-      <c r="B101" s="81"/>
-      <c r="C101" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="D101" s="83" t="s">
-        <v>229</v>
-      </c>
-      <c r="E101" s="37"/>
-      <c r="F101" s="38"/>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A102" s="84"/>
-      <c r="B102" s="84"/>
-      <c r="C102" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="D102" s="86" t="s">
-        <v>230</v>
-      </c>
+      <c r="B102" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="C102" s="43"/>
+      <c r="D102" s="86"/>
       <c r="E102" s="37"/>
       <c r="F102" s="38"/>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A103" s="44"/>
-      <c r="B103" s="44"/>
-      <c r="C103" s="79"/>
-      <c r="D103" s="80"/>
+    <row r="103" customFormat="false" ht="19.7" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A103" s="47"/>
+      <c r="B103" s="47"/>
+      <c r="C103" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="D103" s="88" t="s">
+        <v>234</v>
+      </c>
       <c r="E103" s="37"/>
       <c r="F103" s="38"/>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A104" s="84"/>
-      <c r="B104" s="84"/>
-      <c r="C104" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="D104" s="86" t="s">
-        <v>231</v>
-      </c>
+    <row r="104" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A104" s="60"/>
+      <c r="B104" s="60"/>
+      <c r="C104" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="D104" s="90"/>
       <c r="E104" s="37"/>
       <c r="F104" s="38"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
-      <c r="C105" s="79"/>
-      <c r="D105" s="80"/>
+      <c r="C105" s="91"/>
+      <c r="D105" s="92" t="s">
+        <v>235</v>
+      </c>
       <c r="E105" s="37"/>
       <c r="F105" s="38"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A106" s="81"/>
-      <c r="B106" s="81"/>
-      <c r="C106" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="D106" s="83" t="s">
-        <v>232</v>
+      <c r="A106" s="44"/>
+      <c r="B106" s="44"/>
+      <c r="C106" s="91"/>
+      <c r="D106" s="92" t="s">
+        <v>236</v>
       </c>
       <c r="E106" s="37"/>
       <c r="F106" s="38"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A107" s="84"/>
-      <c r="B107" s="84"/>
-      <c r="C107" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="D107" s="86" t="s">
-        <v>233</v>
+      <c r="A107" s="93"/>
+      <c r="B107" s="93"/>
+      <c r="C107" s="94" t="s">
+        <v>149</v>
+      </c>
+      <c r="D107" s="95" t="s">
+        <v>237</v>
       </c>
       <c r="E107" s="37"/>
       <c r="F107" s="38"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A108" s="44"/>
-      <c r="B108" s="44"/>
-      <c r="C108" s="79"/>
-      <c r="D108" s="80"/>
+      <c r="A108" s="96"/>
+      <c r="B108" s="96"/>
+      <c r="C108" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="D108" s="98" t="s">
+        <v>238</v>
+      </c>
       <c r="E108" s="37"/>
       <c r="F108" s="38"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A109" s="81"/>
-      <c r="B109" s="81"/>
-      <c r="C109" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="D109" s="83" t="s">
-        <v>234</v>
-      </c>
+      <c r="A109" s="44"/>
+      <c r="B109" s="44"/>
+      <c r="C109" s="91"/>
+      <c r="D109" s="92"/>
       <c r="E109" s="37"/>
       <c r="F109" s="38"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A110" s="84"/>
-      <c r="B110" s="84"/>
-      <c r="C110" s="85" t="s">
+      <c r="A110" s="96"/>
+      <c r="B110" s="96"/>
+      <c r="C110" s="97" t="s">
         <v>160</v>
       </c>
-      <c r="D110" s="86" t="s">
-        <v>235</v>
+      <c r="D110" s="98" t="s">
+        <v>239</v>
       </c>
       <c r="E110" s="37"/>
       <c r="F110" s="38"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A111" s="84"/>
-      <c r="B111" s="84"/>
-      <c r="C111" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="D111" s="86" t="s">
-        <v>236</v>
-      </c>
+      <c r="A111" s="44"/>
+      <c r="B111" s="44"/>
+      <c r="C111" s="91"/>
+      <c r="D111" s="92"/>
       <c r="E111" s="37"/>
       <c r="F111" s="38"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A112" s="44"/>
-      <c r="B112" s="44"/>
-      <c r="C112" s="79"/>
-      <c r="D112" s="80"/>
+      <c r="A112" s="93"/>
+      <c r="B112" s="93"/>
+      <c r="C112" s="94" t="s">
+        <v>149</v>
+      </c>
+      <c r="D112" s="95" t="s">
+        <v>240</v>
+      </c>
       <c r="E112" s="37"/>
       <c r="F112" s="38"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A113" s="81"/>
-      <c r="B113" s="81"/>
-      <c r="C113" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="D113" s="83" t="s">
-        <v>237</v>
+      <c r="A113" s="96"/>
+      <c r="B113" s="96"/>
+      <c r="C113" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="D113" s="98" t="s">
+        <v>241</v>
       </c>
       <c r="E113" s="37"/>
       <c r="F113" s="38"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A114" s="84"/>
-      <c r="B114" s="84"/>
-      <c r="C114" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="D114" s="86" t="s">
-        <v>238</v>
-      </c>
+      <c r="A114" s="44"/>
+      <c r="B114" s="44"/>
+      <c r="C114" s="91"/>
+      <c r="D114" s="92"/>
       <c r="E114" s="37"/>
       <c r="F114" s="38"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A115" s="44"/>
-      <c r="B115" s="44"/>
-      <c r="C115" s="79"/>
-      <c r="D115" s="80"/>
+      <c r="A115" s="96"/>
+      <c r="B115" s="96"/>
+      <c r="C115" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="D115" s="98" t="s">
+        <v>242</v>
+      </c>
       <c r="E115" s="37"/>
       <c r="F115" s="38"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A116" s="81"/>
-      <c r="B116" s="81"/>
-      <c r="C116" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="D116" s="83" t="s">
-        <v>239</v>
-      </c>
+      <c r="A116" s="44"/>
+      <c r="B116" s="44"/>
+      <c r="C116" s="91"/>
+      <c r="D116" s="92"/>
       <c r="E116" s="37"/>
       <c r="F116" s="38"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A117" s="84"/>
-      <c r="B117" s="84"/>
-      <c r="C117" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="D117" s="86" t="s">
-        <v>240</v>
+      <c r="A117" s="93"/>
+      <c r="B117" s="93"/>
+      <c r="C117" s="94" t="s">
+        <v>149</v>
+      </c>
+      <c r="D117" s="95" t="s">
+        <v>243</v>
       </c>
       <c r="E117" s="37"/>
       <c r="F117" s="38"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A118" s="44"/>
-      <c r="B118" s="44"/>
-      <c r="C118" s="79"/>
-      <c r="D118" s="80"/>
+      <c r="A118" s="96"/>
+      <c r="B118" s="96"/>
+      <c r="C118" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="D118" s="98" t="s">
+        <v>244</v>
+      </c>
       <c r="E118" s="37"/>
       <c r="F118" s="38"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A119" s="81"/>
-      <c r="B119" s="81"/>
-      <c r="C119" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="D119" s="83" t="s">
-        <v>241</v>
-      </c>
+      <c r="A119" s="44"/>
+      <c r="B119" s="44"/>
+      <c r="C119" s="91"/>
+      <c r="D119" s="92"/>
       <c r="E119" s="37"/>
       <c r="F119" s="38"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A120" s="84"/>
-      <c r="B120" s="84"/>
-      <c r="C120" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="D120" s="86" t="s">
-        <v>242</v>
+      <c r="A120" s="93"/>
+      <c r="B120" s="93"/>
+      <c r="C120" s="94" t="s">
+        <v>149</v>
+      </c>
+      <c r="D120" s="95" t="s">
+        <v>245</v>
       </c>
       <c r="E120" s="37"/>
       <c r="F120" s="38"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A121" s="44"/>
-      <c r="B121" s="44"/>
-      <c r="C121" s="79"/>
-      <c r="D121" s="80"/>
+      <c r="A121" s="96"/>
+      <c r="B121" s="96"/>
+      <c r="C121" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="D121" s="98" t="s">
+        <v>246</v>
+      </c>
       <c r="E121" s="37"/>
       <c r="F121" s="38"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A122" s="81"/>
-      <c r="B122" s="81"/>
-      <c r="C122" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="D122" s="83" t="s">
-        <v>243</v>
+      <c r="A122" s="96"/>
+      <c r="B122" s="96"/>
+      <c r="C122" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="D122" s="98" t="s">
+        <v>247</v>
       </c>
       <c r="E122" s="37"/>
       <c r="F122" s="38"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A123" s="84"/>
-      <c r="B123" s="84"/>
-      <c r="C123" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="D123" s="86" t="s">
-        <v>244</v>
-      </c>
+      <c r="A123" s="44"/>
+      <c r="B123" s="44"/>
+      <c r="C123" s="91"/>
+      <c r="D123" s="92"/>
       <c r="E123" s="37"/>
       <c r="F123" s="38"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A124" s="44"/>
-      <c r="B124" s="44"/>
-      <c r="C124" s="79"/>
-      <c r="D124" s="80"/>
+      <c r="A124" s="93"/>
+      <c r="B124" s="93"/>
+      <c r="C124" s="94" t="s">
+        <v>149</v>
+      </c>
+      <c r="D124" s="95" t="s">
+        <v>248</v>
+      </c>
       <c r="E124" s="37"/>
       <c r="F124" s="38"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A125" s="81"/>
-      <c r="B125" s="81"/>
-      <c r="C125" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="D125" s="83" t="s">
-        <v>245</v>
+      <c r="A125" s="96"/>
+      <c r="B125" s="96"/>
+      <c r="C125" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="D125" s="98" t="s">
+        <v>249</v>
       </c>
       <c r="E125" s="37"/>
       <c r="F125" s="38"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A126" s="84"/>
-      <c r="B126" s="84"/>
-      <c r="C126" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="D126" s="86" t="s">
-        <v>246</v>
-      </c>
+      <c r="A126" s="44"/>
+      <c r="B126" s="44"/>
+      <c r="C126" s="91"/>
+      <c r="D126" s="92"/>
       <c r="E126" s="37"/>
       <c r="F126" s="38"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A127" s="44"/>
-      <c r="B127" s="44"/>
-      <c r="C127" s="79"/>
-      <c r="D127" s="80"/>
+      <c r="A127" s="93"/>
+      <c r="B127" s="93"/>
+      <c r="C127" s="94" t="s">
+        <v>149</v>
+      </c>
+      <c r="D127" s="95" t="s">
+        <v>250</v>
+      </c>
       <c r="E127" s="37"/>
       <c r="F127" s="38"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A128" s="84"/>
-      <c r="B128" s="84"/>
-      <c r="C128" s="85" t="s">
+      <c r="A128" s="96"/>
+      <c r="B128" s="96"/>
+      <c r="C128" s="97" t="s">
         <v>160</v>
       </c>
-      <c r="D128" s="86" t="s">
-        <v>247</v>
+      <c r="D128" s="98" t="s">
+        <v>251</v>
       </c>
       <c r="E128" s="37"/>
       <c r="F128" s="38"/>
@@ -15798,100 +15917,216 @@
     <row r="129" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
-      <c r="C129" s="79"/>
-      <c r="D129" s="80"/>
+      <c r="C129" s="91"/>
+      <c r="D129" s="92"/>
       <c r="E129" s="37"/>
       <c r="F129" s="38"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A130" s="84"/>
-      <c r="B130" s="84"/>
-      <c r="C130" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="D130" s="86" t="s">
-        <v>248</v>
+      <c r="A130" s="93"/>
+      <c r="B130" s="93"/>
+      <c r="C130" s="94" t="s">
+        <v>149</v>
+      </c>
+      <c r="D130" s="95" t="s">
+        <v>252</v>
       </c>
       <c r="E130" s="37"/>
       <c r="F130" s="38"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A131" s="44"/>
-      <c r="B131" s="44"/>
-      <c r="C131" s="79"/>
-      <c r="D131" s="80"/>
+      <c r="A131" s="96"/>
+      <c r="B131" s="96"/>
+      <c r="C131" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="D131" s="98" t="s">
+        <v>253</v>
+      </c>
       <c r="E131" s="37"/>
       <c r="F131" s="38"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A132" s="81"/>
-      <c r="B132" s="81"/>
-      <c r="C132" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="D132" s="83" t="s">
-        <v>249</v>
-      </c>
+      <c r="A132" s="44"/>
+      <c r="B132" s="44"/>
+      <c r="C132" s="91"/>
+      <c r="D132" s="92"/>
       <c r="E132" s="37"/>
       <c r="F132" s="38"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A133" s="84"/>
-      <c r="B133" s="84"/>
-      <c r="C133" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="D133" s="86" t="s">
-        <v>250</v>
+      <c r="A133" s="93"/>
+      <c r="B133" s="93"/>
+      <c r="C133" s="94" t="s">
+        <v>149</v>
+      </c>
+      <c r="D133" s="95" t="s">
+        <v>254</v>
       </c>
       <c r="E133" s="37"/>
       <c r="F133" s="38"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A134" s="44"/>
-      <c r="B134" s="44"/>
-      <c r="C134" s="79"/>
-      <c r="D134" s="80"/>
+      <c r="A134" s="96"/>
+      <c r="B134" s="96"/>
+      <c r="C134" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="D134" s="98" t="s">
+        <v>255</v>
+      </c>
       <c r="E134" s="37"/>
       <c r="F134" s="38"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A135" s="84"/>
-      <c r="B135" s="84"/>
-      <c r="C135" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="D135" s="86" t="s">
-        <v>251</v>
-      </c>
+      <c r="A135" s="44"/>
+      <c r="B135" s="44"/>
+      <c r="C135" s="91"/>
+      <c r="D135" s="92"/>
       <c r="E135" s="37"/>
       <c r="F135" s="38"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A136" s="44"/>
-      <c r="B136" s="44"/>
-      <c r="C136" s="79"/>
-      <c r="D136" s="80"/>
+      <c r="A136" s="93"/>
+      <c r="B136" s="93"/>
+      <c r="C136" s="94" t="s">
+        <v>149</v>
+      </c>
+      <c r="D136" s="95" t="s">
+        <v>256</v>
+      </c>
       <c r="E136" s="37"/>
       <c r="F136" s="38"/>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="37"/>
-      <c r="B137" s="37"/>
-      <c r="C137" s="37"/>
-      <c r="D137" s="37"/>
+    <row r="137" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A137" s="96"/>
+      <c r="B137" s="96"/>
+      <c r="C137" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="D137" s="98" t="s">
+        <v>257</v>
+      </c>
       <c r="E137" s="37"/>
       <c r="F137" s="38"/>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="38"/>
-      <c r="B138" s="38"/>
-      <c r="C138" s="87"/>
-      <c r="D138" s="88" t="n">
+    <row r="138" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A138" s="44"/>
+      <c r="B138" s="44"/>
+      <c r="C138" s="91"/>
+      <c r="D138" s="92"/>
+      <c r="E138" s="37"/>
+      <c r="F138" s="38"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A139" s="96"/>
+      <c r="B139" s="96"/>
+      <c r="C139" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="D139" s="98" t="s">
+        <v>258</v>
+      </c>
+      <c r="E139" s="37"/>
+      <c r="F139" s="38"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A140" s="44"/>
+      <c r="B140" s="44"/>
+      <c r="C140" s="91"/>
+      <c r="D140" s="92"/>
+      <c r="E140" s="37"/>
+      <c r="F140" s="38"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A141" s="96"/>
+      <c r="B141" s="96"/>
+      <c r="C141" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="D141" s="98" t="s">
+        <v>259</v>
+      </c>
+      <c r="E141" s="37"/>
+      <c r="F141" s="38"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A142" s="44"/>
+      <c r="B142" s="44"/>
+      <c r="C142" s="91"/>
+      <c r="D142" s="92"/>
+      <c r="E142" s="37"/>
+      <c r="F142" s="38"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A143" s="93"/>
+      <c r="B143" s="93"/>
+      <c r="C143" s="94" t="s">
+        <v>149</v>
+      </c>
+      <c r="D143" s="95" t="s">
+        <v>260</v>
+      </c>
+      <c r="E143" s="37"/>
+      <c r="F143" s="38"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A144" s="96"/>
+      <c r="B144" s="96"/>
+      <c r="C144" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="D144" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="E144" s="37"/>
+      <c r="F144" s="38"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A145" s="44"/>
+      <c r="B145" s="44"/>
+      <c r="C145" s="91"/>
+      <c r="D145" s="92"/>
+      <c r="E145" s="37"/>
+      <c r="F145" s="38"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A146" s="96"/>
+      <c r="B146" s="96"/>
+      <c r="C146" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="D146" s="98" t="s">
+        <v>262</v>
+      </c>
+      <c r="E146" s="37"/>
+      <c r="F146" s="38"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A147" s="44"/>
+      <c r="B147" s="44"/>
+      <c r="C147" s="91"/>
+      <c r="D147" s="92"/>
+      <c r="E147" s="37"/>
+      <c r="F147" s="38"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="37"/>
+      <c r="B148" s="37"/>
+      <c r="C148" s="37"/>
+      <c r="D148" s="37"/>
+      <c r="E148" s="37"/>
+      <c r="F148" s="38"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="38"/>
+      <c r="B149" s="38"/>
+      <c r="C149" s="99"/>
+      <c r="D149" s="100" t="n">
         <v>0</v>
       </c>
-      <c r="E138" s="38"/>
-      <c r="F138" s="38"/>
+      <c r="E149" s="38"/>
+      <c r="F149" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -15931,18 +16166,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="89" width="4.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="89" width="2.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="90" width="2.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="90" width="3.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="90" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="89" width="2.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="89" width="4.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="89" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="89" width="60.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="89" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="89" width="9.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="19" style="89" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="101" width="4.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="101" width="2.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="102" width="2.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="102" width="3.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="102" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="101" width="2.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="101" width="4.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="101" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="101" width="60.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="101" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="101" width="9.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="19" style="101" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15977,11 +16212,11 @@
       <c r="B2" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="91" t="s">
-        <v>252</v>
-      </c>
-      <c r="D2" s="91" t="s">
-        <v>253</v>
+      <c r="C2" s="103" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="103" t="s">
+        <v>264</v>
       </c>
       <c r="E2" s="40" t="s">
         <v>135</v>
@@ -16002,8 +16237,8 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
       <c r="E3" s="41" t="s">
         <v>136</v>
       </c>
@@ -16028,418 +16263,418 @@
         <v>25</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
+        <v>265</v>
+      </c>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
       <c r="P4" s="37"/>
       <c r="Q4" s="38"/>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="93"/>
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="105"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
-      <c r="C5" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="D5" s="95" t="s">
-        <v>256</v>
+      <c r="C5" s="106" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" s="107" t="s">
+        <v>267</v>
       </c>
       <c r="E5" s="48" t="s">
         <v>140</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>257</v>
-      </c>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
+        <v>268</v>
+      </c>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
       <c r="P5" s="37"/>
       <c r="Q5" s="38"/>
-      <c r="AB5" s="93"/>
-      <c r="AC5" s="93"/>
+      <c r="AB5" s="105"/>
+      <c r="AC5" s="105"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="95"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="107"/>
       <c r="E6" s="48"/>
       <c r="F6" s="49"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
       <c r="P6" s="37"/>
       <c r="Q6" s="38"/>
-      <c r="AB6" s="93"/>
-      <c r="AC6" s="93"/>
+      <c r="AB6" s="105"/>
+      <c r="AC6" s="105"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="47"/>
       <c r="B7" s="47"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="95"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
       <c r="E7" s="48"/>
       <c r="F7" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
       <c r="P7" s="37"/>
       <c r="Q7" s="38"/>
-      <c r="AB7" s="93"/>
-      <c r="AC7" s="93"/>
+      <c r="AB7" s="105"/>
+      <c r="AC7" s="105"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="95"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="107"/>
       <c r="E8" s="48"/>
       <c r="F8" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
       <c r="P8" s="37"/>
       <c r="Q8" s="38"/>
-      <c r="AB8" s="93"/>
-      <c r="AC8" s="93"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="105"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="47"/>
       <c r="B9" s="47"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="95"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="107"/>
       <c r="E9" s="48"/>
       <c r="F9" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
       <c r="P9" s="37"/>
       <c r="Q9" s="38"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="93"/>
+      <c r="AB9" s="105"/>
+      <c r="AC9" s="105"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="95"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
       <c r="E10" s="48"/>
       <c r="F10" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
       <c r="P10" s="37"/>
       <c r="Q10" s="38"/>
-      <c r="AB10" s="93"/>
-      <c r="AC10" s="93"/>
+      <c r="AB10" s="105"/>
+      <c r="AC10" s="105"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="47"/>
       <c r="B11" s="47"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="95"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="107"/>
       <c r="E11" s="48"/>
       <c r="F11" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="108"/>
       <c r="P11" s="37"/>
       <c r="Q11" s="38"/>
-      <c r="AB11" s="93"/>
-      <c r="AC11" s="93"/>
+      <c r="AB11" s="105"/>
+      <c r="AC11" s="105"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="47"/>
       <c r="B12" s="47"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="95"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="107"/>
       <c r="E12" s="48"/>
       <c r="F12" s="49"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
       <c r="P12" s="37"/>
       <c r="Q12" s="38"/>
-      <c r="AB12" s="93"/>
-      <c r="AC12" s="93"/>
+      <c r="AB12" s="105"/>
+      <c r="AC12" s="105"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="47"/>
       <c r="B13" s="47"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="95"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="107"/>
       <c r="E13" s="48"/>
       <c r="F13" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
       <c r="P13" s="37"/>
       <c r="Q13" s="38"/>
-      <c r="AB13" s="93"/>
-      <c r="AC13" s="93"/>
+      <c r="AB13" s="105"/>
+      <c r="AC13" s="105"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="95"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="107"/>
       <c r="E14" s="48"/>
       <c r="F14" s="49" t="s">
-        <v>258</v>
-      </c>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
+        <v>269</v>
+      </c>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
       <c r="P14" s="37"/>
       <c r="Q14" s="38"/>
-      <c r="AB14" s="93"/>
-      <c r="AC14" s="93"/>
+      <c r="AB14" s="105"/>
+      <c r="AC14" s="105"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="47"/>
       <c r="B15" s="47"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="107"/>
       <c r="E15" s="48"/>
       <c r="F15" s="49" t="s">
-        <v>259</v>
-      </c>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
+        <v>270</v>
+      </c>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
       <c r="P15" s="37"/>
       <c r="Q15" s="38"/>
-      <c r="AB15" s="93"/>
-      <c r="AC15" s="93"/>
+      <c r="AB15" s="105"/>
+      <c r="AC15" s="105"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="47"/>
       <c r="B16" s="47"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="95"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="107"/>
       <c r="E16" s="48"/>
       <c r="F16" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
       <c r="P16" s="37"/>
       <c r="Q16" s="38"/>
-      <c r="AB16" s="93"/>
-      <c r="AC16" s="93"/>
+      <c r="AB16" s="105"/>
+      <c r="AC16" s="105"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="47"/>
       <c r="B17" s="47"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="107"/>
       <c r="E17" s="48"/>
       <c r="F17" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
       <c r="P17" s="37"/>
       <c r="Q17" s="38"/>
-      <c r="AB17" s="93"/>
-      <c r="AC17" s="93"/>
+      <c r="AB17" s="105"/>
+      <c r="AC17" s="105"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="47"/>
       <c r="B18" s="47"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="95"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="107"/>
       <c r="E18" s="48"/>
       <c r="F18" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
+        <v>271</v>
+      </c>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="38"/>
-      <c r="AB18" s="93"/>
-      <c r="AC18" s="93"/>
+      <c r="AB18" s="105"/>
+      <c r="AC18" s="105"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="47"/>
       <c r="B19" s="47"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="95"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="107"/>
       <c r="E19" s="48"/>
       <c r="F19" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
       <c r="P19" s="37"/>
       <c r="Q19" s="38"/>
-      <c r="AB19" s="93"/>
-      <c r="AC19" s="93"/>
+      <c r="AB19" s="105"/>
+      <c r="AC19" s="105"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="47"/>
       <c r="B20" s="47"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="95"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="107"/>
       <c r="E20" s="48"/>
       <c r="F20" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
       <c r="P20" s="37"/>
       <c r="Q20" s="38"/>
-      <c r="AB20" s="93"/>
-      <c r="AC20" s="93"/>
+      <c r="AB20" s="105"/>
+      <c r="AC20" s="105"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="47"/>
       <c r="B21" s="47"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="107"/>
       <c r="E21" s="48"/>
       <c r="F21" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="96"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
       <c r="P21" s="37"/>
       <c r="Q21" s="38"/>
-      <c r="AB21" s="93"/>
-      <c r="AC21" s="93"/>
+      <c r="AB21" s="105"/>
+      <c r="AC21" s="105"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="37"/>
@@ -16459,155 +16694,155 @@
       <c r="O22" s="37"/>
       <c r="P22" s="37"/>
       <c r="Q22" s="38"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="93"/>
-      <c r="AB22" s="93"/>
-      <c r="AC22" s="93"/>
+      <c r="W22" s="105"/>
+      <c r="X22" s="105"/>
+      <c r="AB22" s="105"/>
+      <c r="AC22" s="105"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="38"/>
       <c r="B23" s="38"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="88" t="n">
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="100" t="n">
         <v>0</v>
       </c>
-      <c r="G23" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="88" t="n">
+      <c r="G23" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="100" t="n">
         <v>2</v>
       </c>
-      <c r="I23" s="88" t="n">
+      <c r="I23" s="100" t="n">
         <v>3</v>
       </c>
-      <c r="J23" s="88" t="n">
-        <v>4</v>
-      </c>
-      <c r="K23" s="88" t="n">
-        <v>5</v>
-      </c>
-      <c r="L23" s="88" t="n">
+      <c r="J23" s="100" t="n">
+        <v>4</v>
+      </c>
+      <c r="K23" s="100" t="n">
+        <v>5</v>
+      </c>
+      <c r="L23" s="100" t="n">
         <v>6</v>
       </c>
-      <c r="M23" s="88" t="n">
+      <c r="M23" s="100" t="n">
         <v>7</v>
       </c>
-      <c r="N23" s="88" t="n">
+      <c r="N23" s="100" t="n">
         <v>8</v>
       </c>
-      <c r="O23" s="88" t="n">
+      <c r="O23" s="100" t="n">
         <v>9</v>
       </c>
       <c r="P23" s="38"/>
       <c r="Q23" s="38"/>
-      <c r="W23" s="93"/>
-      <c r="X23" s="93"/>
-      <c r="AB23" s="93"/>
-      <c r="AC23" s="93"/>
+      <c r="W23" s="105"/>
+      <c r="X23" s="105"/>
+      <c r="AB23" s="105"/>
+      <c r="AC23" s="105"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W24" s="93"/>
-      <c r="X24" s="93"/>
-      <c r="AB24" s="93"/>
-      <c r="AC24" s="93"/>
+      <c r="W24" s="105"/>
+      <c r="X24" s="105"/>
+      <c r="AB24" s="105"/>
+      <c r="AC24" s="105"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W25" s="93"/>
-      <c r="X25" s="93"/>
-      <c r="AB25" s="93"/>
-      <c r="AC25" s="93"/>
+      <c r="W25" s="105"/>
+      <c r="X25" s="105"/>
+      <c r="AB25" s="105"/>
+      <c r="AC25" s="105"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W26" s="93"/>
-      <c r="X26" s="93"/>
-      <c r="AB26" s="93"/>
-      <c r="AC26" s="93"/>
+      <c r="W26" s="105"/>
+      <c r="X26" s="105"/>
+      <c r="AB26" s="105"/>
+      <c r="AC26" s="105"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W27" s="93"/>
-      <c r="X27" s="93"/>
-      <c r="AB27" s="93"/>
-      <c r="AC27" s="93"/>
+      <c r="W27" s="105"/>
+      <c r="X27" s="105"/>
+      <c r="AB27" s="105"/>
+      <c r="AC27" s="105"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W28" s="93"/>
-      <c r="X28" s="93"/>
-      <c r="AB28" s="93"/>
-      <c r="AC28" s="93"/>
+      <c r="W28" s="105"/>
+      <c r="X28" s="105"/>
+      <c r="AB28" s="105"/>
+      <c r="AC28" s="105"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W29" s="93"/>
-      <c r="X29" s="93"/>
-      <c r="AB29" s="93"/>
-      <c r="AC29" s="93"/>
+      <c r="W29" s="105"/>
+      <c r="X29" s="105"/>
+      <c r="AB29" s="105"/>
+      <c r="AC29" s="105"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W30" s="93"/>
-      <c r="X30" s="93"/>
-      <c r="AB30" s="93"/>
-      <c r="AC30" s="93"/>
+      <c r="W30" s="105"/>
+      <c r="X30" s="105"/>
+      <c r="AB30" s="105"/>
+      <c r="AC30" s="105"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W31" s="93"/>
-      <c r="X31" s="93"/>
-      <c r="AB31" s="93"/>
-      <c r="AC31" s="93"/>
+      <c r="W31" s="105"/>
+      <c r="X31" s="105"/>
+      <c r="AB31" s="105"/>
+      <c r="AC31" s="105"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W32" s="93"/>
-      <c r="X32" s="93"/>
-      <c r="AB32" s="93"/>
-      <c r="AC32" s="93"/>
+      <c r="W32" s="105"/>
+      <c r="X32" s="105"/>
+      <c r="AB32" s="105"/>
+      <c r="AC32" s="105"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W33" s="93"/>
-      <c r="X33" s="93"/>
-      <c r="AB33" s="93"/>
-      <c r="AC33" s="93"/>
+      <c r="W33" s="105"/>
+      <c r="X33" s="105"/>
+      <c r="AB33" s="105"/>
+      <c r="AC33" s="105"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W34" s="93"/>
-      <c r="X34" s="93"/>
-      <c r="AB34" s="93"/>
-      <c r="AC34" s="93"/>
+      <c r="W34" s="105"/>
+      <c r="X34" s="105"/>
+      <c r="AB34" s="105"/>
+      <c r="AC34" s="105"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W35" s="93"/>
-      <c r="X35" s="93"/>
-      <c r="AB35" s="93"/>
-      <c r="AC35" s="93"/>
+      <c r="W35" s="105"/>
+      <c r="X35" s="105"/>
+      <c r="AB35" s="105"/>
+      <c r="AC35" s="105"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W36" s="93"/>
-      <c r="X36" s="93"/>
-      <c r="AB36" s="93"/>
-      <c r="AC36" s="93"/>
+      <c r="W36" s="105"/>
+      <c r="X36" s="105"/>
+      <c r="AB36" s="105"/>
+      <c r="AC36" s="105"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W37" s="93"/>
-      <c r="X37" s="93"/>
-      <c r="AB37" s="93"/>
-      <c r="AC37" s="93"/>
+      <c r="W37" s="105"/>
+      <c r="X37" s="105"/>
+      <c r="AB37" s="105"/>
+      <c r="AC37" s="105"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W38" s="93"/>
-      <c r="X38" s="93"/>
-      <c r="AB38" s="93"/>
-      <c r="AC38" s="93"/>
+      <c r="W38" s="105"/>
+      <c r="X38" s="105"/>
+      <c r="AB38" s="105"/>
+      <c r="AC38" s="105"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W39" s="93"/>
-      <c r="X39" s="93"/>
-      <c r="AB39" s="93"/>
-      <c r="AC39" s="93"/>
+      <c r="W39" s="105"/>
+      <c r="X39" s="105"/>
+      <c r="AB39" s="105"/>
+      <c r="AC39" s="105"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W40" s="93"/>
-      <c r="X40" s="93"/>
-      <c r="AB40" s="93"/>
-      <c r="AC40" s="93"/>
+      <c r="W40" s="105"/>
+      <c r="X40" s="105"/>
+      <c r="AB40" s="105"/>
+      <c r="AC40" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/designment/document/mvc-framework-document.xlsx
+++ b/designment/document/mvc-framework-document.xlsx
@@ -1571,7 +1571,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1898,10 +1898,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="39" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="39" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="35" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -14511,11 +14507,11 @@
   <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
-      <selection pane="bottomRight" activeCell="D60" activeCellId="0" sqref="D60"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -14587,7 +14583,7 @@
       <c r="E5" s="37"/>
       <c r="F5" s="38"/>
     </row>
-    <row r="6" customFormat="false" ht="88.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="45"/>
@@ -15097,7 +15093,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" customFormat="false" ht="171.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="166.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="58"/>
       <c r="B53" s="58"/>
       <c r="C53" s="75"/>
@@ -15131,7 +15127,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" customFormat="false" ht="111.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="58"/>
       <c r="B56" s="58"/>
       <c r="C56" s="75"/>
@@ -15153,11 +15149,11 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" customFormat="false" ht="71.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="58"/>
       <c r="B58" s="58"/>
       <c r="C58" s="81"/>
-      <c r="D58" s="82" t="s">
+      <c r="D58" s="76" t="s">
         <v>190</v>
       </c>
       <c r="E58" s="37"/>
@@ -15175,11 +15171,11 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" customFormat="false" ht="21.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="58"/>
       <c r="B60" s="58"/>
       <c r="C60" s="81"/>
-      <c r="D60" s="82" t="s">
+      <c r="D60" s="76" t="s">
         <v>192</v>
       </c>
       <c r="E60" s="37"/>
@@ -15200,10 +15196,10 @@
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="58"/>
       <c r="B62" s="58"/>
-      <c r="C62" s="83" t="s">
+      <c r="C62" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="D62" s="84" t="s">
+      <c r="D62" s="83" t="s">
         <v>194</v>
       </c>
       <c r="E62" s="37"/>
@@ -15346,10 +15342,10 @@
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A76" s="58"/>
       <c r="B76" s="58"/>
-      <c r="C76" s="83" t="s">
+      <c r="C76" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="D76" s="84" t="s">
+      <c r="D76" s="83" t="s">
         <v>207</v>
       </c>
       <c r="E76" s="37"/>
@@ -15410,10 +15406,10 @@
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A82" s="58"/>
       <c r="B82" s="58"/>
-      <c r="C82" s="83" t="s">
+      <c r="C82" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="D82" s="84" t="s">
+      <c r="D82" s="83" t="s">
         <v>213</v>
       </c>
       <c r="E82" s="37"/>
@@ -15464,10 +15460,10 @@
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A87" s="58"/>
       <c r="B87" s="58"/>
-      <c r="C87" s="83" t="s">
+      <c r="C87" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="D87" s="84" t="s">
+      <c r="D87" s="83" t="s">
         <v>218</v>
       </c>
       <c r="E87" s="37"/>
@@ -15518,10 +15514,10 @@
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A92" s="58"/>
       <c r="B92" s="58"/>
-      <c r="C92" s="83" t="s">
+      <c r="C92" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="D92" s="84" t="s">
+      <c r="D92" s="83" t="s">
         <v>223</v>
       </c>
       <c r="E92" s="37"/>
@@ -15572,10 +15568,10 @@
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A97" s="58"/>
       <c r="B97" s="58"/>
-      <c r="C97" s="83" t="s">
+      <c r="C97" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="D97" s="84" t="s">
+      <c r="D97" s="83" t="s">
         <v>228</v>
       </c>
       <c r="E97" s="37"/>
@@ -15624,7 +15620,7 @@
       <c r="F101" s="38"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="85" t="n">
+      <c r="A102" s="84" t="n">
         <f aca="false">VINE_Documents!$A$19</f>
         <v>15</v>
       </c>
@@ -15632,17 +15628,17 @@
         <v>233</v>
       </c>
       <c r="C102" s="43"/>
-      <c r="D102" s="86"/>
+      <c r="D102" s="85"/>
       <c r="E102" s="37"/>
       <c r="F102" s="38"/>
     </row>
     <row r="103" customFormat="false" ht="19.7" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A103" s="47"/>
       <c r="B103" s="47"/>
-      <c r="C103" s="87" t="s">
+      <c r="C103" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="D103" s="88" t="s">
+      <c r="D103" s="87" t="s">
         <v>234</v>
       </c>
       <c r="E103" s="37"/>
@@ -15651,18 +15647,18 @@
     <row r="104" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A104" s="60"/>
       <c r="B104" s="60"/>
-      <c r="C104" s="89" t="s">
+      <c r="C104" s="88" t="s">
         <v>143</v>
       </c>
-      <c r="D104" s="90"/>
+      <c r="D104" s="89"/>
       <c r="E104" s="37"/>
       <c r="F104" s="38"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
-      <c r="C105" s="91"/>
-      <c r="D105" s="92" t="s">
+      <c r="C105" s="90"/>
+      <c r="D105" s="91" t="s">
         <v>235</v>
       </c>
       <c r="E105" s="37"/>
@@ -15671,32 +15667,32 @@
     <row r="106" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
-      <c r="C106" s="91"/>
-      <c r="D106" s="92" t="s">
+      <c r="C106" s="90"/>
+      <c r="D106" s="91" t="s">
         <v>236</v>
       </c>
       <c r="E106" s="37"/>
       <c r="F106" s="38"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A107" s="93"/>
-      <c r="B107" s="93"/>
-      <c r="C107" s="94" t="s">
+      <c r="A107" s="92"/>
+      <c r="B107" s="92"/>
+      <c r="C107" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="D107" s="95" t="s">
+      <c r="D107" s="94" t="s">
         <v>237</v>
       </c>
       <c r="E107" s="37"/>
       <c r="F107" s="38"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A108" s="96"/>
-      <c r="B108" s="96"/>
-      <c r="C108" s="97" t="s">
+      <c r="A108" s="95"/>
+      <c r="B108" s="95"/>
+      <c r="C108" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="D108" s="98" t="s">
+      <c r="D108" s="97" t="s">
         <v>238</v>
       </c>
       <c r="E108" s="37"/>
@@ -15705,18 +15701,18 @@
     <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
-      <c r="C109" s="91"/>
-      <c r="D109" s="92"/>
+      <c r="C109" s="90"/>
+      <c r="D109" s="91"/>
       <c r="E109" s="37"/>
       <c r="F109" s="38"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A110" s="96"/>
-      <c r="B110" s="96"/>
-      <c r="C110" s="97" t="s">
+      <c r="A110" s="95"/>
+      <c r="B110" s="95"/>
+      <c r="C110" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="D110" s="98" t="s">
+      <c r="D110" s="97" t="s">
         <v>239</v>
       </c>
       <c r="E110" s="37"/>
@@ -15725,30 +15721,30 @@
     <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
-      <c r="C111" s="91"/>
-      <c r="D111" s="92"/>
+      <c r="C111" s="90"/>
+      <c r="D111" s="91"/>
       <c r="E111" s="37"/>
       <c r="F111" s="38"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A112" s="93"/>
-      <c r="B112" s="93"/>
-      <c r="C112" s="94" t="s">
+      <c r="A112" s="92"/>
+      <c r="B112" s="92"/>
+      <c r="C112" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="D112" s="95" t="s">
+      <c r="D112" s="94" t="s">
         <v>240</v>
       </c>
       <c r="E112" s="37"/>
       <c r="F112" s="38"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A113" s="96"/>
-      <c r="B113" s="96"/>
-      <c r="C113" s="97" t="s">
+      <c r="A113" s="95"/>
+      <c r="B113" s="95"/>
+      <c r="C113" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="D113" s="98" t="s">
+      <c r="D113" s="97" t="s">
         <v>241</v>
       </c>
       <c r="E113" s="37"/>
@@ -15757,18 +15753,18 @@
     <row r="114" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
-      <c r="C114" s="91"/>
-      <c r="D114" s="92"/>
+      <c r="C114" s="90"/>
+      <c r="D114" s="91"/>
       <c r="E114" s="37"/>
       <c r="F114" s="38"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A115" s="96"/>
-      <c r="B115" s="96"/>
-      <c r="C115" s="97" t="s">
+      <c r="A115" s="95"/>
+      <c r="B115" s="95"/>
+      <c r="C115" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="D115" s="98" t="s">
+      <c r="D115" s="97" t="s">
         <v>242</v>
       </c>
       <c r="E115" s="37"/>
@@ -15777,30 +15773,30 @@
     <row r="116" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
-      <c r="C116" s="91"/>
-      <c r="D116" s="92"/>
+      <c r="C116" s="90"/>
+      <c r="D116" s="91"/>
       <c r="E116" s="37"/>
       <c r="F116" s="38"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A117" s="93"/>
-      <c r="B117" s="93"/>
-      <c r="C117" s="94" t="s">
+      <c r="A117" s="92"/>
+      <c r="B117" s="92"/>
+      <c r="C117" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="D117" s="95" t="s">
+      <c r="D117" s="94" t="s">
         <v>243</v>
       </c>
       <c r="E117" s="37"/>
       <c r="F117" s="38"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A118" s="96"/>
-      <c r="B118" s="96"/>
-      <c r="C118" s="97" t="s">
+      <c r="A118" s="95"/>
+      <c r="B118" s="95"/>
+      <c r="C118" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="D118" s="98" t="s">
+      <c r="D118" s="97" t="s">
         <v>244</v>
       </c>
       <c r="E118" s="37"/>
@@ -15809,42 +15805,42 @@
     <row r="119" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
-      <c r="C119" s="91"/>
-      <c r="D119" s="92"/>
+      <c r="C119" s="90"/>
+      <c r="D119" s="91"/>
       <c r="E119" s="37"/>
       <c r="F119" s="38"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A120" s="93"/>
-      <c r="B120" s="93"/>
-      <c r="C120" s="94" t="s">
+      <c r="A120" s="92"/>
+      <c r="B120" s="92"/>
+      <c r="C120" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="D120" s="95" t="s">
+      <c r="D120" s="94" t="s">
         <v>245</v>
       </c>
       <c r="E120" s="37"/>
       <c r="F120" s="38"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A121" s="96"/>
-      <c r="B121" s="96"/>
-      <c r="C121" s="97" t="s">
+      <c r="A121" s="95"/>
+      <c r="B121" s="95"/>
+      <c r="C121" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="D121" s="98" t="s">
+      <c r="D121" s="97" t="s">
         <v>246</v>
       </c>
       <c r="E121" s="37"/>
       <c r="F121" s="38"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A122" s="96"/>
-      <c r="B122" s="96"/>
-      <c r="C122" s="97" t="s">
+      <c r="A122" s="95"/>
+      <c r="B122" s="95"/>
+      <c r="C122" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="D122" s="98" t="s">
+      <c r="D122" s="97" t="s">
         <v>247</v>
       </c>
       <c r="E122" s="37"/>
@@ -15853,30 +15849,30 @@
     <row r="123" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
-      <c r="C123" s="91"/>
-      <c r="D123" s="92"/>
+      <c r="C123" s="90"/>
+      <c r="D123" s="91"/>
       <c r="E123" s="37"/>
       <c r="F123" s="38"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A124" s="93"/>
-      <c r="B124" s="93"/>
-      <c r="C124" s="94" t="s">
+      <c r="A124" s="92"/>
+      <c r="B124" s="92"/>
+      <c r="C124" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="D124" s="95" t="s">
+      <c r="D124" s="94" t="s">
         <v>248</v>
       </c>
       <c r="E124" s="37"/>
       <c r="F124" s="38"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A125" s="96"/>
-      <c r="B125" s="96"/>
-      <c r="C125" s="97" t="s">
+      <c r="A125" s="95"/>
+      <c r="B125" s="95"/>
+      <c r="C125" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="D125" s="98" t="s">
+      <c r="D125" s="97" t="s">
         <v>249</v>
       </c>
       <c r="E125" s="37"/>
@@ -15885,30 +15881,30 @@
     <row r="126" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
-      <c r="C126" s="91"/>
-      <c r="D126" s="92"/>
+      <c r="C126" s="90"/>
+      <c r="D126" s="91"/>
       <c r="E126" s="37"/>
       <c r="F126" s="38"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A127" s="93"/>
-      <c r="B127" s="93"/>
-      <c r="C127" s="94" t="s">
+      <c r="A127" s="92"/>
+      <c r="B127" s="92"/>
+      <c r="C127" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="D127" s="95" t="s">
+      <c r="D127" s="94" t="s">
         <v>250</v>
       </c>
       <c r="E127" s="37"/>
       <c r="F127" s="38"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A128" s="96"/>
-      <c r="B128" s="96"/>
-      <c r="C128" s="97" t="s">
+      <c r="A128" s="95"/>
+      <c r="B128" s="95"/>
+      <c r="C128" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="D128" s="98" t="s">
+      <c r="D128" s="97" t="s">
         <v>251</v>
       </c>
       <c r="E128" s="37"/>
@@ -15917,30 +15913,30 @@
     <row r="129" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
-      <c r="C129" s="91"/>
-      <c r="D129" s="92"/>
+      <c r="C129" s="90"/>
+      <c r="D129" s="91"/>
       <c r="E129" s="37"/>
       <c r="F129" s="38"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A130" s="93"/>
-      <c r="B130" s="93"/>
-      <c r="C130" s="94" t="s">
+      <c r="A130" s="92"/>
+      <c r="B130" s="92"/>
+      <c r="C130" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="D130" s="95" t="s">
+      <c r="D130" s="94" t="s">
         <v>252</v>
       </c>
       <c r="E130" s="37"/>
       <c r="F130" s="38"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A131" s="96"/>
-      <c r="B131" s="96"/>
-      <c r="C131" s="97" t="s">
+      <c r="A131" s="95"/>
+      <c r="B131" s="95"/>
+      <c r="C131" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="D131" s="98" t="s">
+      <c r="D131" s="97" t="s">
         <v>253</v>
       </c>
       <c r="E131" s="37"/>
@@ -15949,30 +15945,30 @@
     <row r="132" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
-      <c r="C132" s="91"/>
-      <c r="D132" s="92"/>
+      <c r="C132" s="90"/>
+      <c r="D132" s="91"/>
       <c r="E132" s="37"/>
       <c r="F132" s="38"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A133" s="93"/>
-      <c r="B133" s="93"/>
-      <c r="C133" s="94" t="s">
+      <c r="A133" s="92"/>
+      <c r="B133" s="92"/>
+      <c r="C133" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="D133" s="95" t="s">
+      <c r="D133" s="94" t="s">
         <v>254</v>
       </c>
       <c r="E133" s="37"/>
       <c r="F133" s="38"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A134" s="96"/>
-      <c r="B134" s="96"/>
-      <c r="C134" s="97" t="s">
+      <c r="A134" s="95"/>
+      <c r="B134" s="95"/>
+      <c r="C134" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="D134" s="98" t="s">
+      <c r="D134" s="97" t="s">
         <v>255</v>
       </c>
       <c r="E134" s="37"/>
@@ -15981,30 +15977,30 @@
     <row r="135" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
-      <c r="C135" s="91"/>
-      <c r="D135" s="92"/>
+      <c r="C135" s="90"/>
+      <c r="D135" s="91"/>
       <c r="E135" s="37"/>
       <c r="F135" s="38"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A136" s="93"/>
-      <c r="B136" s="93"/>
-      <c r="C136" s="94" t="s">
+      <c r="A136" s="92"/>
+      <c r="B136" s="92"/>
+      <c r="C136" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="D136" s="95" t="s">
+      <c r="D136" s="94" t="s">
         <v>256</v>
       </c>
       <c r="E136" s="37"/>
       <c r="F136" s="38"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A137" s="96"/>
-      <c r="B137" s="96"/>
-      <c r="C137" s="97" t="s">
+      <c r="A137" s="95"/>
+      <c r="B137" s="95"/>
+      <c r="C137" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="D137" s="98" t="s">
+      <c r="D137" s="97" t="s">
         <v>257</v>
       </c>
       <c r="E137" s="37"/>
@@ -16013,18 +16009,18 @@
     <row r="138" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
-      <c r="C138" s="91"/>
-      <c r="D138" s="92"/>
+      <c r="C138" s="90"/>
+      <c r="D138" s="91"/>
       <c r="E138" s="37"/>
       <c r="F138" s="38"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A139" s="96"/>
-      <c r="B139" s="96"/>
-      <c r="C139" s="97" t="s">
+      <c r="A139" s="95"/>
+      <c r="B139" s="95"/>
+      <c r="C139" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="D139" s="98" t="s">
+      <c r="D139" s="97" t="s">
         <v>258</v>
       </c>
       <c r="E139" s="37"/>
@@ -16033,18 +16029,18 @@
     <row r="140" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
-      <c r="C140" s="91"/>
-      <c r="D140" s="92"/>
+      <c r="C140" s="90"/>
+      <c r="D140" s="91"/>
       <c r="E140" s="37"/>
       <c r="F140" s="38"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A141" s="96"/>
-      <c r="B141" s="96"/>
-      <c r="C141" s="97" t="s">
+      <c r="A141" s="95"/>
+      <c r="B141" s="95"/>
+      <c r="C141" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="D141" s="98" t="s">
+      <c r="D141" s="97" t="s">
         <v>259</v>
       </c>
       <c r="E141" s="37"/>
@@ -16053,30 +16049,30 @@
     <row r="142" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
-      <c r="C142" s="91"/>
-      <c r="D142" s="92"/>
+      <c r="C142" s="90"/>
+      <c r="D142" s="91"/>
       <c r="E142" s="37"/>
       <c r="F142" s="38"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A143" s="93"/>
-      <c r="B143" s="93"/>
-      <c r="C143" s="94" t="s">
+      <c r="A143" s="92"/>
+      <c r="B143" s="92"/>
+      <c r="C143" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="D143" s="95" t="s">
+      <c r="D143" s="94" t="s">
         <v>260</v>
       </c>
       <c r="E143" s="37"/>
       <c r="F143" s="38"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A144" s="96"/>
-      <c r="B144" s="96"/>
-      <c r="C144" s="97" t="s">
+      <c r="A144" s="95"/>
+      <c r="B144" s="95"/>
+      <c r="C144" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="D144" s="98" t="s">
+      <c r="D144" s="97" t="s">
         <v>261</v>
       </c>
       <c r="E144" s="37"/>
@@ -16085,18 +16081,18 @@
     <row r="145" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
-      <c r="C145" s="91"/>
-      <c r="D145" s="92"/>
+      <c r="C145" s="90"/>
+      <c r="D145" s="91"/>
       <c r="E145" s="37"/>
       <c r="F145" s="38"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A146" s="96"/>
-      <c r="B146" s="96"/>
-      <c r="C146" s="97" t="s">
+      <c r="A146" s="95"/>
+      <c r="B146" s="95"/>
+      <c r="C146" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="D146" s="98" t="s">
+      <c r="D146" s="97" t="s">
         <v>262</v>
       </c>
       <c r="E146" s="37"/>
@@ -16105,8 +16101,8 @@
     <row r="147" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
-      <c r="C147" s="91"/>
-      <c r="D147" s="92"/>
+      <c r="C147" s="90"/>
+      <c r="D147" s="91"/>
       <c r="E147" s="37"/>
       <c r="F147" s="38"/>
     </row>
@@ -16121,8 +16117,8 @@
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="38"/>
       <c r="B149" s="38"/>
-      <c r="C149" s="99"/>
-      <c r="D149" s="100" t="n">
+      <c r="C149" s="98"/>
+      <c r="D149" s="99" t="n">
         <v>0</v>
       </c>
       <c r="E149" s="38"/>
@@ -16166,18 +16162,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="101" width="4.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="101" width="2.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="102" width="2.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="102" width="3.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="102" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="101" width="2.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="101" width="4.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="101" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="101" width="60.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="101" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="101" width="9.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="19" style="101" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="100" width="4.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="100" width="2.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="101" width="2.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="101" width="3.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="101" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="100" width="2.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="100" width="4.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="100" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="100" width="60.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="100" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="100" width="9.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="19" style="100" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16212,10 +16208,10 @@
       <c r="B2" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="102" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="102" t="s">
         <v>264</v>
       </c>
       <c r="E2" s="40" t="s">
@@ -16237,8 +16233,8 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
       <c r="E3" s="41" t="s">
         <v>136</v>
       </c>
@@ -16265,31 +16261,31 @@
       <c r="B4" s="43" t="s">
         <v>265</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
       <c r="P4" s="37"/>
       <c r="Q4" s="38"/>
-      <c r="AB4" s="105"/>
-      <c r="AC4" s="105"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="105" t="s">
         <v>266</v>
       </c>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="106" t="s">
         <v>267</v>
       </c>
       <c r="E5" s="48" t="s">
@@ -16298,383 +16294,383 @@
       <c r="F5" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
       <c r="P5" s="37"/>
       <c r="Q5" s="38"/>
-      <c r="AB5" s="105"/>
-      <c r="AC5" s="105"/>
+      <c r="AB5" s="104"/>
+      <c r="AC5" s="104"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="107"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
       <c r="E6" s="48"/>
       <c r="F6" s="49"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
       <c r="P6" s="37"/>
       <c r="Q6" s="38"/>
-      <c r="AB6" s="105"/>
-      <c r="AC6" s="105"/>
+      <c r="AB6" s="104"/>
+      <c r="AC6" s="104"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="47"/>
       <c r="B7" s="47"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
       <c r="E7" s="48"/>
       <c r="F7" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
       <c r="P7" s="37"/>
       <c r="Q7" s="38"/>
-      <c r="AB7" s="105"/>
-      <c r="AC7" s="105"/>
+      <c r="AB7" s="104"/>
+      <c r="AC7" s="104"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="107"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="106"/>
       <c r="E8" s="48"/>
       <c r="F8" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
       <c r="P8" s="37"/>
       <c r="Q8" s="38"/>
-      <c r="AB8" s="105"/>
-      <c r="AC8" s="105"/>
+      <c r="AB8" s="104"/>
+      <c r="AC8" s="104"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="47"/>
       <c r="B9" s="47"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="107"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="106"/>
       <c r="E9" s="48"/>
       <c r="F9" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
       <c r="P9" s="37"/>
       <c r="Q9" s="38"/>
-      <c r="AB9" s="105"/>
-      <c r="AC9" s="105"/>
+      <c r="AB9" s="104"/>
+      <c r="AC9" s="104"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="107"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="106"/>
       <c r="E10" s="48"/>
       <c r="F10" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
       <c r="P10" s="37"/>
       <c r="Q10" s="38"/>
-      <c r="AB10" s="105"/>
-      <c r="AC10" s="105"/>
+      <c r="AB10" s="104"/>
+      <c r="AC10" s="104"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="47"/>
       <c r="B11" s="47"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="107"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="106"/>
       <c r="E11" s="48"/>
       <c r="F11" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="108"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
       <c r="P11" s="37"/>
       <c r="Q11" s="38"/>
-      <c r="AB11" s="105"/>
-      <c r="AC11" s="105"/>
+      <c r="AB11" s="104"/>
+      <c r="AC11" s="104"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="47"/>
       <c r="B12" s="47"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="107"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="48"/>
       <c r="F12" s="49"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
       <c r="P12" s="37"/>
       <c r="Q12" s="38"/>
-      <c r="AB12" s="105"/>
-      <c r="AC12" s="105"/>
+      <c r="AB12" s="104"/>
+      <c r="AC12" s="104"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="47"/>
       <c r="B13" s="47"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="107"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="106"/>
       <c r="E13" s="48"/>
       <c r="F13" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
       <c r="P13" s="37"/>
       <c r="Q13" s="38"/>
-      <c r="AB13" s="105"/>
-      <c r="AC13" s="105"/>
+      <c r="AB13" s="104"/>
+      <c r="AC13" s="104"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="107"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="106"/>
       <c r="E14" s="48"/>
       <c r="F14" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
       <c r="P14" s="37"/>
       <c r="Q14" s="38"/>
-      <c r="AB14" s="105"/>
-      <c r="AC14" s="105"/>
+      <c r="AB14" s="104"/>
+      <c r="AC14" s="104"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="47"/>
       <c r="B15" s="47"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="107"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="106"/>
       <c r="E15" s="48"/>
       <c r="F15" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="108"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
       <c r="P15" s="37"/>
       <c r="Q15" s="38"/>
-      <c r="AB15" s="105"/>
-      <c r="AC15" s="105"/>
+      <c r="AB15" s="104"/>
+      <c r="AC15" s="104"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="47"/>
       <c r="B16" s="47"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="107"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
       <c r="E16" s="48"/>
       <c r="F16" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="108"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
       <c r="P16" s="37"/>
       <c r="Q16" s="38"/>
-      <c r="AB16" s="105"/>
-      <c r="AC16" s="105"/>
+      <c r="AB16" s="104"/>
+      <c r="AC16" s="104"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="47"/>
       <c r="B17" s="47"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="107"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
       <c r="E17" s="48"/>
       <c r="F17" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="108"/>
-      <c r="N17" s="108"/>
-      <c r="O17" s="108"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
       <c r="P17" s="37"/>
       <c r="Q17" s="38"/>
-      <c r="AB17" s="105"/>
-      <c r="AC17" s="105"/>
+      <c r="AB17" s="104"/>
+      <c r="AC17" s="104"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="47"/>
       <c r="B18" s="47"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="107"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
       <c r="E18" s="48"/>
       <c r="F18" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="108"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="108"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="38"/>
-      <c r="AB18" s="105"/>
-      <c r="AC18" s="105"/>
+      <c r="AB18" s="104"/>
+      <c r="AC18" s="104"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="47"/>
       <c r="B19" s="47"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="107"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
       <c r="E19" s="48"/>
       <c r="F19" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="107"/>
+      <c r="O19" s="107"/>
       <c r="P19" s="37"/>
       <c r="Q19" s="38"/>
-      <c r="AB19" s="105"/>
-      <c r="AC19" s="105"/>
+      <c r="AB19" s="104"/>
+      <c r="AC19" s="104"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="47"/>
       <c r="B20" s="47"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="107"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="106"/>
       <c r="E20" s="48"/>
       <c r="F20" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="108"/>
-      <c r="O20" s="108"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="107"/>
       <c r="P20" s="37"/>
       <c r="Q20" s="38"/>
-      <c r="AB20" s="105"/>
-      <c r="AC20" s="105"/>
+      <c r="AB20" s="104"/>
+      <c r="AC20" s="104"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="47"/>
       <c r="B21" s="47"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
       <c r="E21" s="48"/>
       <c r="F21" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="108"/>
-      <c r="O21" s="108"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
       <c r="P21" s="37"/>
       <c r="Q21" s="38"/>
-      <c r="AB21" s="105"/>
-      <c r="AC21" s="105"/>
+      <c r="AB21" s="104"/>
+      <c r="AC21" s="104"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="37"/>
@@ -16694,155 +16690,155 @@
       <c r="O22" s="37"/>
       <c r="P22" s="37"/>
       <c r="Q22" s="38"/>
-      <c r="W22" s="105"/>
-      <c r="X22" s="105"/>
-      <c r="AB22" s="105"/>
-      <c r="AC22" s="105"/>
+      <c r="W22" s="104"/>
+      <c r="X22" s="104"/>
+      <c r="AB22" s="104"/>
+      <c r="AC22" s="104"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="38"/>
       <c r="B23" s="38"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="100" t="n">
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="99" t="n">
         <v>0</v>
       </c>
-      <c r="G23" s="100" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="100" t="n">
+      <c r="G23" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="I23" s="100" t="n">
+      <c r="I23" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="J23" s="100" t="n">
-        <v>4</v>
-      </c>
-      <c r="K23" s="100" t="n">
-        <v>5</v>
-      </c>
-      <c r="L23" s="100" t="n">
+      <c r="J23" s="99" t="n">
+        <v>4</v>
+      </c>
+      <c r="K23" s="99" t="n">
+        <v>5</v>
+      </c>
+      <c r="L23" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="M23" s="100" t="n">
+      <c r="M23" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="N23" s="100" t="n">
+      <c r="N23" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="O23" s="100" t="n">
+      <c r="O23" s="99" t="n">
         <v>9</v>
       </c>
       <c r="P23" s="38"/>
       <c r="Q23" s="38"/>
-      <c r="W23" s="105"/>
-      <c r="X23" s="105"/>
-      <c r="AB23" s="105"/>
-      <c r="AC23" s="105"/>
+      <c r="W23" s="104"/>
+      <c r="X23" s="104"/>
+      <c r="AB23" s="104"/>
+      <c r="AC23" s="104"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W24" s="105"/>
-      <c r="X24" s="105"/>
-      <c r="AB24" s="105"/>
-      <c r="AC24" s="105"/>
+      <c r="W24" s="104"/>
+      <c r="X24" s="104"/>
+      <c r="AB24" s="104"/>
+      <c r="AC24" s="104"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W25" s="105"/>
-      <c r="X25" s="105"/>
-      <c r="AB25" s="105"/>
-      <c r="AC25" s="105"/>
+      <c r="W25" s="104"/>
+      <c r="X25" s="104"/>
+      <c r="AB25" s="104"/>
+      <c r="AC25" s="104"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W26" s="105"/>
-      <c r="X26" s="105"/>
-      <c r="AB26" s="105"/>
-      <c r="AC26" s="105"/>
+      <c r="W26" s="104"/>
+      <c r="X26" s="104"/>
+      <c r="AB26" s="104"/>
+      <c r="AC26" s="104"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W27" s="105"/>
-      <c r="X27" s="105"/>
-      <c r="AB27" s="105"/>
-      <c r="AC27" s="105"/>
+      <c r="W27" s="104"/>
+      <c r="X27" s="104"/>
+      <c r="AB27" s="104"/>
+      <c r="AC27" s="104"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W28" s="105"/>
-      <c r="X28" s="105"/>
-      <c r="AB28" s="105"/>
-      <c r="AC28" s="105"/>
+      <c r="W28" s="104"/>
+      <c r="X28" s="104"/>
+      <c r="AB28" s="104"/>
+      <c r="AC28" s="104"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W29" s="105"/>
-      <c r="X29" s="105"/>
-      <c r="AB29" s="105"/>
-      <c r="AC29" s="105"/>
+      <c r="W29" s="104"/>
+      <c r="X29" s="104"/>
+      <c r="AB29" s="104"/>
+      <c r="AC29" s="104"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W30" s="105"/>
-      <c r="X30" s="105"/>
-      <c r="AB30" s="105"/>
-      <c r="AC30" s="105"/>
+      <c r="W30" s="104"/>
+      <c r="X30" s="104"/>
+      <c r="AB30" s="104"/>
+      <c r="AC30" s="104"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W31" s="105"/>
-      <c r="X31" s="105"/>
-      <c r="AB31" s="105"/>
-      <c r="AC31" s="105"/>
+      <c r="W31" s="104"/>
+      <c r="X31" s="104"/>
+      <c r="AB31" s="104"/>
+      <c r="AC31" s="104"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W32" s="105"/>
-      <c r="X32" s="105"/>
-      <c r="AB32" s="105"/>
-      <c r="AC32" s="105"/>
+      <c r="W32" s="104"/>
+      <c r="X32" s="104"/>
+      <c r="AB32" s="104"/>
+      <c r="AC32" s="104"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W33" s="105"/>
-      <c r="X33" s="105"/>
-      <c r="AB33" s="105"/>
-      <c r="AC33" s="105"/>
+      <c r="W33" s="104"/>
+      <c r="X33" s="104"/>
+      <c r="AB33" s="104"/>
+      <c r="AC33" s="104"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W34" s="105"/>
-      <c r="X34" s="105"/>
-      <c r="AB34" s="105"/>
-      <c r="AC34" s="105"/>
+      <c r="W34" s="104"/>
+      <c r="X34" s="104"/>
+      <c r="AB34" s="104"/>
+      <c r="AC34" s="104"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W35" s="105"/>
-      <c r="X35" s="105"/>
-      <c r="AB35" s="105"/>
-      <c r="AC35" s="105"/>
+      <c r="W35" s="104"/>
+      <c r="X35" s="104"/>
+      <c r="AB35" s="104"/>
+      <c r="AC35" s="104"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W36" s="105"/>
-      <c r="X36" s="105"/>
-      <c r="AB36" s="105"/>
-      <c r="AC36" s="105"/>
+      <c r="W36" s="104"/>
+      <c r="X36" s="104"/>
+      <c r="AB36" s="104"/>
+      <c r="AC36" s="104"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W37" s="105"/>
-      <c r="X37" s="105"/>
-      <c r="AB37" s="105"/>
-      <c r="AC37" s="105"/>
+      <c r="W37" s="104"/>
+      <c r="X37" s="104"/>
+      <c r="AB37" s="104"/>
+      <c r="AC37" s="104"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W38" s="105"/>
-      <c r="X38" s="105"/>
-      <c r="AB38" s="105"/>
-      <c r="AC38" s="105"/>
+      <c r="W38" s="104"/>
+      <c r="X38" s="104"/>
+      <c r="AB38" s="104"/>
+      <c r="AC38" s="104"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W39" s="105"/>
-      <c r="X39" s="105"/>
-      <c r="AB39" s="105"/>
-      <c r="AC39" s="105"/>
+      <c r="W39" s="104"/>
+      <c r="X39" s="104"/>
+      <c r="AB39" s="104"/>
+      <c r="AC39" s="104"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W40" s="105"/>
-      <c r="X40" s="105"/>
-      <c r="AB40" s="105"/>
-      <c r="AC40" s="105"/>
+      <c r="W40" s="104"/>
+      <c r="X40" s="104"/>
+      <c r="AB40" s="104"/>
+      <c r="AC40" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/designment/document/mvc-framework-document.xlsx
+++ b/designment/document/mvc-framework-document.xlsx
@@ -2206,7 +2206,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I20" activeCellId="0" sqref="I20"/>
+      <selection pane="bottomRight" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="0"/>
@@ -12899,7 +12899,7 @@
       <c r="Y207" s="14"/>
       <c r="Z207" s="4"/>
     </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="true">
+    <row r="208" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A208" s="26" t="n">
         <f aca="false">ROW() - 4</f>
         <v>204</v>
@@ -14507,11 +14507,11 @@
   <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+      <selection pane="bottomRight" activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -15217,7 +15217,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="64" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A64" s="58"/>
       <c r="B64" s="58"/>
       <c r="C64" s="57"/>
@@ -15237,7 +15237,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" s="1" customFormat="true" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="66" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A66" s="58"/>
       <c r="B66" s="58"/>
       <c r="C66" s="57"/>

--- a/designment/document/mvc-framework-document.xlsx
+++ b/designment/document/mvc-framework-document.xlsx
@@ -14507,11 +14507,11 @@
   <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="D45" activeCellId="0" sqref="D45"/>
+      <selection pane="bottomLeft" activeCell="A99" activeCellId="0" sqref="A99"/>
+      <selection pane="bottomRight" activeCell="H145" activeCellId="0" sqref="H145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -14949,7 +14949,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="141.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="58"/>
       <c r="B40" s="58"/>
       <c r="C40" s="71"/>
@@ -15632,7 +15632,7 @@
       <c r="E102" s="37"/>
       <c r="F102" s="38"/>
     </row>
-    <row r="103" customFormat="false" ht="19.7" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="103" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A103" s="47"/>
       <c r="B103" s="47"/>
       <c r="C103" s="86" t="s">
@@ -15644,7 +15644,7 @@
       <c r="E103" s="37"/>
       <c r="F103" s="38"/>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A104" s="60"/>
       <c r="B104" s="60"/>
       <c r="C104" s="88" t="s">
@@ -15654,7 +15654,7 @@
       <c r="E104" s="37"/>
       <c r="F104" s="38"/>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="90"/>
@@ -15664,7 +15664,7 @@
       <c r="E105" s="37"/>
       <c r="F105" s="38"/>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="90"/>
@@ -15674,7 +15674,7 @@
       <c r="E106" s="37"/>
       <c r="F106" s="38"/>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A107" s="92"/>
       <c r="B107" s="92"/>
       <c r="C107" s="93" t="s">
@@ -15686,7 +15686,7 @@
       <c r="E107" s="37"/>
       <c r="F107" s="38"/>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A108" s="95"/>
       <c r="B108" s="95"/>
       <c r="C108" s="96" t="s">
@@ -15698,7 +15698,7 @@
       <c r="E108" s="37"/>
       <c r="F108" s="38"/>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="90"/>
@@ -15706,7 +15706,7 @@
       <c r="E109" s="37"/>
       <c r="F109" s="38"/>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A110" s="95"/>
       <c r="B110" s="95"/>
       <c r="C110" s="96" t="s">
@@ -15718,7 +15718,7 @@
       <c r="E110" s="37"/>
       <c r="F110" s="38"/>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="90"/>
@@ -15726,7 +15726,7 @@
       <c r="E111" s="37"/>
       <c r="F111" s="38"/>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A112" s="92"/>
       <c r="B112" s="92"/>
       <c r="C112" s="93" t="s">
@@ -15738,7 +15738,7 @@
       <c r="E112" s="37"/>
       <c r="F112" s="38"/>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A113" s="95"/>
       <c r="B113" s="95"/>
       <c r="C113" s="96" t="s">
@@ -15750,7 +15750,7 @@
       <c r="E113" s="37"/>
       <c r="F113" s="38"/>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="90"/>
@@ -15758,7 +15758,7 @@
       <c r="E114" s="37"/>
       <c r="F114" s="38"/>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A115" s="95"/>
       <c r="B115" s="95"/>
       <c r="C115" s="96" t="s">
@@ -15770,7 +15770,7 @@
       <c r="E115" s="37"/>
       <c r="F115" s="38"/>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="90"/>
@@ -15778,7 +15778,7 @@
       <c r="E116" s="37"/>
       <c r="F116" s="38"/>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A117" s="92"/>
       <c r="B117" s="92"/>
       <c r="C117" s="93" t="s">
@@ -15790,7 +15790,7 @@
       <c r="E117" s="37"/>
       <c r="F117" s="38"/>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A118" s="95"/>
       <c r="B118" s="95"/>
       <c r="C118" s="96" t="s">
@@ -15802,7 +15802,7 @@
       <c r="E118" s="37"/>
       <c r="F118" s="38"/>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="90"/>
@@ -15810,7 +15810,7 @@
       <c r="E119" s="37"/>
       <c r="F119" s="38"/>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A120" s="92"/>
       <c r="B120" s="92"/>
       <c r="C120" s="93" t="s">
@@ -15822,7 +15822,7 @@
       <c r="E120" s="37"/>
       <c r="F120" s="38"/>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A121" s="95"/>
       <c r="B121" s="95"/>
       <c r="C121" s="96" t="s">
@@ -15834,7 +15834,7 @@
       <c r="E121" s="37"/>
       <c r="F121" s="38"/>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A122" s="95"/>
       <c r="B122" s="95"/>
       <c r="C122" s="96" t="s">
@@ -15846,7 +15846,7 @@
       <c r="E122" s="37"/>
       <c r="F122" s="38"/>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="90"/>
@@ -15854,7 +15854,7 @@
       <c r="E123" s="37"/>
       <c r="F123" s="38"/>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A124" s="92"/>
       <c r="B124" s="92"/>
       <c r="C124" s="93" t="s">
@@ -15866,7 +15866,7 @@
       <c r="E124" s="37"/>
       <c r="F124" s="38"/>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A125" s="95"/>
       <c r="B125" s="95"/>
       <c r="C125" s="96" t="s">
@@ -15878,7 +15878,7 @@
       <c r="E125" s="37"/>
       <c r="F125" s="38"/>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="90"/>
@@ -15886,7 +15886,7 @@
       <c r="E126" s="37"/>
       <c r="F126" s="38"/>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A127" s="92"/>
       <c r="B127" s="92"/>
       <c r="C127" s="93" t="s">
@@ -15898,7 +15898,7 @@
       <c r="E127" s="37"/>
       <c r="F127" s="38"/>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A128" s="95"/>
       <c r="B128" s="95"/>
       <c r="C128" s="96" t="s">
@@ -15910,7 +15910,7 @@
       <c r="E128" s="37"/>
       <c r="F128" s="38"/>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="90"/>
@@ -15918,7 +15918,7 @@
       <c r="E129" s="37"/>
       <c r="F129" s="38"/>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A130" s="92"/>
       <c r="B130" s="92"/>
       <c r="C130" s="93" t="s">
@@ -15930,7 +15930,7 @@
       <c r="E130" s="37"/>
       <c r="F130" s="38"/>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A131" s="95"/>
       <c r="B131" s="95"/>
       <c r="C131" s="96" t="s">
@@ -15942,7 +15942,7 @@
       <c r="E131" s="37"/>
       <c r="F131" s="38"/>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="90"/>
@@ -15950,7 +15950,7 @@
       <c r="E132" s="37"/>
       <c r="F132" s="38"/>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A133" s="92"/>
       <c r="B133" s="92"/>
       <c r="C133" s="93" t="s">
@@ -15962,7 +15962,7 @@
       <c r="E133" s="37"/>
       <c r="F133" s="38"/>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A134" s="95"/>
       <c r="B134" s="95"/>
       <c r="C134" s="96" t="s">
@@ -15974,7 +15974,7 @@
       <c r="E134" s="37"/>
       <c r="F134" s="38"/>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="90"/>
@@ -15982,7 +15982,7 @@
       <c r="E135" s="37"/>
       <c r="F135" s="38"/>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A136" s="92"/>
       <c r="B136" s="92"/>
       <c r="C136" s="93" t="s">
@@ -15994,7 +15994,7 @@
       <c r="E136" s="37"/>
       <c r="F136" s="38"/>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A137" s="95"/>
       <c r="B137" s="95"/>
       <c r="C137" s="96" t="s">
@@ -16006,7 +16006,7 @@
       <c r="E137" s="37"/>
       <c r="F137" s="38"/>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
       <c r="C138" s="90"/>
@@ -16014,7 +16014,7 @@
       <c r="E138" s="37"/>
       <c r="F138" s="38"/>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A139" s="95"/>
       <c r="B139" s="95"/>
       <c r="C139" s="96" t="s">
@@ -16026,7 +16026,7 @@
       <c r="E139" s="37"/>
       <c r="F139" s="38"/>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="90"/>
@@ -16034,7 +16034,7 @@
       <c r="E140" s="37"/>
       <c r="F140" s="38"/>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A141" s="95"/>
       <c r="B141" s="95"/>
       <c r="C141" s="96" t="s">
@@ -16046,7 +16046,7 @@
       <c r="E141" s="37"/>
       <c r="F141" s="38"/>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
       <c r="C142" s="90"/>
@@ -16054,7 +16054,7 @@
       <c r="E142" s="37"/>
       <c r="F142" s="38"/>
     </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A143" s="92"/>
       <c r="B143" s="92"/>
       <c r="C143" s="93" t="s">
@@ -16066,7 +16066,7 @@
       <c r="E143" s="37"/>
       <c r="F143" s="38"/>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A144" s="95"/>
       <c r="B144" s="95"/>
       <c r="C144" s="96" t="s">
@@ -16078,7 +16078,7 @@
       <c r="E144" s="37"/>
       <c r="F144" s="38"/>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
       <c r="C145" s="90"/>
@@ -16086,7 +16086,7 @@
       <c r="E145" s="37"/>
       <c r="F145" s="38"/>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A146" s="95"/>
       <c r="B146" s="95"/>
       <c r="C146" s="96" t="s">
@@ -16098,7 +16098,7 @@
       <c r="E146" s="37"/>
       <c r="F146" s="38"/>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="90"/>

--- a/designment/document/mvc-framework-document.xlsx
+++ b/designment/document/mvc-framework-document.xlsx
@@ -19,10 +19,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0" vbProcedure="false">VINE_Documents!$A$1:$Y$237</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_COM" vbProcedure="false">VINE_Documents!$A$4:$Y$237</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_SUP" vbProcedure="false">VINE_Documents!$A$1:$Y$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="AREA" vbProcedure="false">VORM_0_Guide_DET!$A$1:$E$148</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0" vbProcedure="false">VORM_0_Guide_DET!$D$1:$D$148</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0" vbProcedure="false">VORM_0_Guide_DET!$A$1:$E$148</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_COM" vbProcedure="false">VORM_0_Guide_DET!$A$5:$E$148</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="AREA" vbProcedure="false">VORM_0_Guide_DET!$A$1:$E$152</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0" vbProcedure="false">VORM_0_Guide_DET!$D$1:$D$152</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0" vbProcedure="false">VORM_0_Guide_DET!$A$1:$E$152</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_COM" vbProcedure="false">VORM_0_Guide_DET!$A$5:$E$152</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_SUP" vbProcedure="false">VORM_0_Guide_DET!$A$1:$E$4</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="AREA" vbProcedure="false">VORM_0_Classification!$A$1:$P$22</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="LMN_0" vbProcedure="false">VORM_0_Classification!$F$1:$O$22</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="276">
   <si>
     <t xml:space="preserve">fs</t>
   </si>
@@ -602,16 +602,12 @@
     <t xml:space="preserve">```
 const object = new DET({
   aaa: 111,
-  bbb: true,
-  ccc: "333",
-  ddd: {
+  bbb: 222,
+  ccc: {
+    ddd: 444,
     eee: 555,
-    fff: false,
-    ggg: "777",
-    hhh: {
-      iii: 999,
-      jjj: null,
-      kkk: "111111"
+    fff: {
+      ggg: 777
     }
   }
 })
@@ -629,6 +625,52 @@
 ```</t>
   </si>
   <si>
+    <t xml:space="preserve">**Returns Plain Object**  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">```
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{
+  aaa: 111,
+  bbb: 222,
+  ccc: {
+    ddd: 444,
+    eee: 555,
+    fff: {
+      ggg: 777
+    }
+  }
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">```</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Inspection</t>
   </si>
   <si>
@@ -640,22 +682,18 @@
 ```</t>
   </si>
   <si>
-    <t xml:space="preserve">**Returns**  </t>
+    <t xml:space="preserve">**Returns JSON Object**  </t>
   </si>
   <si>
     <t xml:space="preserve">```
 {
   "aaa": 111,
-  "bbb": true,
-  "ccc": "333",
-  "ddd": {
+  "bbb": 222,
+  "ccc": {
+    "ddd": 444,
     "eee": 555,
-    "fff": false,
-    "ggg": "777",
-    "hhh": {
-      "iii": 999,
-      "jjj": null,
-      "kkk": "111111"
+    "fff": {
+      "ggg": 777
     }
   }
 }
@@ -665,18 +703,44 @@
     <t xml:space="preserve">DET Object Event Listener Signment</t>
   </si>
   <si>
-    <t xml:space="preserve">Add Event Listener</t>
+    <t xml:space="preserve">Add Event Listener - Base Object</t>
   </si>
   <si>
     <t xml:space="preserve">```
 function objectAssign($event) {
-  console.log($event.type, $event.detail)
+  console.log(
+    '\n', $event.basename, $event.path,
+    '\n', $event.type, $event.detail
+  )
 }
 object.addEventListener("assign", objectAssign)
-object.assign({ aaa: 111111 })
-/*
-Log: assign { target: DynamicEventTarget }
-*/
+object.assign({
+  ccc: {
+    fff: {
+      ggg: 777777,
+      hhh: {
+        iii: 999
+      }
+    }
+  }
+})
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Emits DynamicEvent**  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">```
+object.assign({
+  ccc: {
+    fff: {
+      ggg: 777777,
+      hhh: {
+        iii: 999
+      }
+    }
+  }
+})
 ```</t>
   </si>
   <si>
@@ -696,6 +760,25 @@
   </si>
   <si>
     <t xml:space="preserve">```
+function objectAssign($event) {
+  console.log(
+    $event.path, $event.basename, 
+    $event.type, $event.detail
+  )
+}
+object.addEventListener("assign", objectAssign)
+object.assign({
+  aaa: {
+    ddd: {
+      hhh: {
+        iii: 999999
+      }
+    }
+  }
+})
+/*
+Log: assign { target: DynamicEventTarget }
+*/
 ```</t>
   </si>
   <si>
@@ -999,7 +1082,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1117,6 +1200,12 @@
       <name val="FreeMono"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="FreeMono"/>
+      <family val="3"/>
     </font>
     <font>
       <b val="true"/>
@@ -1908,7 +1997,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="24" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="18" fillId="24" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -14504,14 +14593,14 @@
     <tabColor rgb="FFD500F9"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A99" activeCellId="0" sqref="A99"/>
-      <selection pane="bottomRight" activeCell="H145" activeCellId="0" sqref="H145"/>
+      <selection pane="bottomLeft" activeCell="A54" activeCellId="0" sqref="A54"/>
+      <selection pane="bottomRight" activeCell="D60" activeCellId="0" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -14949,7 +15038,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" customFormat="false" ht="141.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="58"/>
       <c r="B40" s="58"/>
       <c r="C40" s="71"/>
@@ -15005,7 +15094,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" customFormat="false" ht="166.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="58"/>
       <c r="B45" s="58"/>
       <c r="C45" s="75"/>
@@ -15039,7 +15128,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="58"/>
       <c r="B48" s="58"/>
       <c r="C48" s="75"/>
@@ -15049,51 +15138,51 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="58"/>
       <c r="B49" s="58"/>
-      <c r="C49" s="79" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" s="80" t="s">
+      <c r="C49" s="57"/>
+      <c r="D49" s="46" t="s">
         <v>181</v>
       </c>
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="58"/>
       <c r="B50" s="58"/>
-      <c r="C50" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" s="78" t="s">
+      <c r="C50" s="75"/>
+      <c r="D50" s="76" t="s">
         <v>182</v>
       </c>
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="58"/>
       <c r="B51" s="58"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="76" t="s">
+      <c r="C51" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" s="80" t="s">
         <v>183</v>
       </c>
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="58"/>
       <c r="B52" s="58"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="46" t="s">
+      <c r="C52" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" s="78" t="s">
         <v>184</v>
       </c>
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" customFormat="false" ht="166.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="58"/>
       <c r="B53" s="58"/>
       <c r="C53" s="75"/>
@@ -15103,35 +15192,33 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="58"/>
       <c r="B54" s="58"/>
-      <c r="C54" s="79" t="s">
-        <v>143</v>
-      </c>
-      <c r="D54" s="80" t="s">
+      <c r="C54" s="57"/>
+      <c r="D54" s="46" t="s">
         <v>186</v>
       </c>
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="58"/>
       <c r="B55" s="58"/>
-      <c r="C55" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="D55" s="78" t="s">
+      <c r="C55" s="75"/>
+      <c r="D55" s="76" t="s">
         <v>187</v>
       </c>
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="58"/>
       <c r="B56" s="58"/>
-      <c r="C56" s="75"/>
-      <c r="D56" s="76" t="s">
+      <c r="C56" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="80" t="s">
         <v>188</v>
       </c>
       <c r="E56" s="37"/>
@@ -15149,99 +15236,99 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="191" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="58"/>
       <c r="B58" s="58"/>
-      <c r="C58" s="81"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="76" t="s">
         <v>190</v>
       </c>
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="58"/>
       <c r="B59" s="58"/>
-      <c r="C59" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="D59" s="78" t="s">
+      <c r="C59" s="57"/>
+      <c r="D59" s="46" t="s">
         <v>191</v>
       </c>
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="58"/>
       <c r="B60" s="58"/>
-      <c r="C60" s="81"/>
+      <c r="C60" s="75"/>
       <c r="D60" s="76" t="s">
         <v>192</v>
       </c>
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="58"/>
       <c r="B61" s="58"/>
-      <c r="C61" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="D61" s="74" t="s">
+      <c r="C61" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="D61" s="78" t="s">
         <v>193</v>
       </c>
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="58"/>
       <c r="B62" s="58"/>
-      <c r="C62" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="D62" s="83" t="s">
+      <c r="C62" s="81"/>
+      <c r="D62" s="76" t="s">
         <v>194</v>
       </c>
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="58"/>
       <c r="B63" s="58"/>
-      <c r="C63" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D63" s="67" t="s">
+      <c r="C63" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" s="78" t="s">
         <v>195</v>
       </c>
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="64" customFormat="false" ht="214.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="58"/>
       <c r="B64" s="58"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="46" t="s">
+      <c r="C64" s="81"/>
+      <c r="D64" s="76" t="s">
         <v>196</v>
       </c>
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" customFormat="false" ht="69.35" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="65" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="58"/>
       <c r="B65" s="58"/>
-      <c r="C65" s="75"/>
-      <c r="D65" s="76" t="s">
+      <c r="C65" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" s="74" t="s">
         <v>197</v>
       </c>
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="58"/>
       <c r="B66" s="58"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="46" t="s">
+      <c r="C66" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66" s="83" t="s">
         <v>198</v>
       </c>
       <c r="E66" s="37"/>
@@ -15250,29 +15337,31 @@
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A67" s="58"/>
       <c r="B67" s="58"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="46"/>
+      <c r="C67" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D67" s="67" t="s">
+        <v>199</v>
+      </c>
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="68" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A68" s="58"/>
       <c r="B68" s="58"/>
-      <c r="C68" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D68" s="67" t="s">
-        <v>199</v>
+      <c r="C68" s="57"/>
+      <c r="D68" s="46" t="s">
+        <v>200</v>
       </c>
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="69" customFormat="false" ht="69.35" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A69" s="58"/>
       <c r="B69" s="58"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="46" t="s">
-        <v>200</v>
+      <c r="C69" s="75"/>
+      <c r="D69" s="76" t="s">
+        <v>201</v>
       </c>
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
@@ -15280,20 +15369,18 @@
     <row r="70" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A70" s="58"/>
       <c r="B70" s="58"/>
-      <c r="C70" s="75"/>
-      <c r="D70" s="76" t="s">
-        <v>201</v>
+      <c r="C70" s="57"/>
+      <c r="D70" s="46" t="s">
+        <v>202</v>
       </c>
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A71" s="58"/>
       <c r="B71" s="58"/>
       <c r="C71" s="57"/>
-      <c r="D71" s="46" t="s">
-        <v>202</v>
-      </c>
+      <c r="D71" s="46"/>
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
@@ -15339,13 +15426,13 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A76" s="58"/>
       <c r="B76" s="58"/>
-      <c r="C76" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="D76" s="83" t="s">
+      <c r="C76" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76" s="67" t="s">
         <v>207</v>
       </c>
       <c r="E76" s="37"/>
@@ -15361,19 +15448,17 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="78" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A78" s="58"/>
       <c r="B78" s="58"/>
-      <c r="C78" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D78" s="67" t="s">
+      <c r="C78" s="75"/>
+      <c r="D78" s="76" t="s">
         <v>209</v>
       </c>
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="79" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A79" s="58"/>
       <c r="B79" s="58"/>
       <c r="C79" s="57"/>
@@ -15383,17 +15468,19 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A80" s="58"/>
       <c r="B80" s="58"/>
-      <c r="C80" s="75"/>
-      <c r="D80" s="76" t="s">
+      <c r="C80" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="D80" s="83" t="s">
         <v>211</v>
       </c>
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A81" s="58"/>
       <c r="B81" s="58"/>
       <c r="C81" s="57"/>
@@ -15403,13 +15490,13 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A82" s="58"/>
       <c r="B82" s="58"/>
-      <c r="C82" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="D82" s="83" t="s">
+      <c r="C82" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D82" s="67" t="s">
         <v>213</v>
       </c>
       <c r="E82" s="37"/>
@@ -15418,52 +15505,52 @@
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A83" s="58"/>
       <c r="B83" s="58"/>
-      <c r="C83" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D83" s="67" t="s">
+      <c r="C83" s="57"/>
+      <c r="D83" s="46" t="s">
         <v>214</v>
       </c>
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="84" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A84" s="58"/>
       <c r="B84" s="58"/>
-      <c r="C84" s="57"/>
-      <c r="D84" s="46" t="s">
+      <c r="C84" s="75"/>
+      <c r="D84" s="76" t="s">
         <v>215</v>
       </c>
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" customFormat="false" ht="69.35" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="85" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A85" s="58"/>
       <c r="B85" s="58"/>
-      <c r="C85" s="75"/>
-      <c r="D85" s="76" t="s">
+      <c r="C85" s="57"/>
+      <c r="D85" s="46" t="s">
         <v>216</v>
       </c>
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A86" s="58"/>
       <c r="B86" s="58"/>
-      <c r="C86" s="57"/>
-      <c r="D86" s="46" t="s">
+      <c r="C86" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="D86" s="83" t="s">
         <v>217</v>
       </c>
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A87" s="58"/>
       <c r="B87" s="58"/>
-      <c r="C87" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="D87" s="83" t="s">
+      <c r="C87" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D87" s="67" t="s">
         <v>218</v>
       </c>
       <c r="E87" s="37"/>
@@ -15472,52 +15559,52 @@
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A88" s="58"/>
       <c r="B88" s="58"/>
-      <c r="C88" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D88" s="67" t="s">
+      <c r="C88" s="57"/>
+      <c r="D88" s="46" t="s">
         <v>219</v>
       </c>
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="89" customFormat="false" ht="69.35" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A89" s="58"/>
       <c r="B89" s="58"/>
-      <c r="C89" s="57"/>
-      <c r="D89" s="46" t="s">
+      <c r="C89" s="75"/>
+      <c r="D89" s="76" t="s">
         <v>220</v>
       </c>
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="90" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A90" s="58"/>
       <c r="B90" s="58"/>
-      <c r="C90" s="75"/>
-      <c r="D90" s="76" t="s">
+      <c r="C90" s="57"/>
+      <c r="D90" s="46" t="s">
         <v>221</v>
       </c>
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A91" s="58"/>
       <c r="B91" s="58"/>
-      <c r="C91" s="57"/>
-      <c r="D91" s="46" t="s">
+      <c r="C91" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="D91" s="83" t="s">
         <v>222</v>
       </c>
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A92" s="58"/>
       <c r="B92" s="58"/>
-      <c r="C92" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="D92" s="83" t="s">
+      <c r="C92" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D92" s="67" t="s">
         <v>223</v>
       </c>
       <c r="E92" s="37"/>
@@ -15526,52 +15613,52 @@
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A93" s="58"/>
       <c r="B93" s="58"/>
-      <c r="C93" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D93" s="67" t="s">
+      <c r="C93" s="57"/>
+      <c r="D93" s="46" t="s">
         <v>224</v>
       </c>
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="94" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A94" s="58"/>
       <c r="B94" s="58"/>
-      <c r="C94" s="57"/>
-      <c r="D94" s="46" t="s">
+      <c r="C94" s="75"/>
+      <c r="D94" s="76" t="s">
         <v>225</v>
       </c>
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="95" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A95" s="58"/>
       <c r="B95" s="58"/>
-      <c r="C95" s="75"/>
-      <c r="D95" s="76" t="s">
+      <c r="C95" s="57"/>
+      <c r="D95" s="46" t="s">
         <v>226</v>
       </c>
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A96" s="58"/>
       <c r="B96" s="58"/>
-      <c r="C96" s="57"/>
-      <c r="D96" s="46" t="s">
+      <c r="C96" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="D96" s="83" t="s">
         <v>227</v>
       </c>
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A97" s="58"/>
       <c r="B97" s="58"/>
-      <c r="C97" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="D97" s="83" t="s">
+      <c r="C97" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D97" s="67" t="s">
         <v>228</v>
       </c>
       <c r="E97" s="37"/>
@@ -15580,121 +15667,119 @@
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A98" s="58"/>
       <c r="B98" s="58"/>
-      <c r="C98" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D98" s="67" t="s">
+      <c r="C98" s="57"/>
+      <c r="D98" s="46" t="s">
         <v>229</v>
       </c>
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="99" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A99" s="58"/>
       <c r="B99" s="58"/>
-      <c r="C99" s="57"/>
-      <c r="D99" s="46" t="s">
+      <c r="C99" s="75"/>
+      <c r="D99" s="76" t="s">
         <v>230</v>
       </c>
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="100" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A100" s="58"/>
       <c r="B100" s="58"/>
-      <c r="C100" s="75"/>
-      <c r="D100" s="76" t="s">
+      <c r="C100" s="57"/>
+      <c r="D100" s="46" t="s">
         <v>231</v>
       </c>
       <c r="E100" s="37"/>
       <c r="F100" s="38"/>
     </row>
-    <row r="101" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A101" s="58"/>
       <c r="B101" s="58"/>
-      <c r="C101" s="57"/>
-      <c r="D101" s="46" t="s">
+      <c r="C101" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="D101" s="83" t="s">
         <v>232</v>
       </c>
       <c r="E101" s="37"/>
       <c r="F101" s="38"/>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="84" t="n">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A102" s="58"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D102" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="E102" s="37"/>
+      <c r="F102" s="38"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A103" s="58"/>
+      <c r="B103" s="58"/>
+      <c r="C103" s="57"/>
+      <c r="D103" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="E103" s="37"/>
+      <c r="F103" s="38"/>
+    </row>
+    <row r="104" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A104" s="58"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="75"/>
+      <c r="D104" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="E104" s="37"/>
+      <c r="F104" s="38"/>
+    </row>
+    <row r="105" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A105" s="58"/>
+      <c r="B105" s="58"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="E105" s="37"/>
+      <c r="F105" s="38"/>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="84" t="n">
         <f aca="false">VINE_Documents!$A$19</f>
         <v>15</v>
       </c>
-      <c r="B102" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="C102" s="43"/>
-      <c r="D102" s="85"/>
-      <c r="E102" s="37"/>
-      <c r="F102" s="38"/>
-    </row>
-    <row r="103" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A103" s="47"/>
-      <c r="B103" s="47"/>
-      <c r="C103" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="D103" s="87" t="s">
-        <v>234</v>
-      </c>
-      <c r="E103" s="37"/>
-      <c r="F103" s="38"/>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A104" s="60"/>
-      <c r="B104" s="60"/>
-      <c r="C104" s="88" t="s">
-        <v>143</v>
-      </c>
-      <c r="D104" s="89"/>
-      <c r="E104" s="37"/>
-      <c r="F104" s="38"/>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A105" s="44"/>
-      <c r="B105" s="44"/>
-      <c r="C105" s="90"/>
-      <c r="D105" s="91" t="s">
-        <v>235</v>
-      </c>
-      <c r="E105" s="37"/>
-      <c r="F105" s="38"/>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A106" s="44"/>
-      <c r="B106" s="44"/>
-      <c r="C106" s="90"/>
-      <c r="D106" s="91" t="s">
-        <v>236</v>
-      </c>
+      <c r="B106" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="C106" s="43"/>
+      <c r="D106" s="85"/>
       <c r="E106" s="37"/>
       <c r="F106" s="38"/>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A107" s="92"/>
-      <c r="B107" s="92"/>
-      <c r="C107" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="D107" s="94" t="s">
-        <v>237</v>
+    <row r="107" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A107" s="47"/>
+      <c r="B107" s="47"/>
+      <c r="C107" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="D107" s="87" t="s">
+        <v>238</v>
       </c>
       <c r="E107" s="37"/>
       <c r="F107" s="38"/>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A108" s="95"/>
-      <c r="B108" s="95"/>
-      <c r="C108" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D108" s="97" t="s">
-        <v>238</v>
-      </c>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A108" s="60"/>
+      <c r="B108" s="60"/>
+      <c r="C108" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="D108" s="89"/>
       <c r="E108" s="37"/>
       <c r="F108" s="38"/>
     </row>
@@ -15702,134 +15787,134 @@
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="90"/>
-      <c r="D109" s="91"/>
+      <c r="D109" s="91" t="s">
+        <v>239</v>
+      </c>
       <c r="E109" s="37"/>
       <c r="F109" s="38"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A110" s="95"/>
-      <c r="B110" s="95"/>
-      <c r="C110" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D110" s="97" t="s">
-        <v>239</v>
+      <c r="A110" s="44"/>
+      <c r="B110" s="44"/>
+      <c r="C110" s="90"/>
+      <c r="D110" s="91" t="s">
+        <v>240</v>
       </c>
       <c r="E110" s="37"/>
       <c r="F110" s="38"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A111" s="44"/>
-      <c r="B111" s="44"/>
-      <c r="C111" s="90"/>
-      <c r="D111" s="91"/>
+      <c r="A111" s="92"/>
+      <c r="B111" s="92"/>
+      <c r="C111" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="D111" s="94" t="s">
+        <v>241</v>
+      </c>
       <c r="E111" s="37"/>
       <c r="F111" s="38"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A112" s="92"/>
-      <c r="B112" s="92"/>
-      <c r="C112" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="D112" s="94" t="s">
-        <v>240</v>
+      <c r="A112" s="95"/>
+      <c r="B112" s="95"/>
+      <c r="C112" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D112" s="97" t="s">
+        <v>242</v>
       </c>
       <c r="E112" s="37"/>
       <c r="F112" s="38"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A113" s="95"/>
-      <c r="B113" s="95"/>
-      <c r="C113" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D113" s="97" t="s">
-        <v>241</v>
-      </c>
+      <c r="A113" s="44"/>
+      <c r="B113" s="44"/>
+      <c r="C113" s="90"/>
+      <c r="D113" s="91"/>
       <c r="E113" s="37"/>
       <c r="F113" s="38"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A114" s="44"/>
-      <c r="B114" s="44"/>
-      <c r="C114" s="90"/>
-      <c r="D114" s="91"/>
+      <c r="A114" s="95"/>
+      <c r="B114" s="95"/>
+      <c r="C114" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D114" s="97" t="s">
+        <v>243</v>
+      </c>
       <c r="E114" s="37"/>
       <c r="F114" s="38"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A115" s="95"/>
-      <c r="B115" s="95"/>
-      <c r="C115" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D115" s="97" t="s">
-        <v>242</v>
-      </c>
+      <c r="A115" s="44"/>
+      <c r="B115" s="44"/>
+      <c r="C115" s="90"/>
+      <c r="D115" s="91"/>
       <c r="E115" s="37"/>
       <c r="F115" s="38"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A116" s="44"/>
-      <c r="B116" s="44"/>
-      <c r="C116" s="90"/>
-      <c r="D116" s="91"/>
+      <c r="A116" s="92"/>
+      <c r="B116" s="92"/>
+      <c r="C116" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="D116" s="94" t="s">
+        <v>244</v>
+      </c>
       <c r="E116" s="37"/>
       <c r="F116" s="38"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A117" s="92"/>
-      <c r="B117" s="92"/>
-      <c r="C117" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="D117" s="94" t="s">
-        <v>243</v>
+      <c r="A117" s="95"/>
+      <c r="B117" s="95"/>
+      <c r="C117" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D117" s="97" t="s">
+        <v>245</v>
       </c>
       <c r="E117" s="37"/>
       <c r="F117" s="38"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A118" s="95"/>
-      <c r="B118" s="95"/>
-      <c r="C118" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D118" s="97" t="s">
-        <v>244</v>
-      </c>
+      <c r="A118" s="44"/>
+      <c r="B118" s="44"/>
+      <c r="C118" s="90"/>
+      <c r="D118" s="91"/>
       <c r="E118" s="37"/>
       <c r="F118" s="38"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A119" s="44"/>
-      <c r="B119" s="44"/>
-      <c r="C119" s="90"/>
-      <c r="D119" s="91"/>
+      <c r="A119" s="95"/>
+      <c r="B119" s="95"/>
+      <c r="C119" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D119" s="97" t="s">
+        <v>246</v>
+      </c>
       <c r="E119" s="37"/>
       <c r="F119" s="38"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A120" s="92"/>
-      <c r="B120" s="92"/>
-      <c r="C120" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="D120" s="94" t="s">
-        <v>245</v>
-      </c>
+      <c r="A120" s="44"/>
+      <c r="B120" s="44"/>
+      <c r="C120" s="90"/>
+      <c r="D120" s="91"/>
       <c r="E120" s="37"/>
       <c r="F120" s="38"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A121" s="95"/>
-      <c r="B121" s="95"/>
-      <c r="C121" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D121" s="97" t="s">
-        <v>246</v>
+      <c r="A121" s="92"/>
+      <c r="B121" s="92"/>
+      <c r="C121" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="D121" s="94" t="s">
+        <v>247</v>
       </c>
       <c r="E121" s="37"/>
       <c r="F121" s="38"/>
@@ -15841,7 +15926,7 @@
         <v>160</v>
       </c>
       <c r="D122" s="97" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E122" s="37"/>
       <c r="F122" s="38"/>
@@ -15861,7 +15946,7 @@
         <v>149</v>
       </c>
       <c r="D124" s="94" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E124" s="37"/>
       <c r="F124" s="38"/>
@@ -15873,164 +15958,168 @@
         <v>160</v>
       </c>
       <c r="D125" s="97" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E125" s="37"/>
       <c r="F125" s="38"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A126" s="44"/>
-      <c r="B126" s="44"/>
-      <c r="C126" s="90"/>
-      <c r="D126" s="91"/>
+      <c r="A126" s="95"/>
+      <c r="B126" s="95"/>
+      <c r="C126" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D126" s="97" t="s">
+        <v>251</v>
+      </c>
       <c r="E126" s="37"/>
       <c r="F126" s="38"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A127" s="92"/>
-      <c r="B127" s="92"/>
-      <c r="C127" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="D127" s="94" t="s">
-        <v>250</v>
-      </c>
+      <c r="A127" s="44"/>
+      <c r="B127" s="44"/>
+      <c r="C127" s="90"/>
+      <c r="D127" s="91"/>
       <c r="E127" s="37"/>
       <c r="F127" s="38"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A128" s="95"/>
-      <c r="B128" s="95"/>
-      <c r="C128" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D128" s="97" t="s">
-        <v>251</v>
+      <c r="A128" s="92"/>
+      <c r="B128" s="92"/>
+      <c r="C128" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="D128" s="94" t="s">
+        <v>252</v>
       </c>
       <c r="E128" s="37"/>
       <c r="F128" s="38"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A129" s="44"/>
-      <c r="B129" s="44"/>
-      <c r="C129" s="90"/>
-      <c r="D129" s="91"/>
+      <c r="A129" s="95"/>
+      <c r="B129" s="95"/>
+      <c r="C129" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D129" s="97" t="s">
+        <v>253</v>
+      </c>
       <c r="E129" s="37"/>
       <c r="F129" s="38"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A130" s="92"/>
-      <c r="B130" s="92"/>
-      <c r="C130" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="D130" s="94" t="s">
-        <v>252</v>
-      </c>
+      <c r="A130" s="44"/>
+      <c r="B130" s="44"/>
+      <c r="C130" s="90"/>
+      <c r="D130" s="91"/>
       <c r="E130" s="37"/>
       <c r="F130" s="38"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A131" s="95"/>
-      <c r="B131" s="95"/>
-      <c r="C131" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D131" s="97" t="s">
-        <v>253</v>
+      <c r="A131" s="92"/>
+      <c r="B131" s="92"/>
+      <c r="C131" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="D131" s="94" t="s">
+        <v>254</v>
       </c>
       <c r="E131" s="37"/>
       <c r="F131" s="38"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A132" s="44"/>
-      <c r="B132" s="44"/>
-      <c r="C132" s="90"/>
-      <c r="D132" s="91"/>
+      <c r="A132" s="95"/>
+      <c r="B132" s="95"/>
+      <c r="C132" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D132" s="97" t="s">
+        <v>255</v>
+      </c>
       <c r="E132" s="37"/>
       <c r="F132" s="38"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A133" s="92"/>
-      <c r="B133" s="92"/>
-      <c r="C133" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="D133" s="94" t="s">
-        <v>254</v>
-      </c>
+      <c r="A133" s="44"/>
+      <c r="B133" s="44"/>
+      <c r="C133" s="90"/>
+      <c r="D133" s="91"/>
       <c r="E133" s="37"/>
       <c r="F133" s="38"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A134" s="95"/>
-      <c r="B134" s="95"/>
-      <c r="C134" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D134" s="97" t="s">
-        <v>255</v>
+      <c r="A134" s="92"/>
+      <c r="B134" s="92"/>
+      <c r="C134" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="D134" s="94" t="s">
+        <v>256</v>
       </c>
       <c r="E134" s="37"/>
       <c r="F134" s="38"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A135" s="44"/>
-      <c r="B135" s="44"/>
-      <c r="C135" s="90"/>
-      <c r="D135" s="91"/>
+      <c r="A135" s="95"/>
+      <c r="B135" s="95"/>
+      <c r="C135" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D135" s="97" t="s">
+        <v>257</v>
+      </c>
       <c r="E135" s="37"/>
       <c r="F135" s="38"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A136" s="92"/>
-      <c r="B136" s="92"/>
-      <c r="C136" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="D136" s="94" t="s">
-        <v>256</v>
-      </c>
+      <c r="A136" s="44"/>
+      <c r="B136" s="44"/>
+      <c r="C136" s="90"/>
+      <c r="D136" s="91"/>
       <c r="E136" s="37"/>
       <c r="F136" s="38"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A137" s="95"/>
-      <c r="B137" s="95"/>
-      <c r="C137" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D137" s="97" t="s">
-        <v>257</v>
+      <c r="A137" s="92"/>
+      <c r="B137" s="92"/>
+      <c r="C137" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="D137" s="94" t="s">
+        <v>258</v>
       </c>
       <c r="E137" s="37"/>
       <c r="F137" s="38"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A138" s="44"/>
-      <c r="B138" s="44"/>
-      <c r="C138" s="90"/>
-      <c r="D138" s="91"/>
+      <c r="A138" s="95"/>
+      <c r="B138" s="95"/>
+      <c r="C138" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D138" s="97" t="s">
+        <v>259</v>
+      </c>
       <c r="E138" s="37"/>
       <c r="F138" s="38"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A139" s="95"/>
-      <c r="B139" s="95"/>
-      <c r="C139" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D139" s="97" t="s">
-        <v>258</v>
-      </c>
+      <c r="A139" s="44"/>
+      <c r="B139" s="44"/>
+      <c r="C139" s="90"/>
+      <c r="D139" s="91"/>
       <c r="E139" s="37"/>
       <c r="F139" s="38"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A140" s="44"/>
-      <c r="B140" s="44"/>
-      <c r="C140" s="90"/>
-      <c r="D140" s="91"/>
+      <c r="A140" s="92"/>
+      <c r="B140" s="92"/>
+      <c r="C140" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="D140" s="94" t="s">
+        <v>260</v>
+      </c>
       <c r="E140" s="37"/>
       <c r="F140" s="38"/>
     </row>
@@ -16041,7 +16130,7 @@
         <v>160</v>
       </c>
       <c r="D141" s="97" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E141" s="37"/>
       <c r="F141" s="38"/>
@@ -16055,74 +16144,114 @@
       <c r="F142" s="38"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A143" s="92"/>
-      <c r="B143" s="92"/>
-      <c r="C143" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="D143" s="94" t="s">
-        <v>260</v>
+      <c r="A143" s="95"/>
+      <c r="B143" s="95"/>
+      <c r="C143" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D143" s="97" t="s">
+        <v>262</v>
       </c>
       <c r="E143" s="37"/>
       <c r="F143" s="38"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A144" s="95"/>
-      <c r="B144" s="95"/>
-      <c r="C144" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D144" s="97" t="s">
-        <v>261</v>
-      </c>
+      <c r="A144" s="44"/>
+      <c r="B144" s="44"/>
+      <c r="C144" s="90"/>
+      <c r="D144" s="91"/>
       <c r="E144" s="37"/>
       <c r="F144" s="38"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A145" s="44"/>
-      <c r="B145" s="44"/>
-      <c r="C145" s="90"/>
-      <c r="D145" s="91"/>
+      <c r="A145" s="95"/>
+      <c r="B145" s="95"/>
+      <c r="C145" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D145" s="97" t="s">
+        <v>263</v>
+      </c>
       <c r="E145" s="37"/>
       <c r="F145" s="38"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A146" s="95"/>
-      <c r="B146" s="95"/>
-      <c r="C146" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D146" s="97" t="s">
-        <v>262</v>
-      </c>
+      <c r="A146" s="44"/>
+      <c r="B146" s="44"/>
+      <c r="C146" s="90"/>
+      <c r="D146" s="91"/>
       <c r="E146" s="37"/>
       <c r="F146" s="38"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A147" s="44"/>
-      <c r="B147" s="44"/>
-      <c r="C147" s="90"/>
-      <c r="D147" s="91"/>
+      <c r="A147" s="92"/>
+      <c r="B147" s="92"/>
+      <c r="C147" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="D147" s="94" t="s">
+        <v>264</v>
+      </c>
       <c r="E147" s="37"/>
       <c r="F147" s="38"/>
     </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="37"/>
-      <c r="B148" s="37"/>
-      <c r="C148" s="37"/>
-      <c r="D148" s="37"/>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A148" s="95"/>
+      <c r="B148" s="95"/>
+      <c r="C148" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D148" s="97" t="s">
+        <v>265</v>
+      </c>
       <c r="E148" s="37"/>
       <c r="F148" s="38"/>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="38"/>
-      <c r="B149" s="38"/>
-      <c r="C149" s="98"/>
-      <c r="D149" s="99" t="n">
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A149" s="44"/>
+      <c r="B149" s="44"/>
+      <c r="C149" s="90"/>
+      <c r="D149" s="91"/>
+      <c r="E149" s="37"/>
+      <c r="F149" s="38"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A150" s="95"/>
+      <c r="B150" s="95"/>
+      <c r="C150" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D150" s="97" t="s">
+        <v>266</v>
+      </c>
+      <c r="E150" s="37"/>
+      <c r="F150" s="38"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A151" s="44"/>
+      <c r="B151" s="44"/>
+      <c r="C151" s="90"/>
+      <c r="D151" s="91"/>
+      <c r="E151" s="37"/>
+      <c r="F151" s="38"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="37"/>
+      <c r="B152" s="37"/>
+      <c r="C152" s="37"/>
+      <c r="D152" s="37"/>
+      <c r="E152" s="37"/>
+      <c r="F152" s="38"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="38"/>
+      <c r="B153" s="38"/>
+      <c r="C153" s="98"/>
+      <c r="D153" s="99" t="n">
         <v>0</v>
       </c>
-      <c r="E149" s="38"/>
-      <c r="F149" s="38"/>
+      <c r="E153" s="38"/>
+      <c r="F153" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -16209,10 +16338,10 @@
         <v>134</v>
       </c>
       <c r="C2" s="102" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D2" s="102" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E2" s="40" t="s">
         <v>135</v>
@@ -16259,7 +16388,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C4" s="103"/>
       <c r="D4" s="103"/>
@@ -16283,16 +16412,16 @@
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="105" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D5" s="106" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E5" s="48" t="s">
         <v>140</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G5" s="107"/>
       <c r="H5" s="107"/>
@@ -16495,7 +16624,7 @@
       <c r="D14" s="106"/>
       <c r="E14" s="48"/>
       <c r="F14" s="49" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G14" s="107"/>
       <c r="H14" s="107"/>
@@ -16518,7 +16647,7 @@
       <c r="D15" s="106"/>
       <c r="E15" s="48"/>
       <c r="F15" s="49" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G15" s="107"/>
       <c r="H15" s="107"/>
@@ -16587,7 +16716,7 @@
       <c r="D18" s="106"/>
       <c r="E18" s="48"/>
       <c r="F18" s="49" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G18" s="107"/>
       <c r="H18" s="107"/>

--- a/designment/document/mvc-framework-document.xlsx
+++ b/designment/document/mvc-framework-document.xlsx
@@ -19,10 +19,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0" vbProcedure="false">VINE_Documents!$A$1:$Y$237</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_COM" vbProcedure="false">VINE_Documents!$A$4:$Y$237</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_SUP" vbProcedure="false">VINE_Documents!$A$1:$Y$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="AREA" vbProcedure="false">VORM_0_Guide_DET!$A$1:$E$152</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0" vbProcedure="false">VORM_0_Guide_DET!$D$1:$D$152</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0" vbProcedure="false">VORM_0_Guide_DET!$A$1:$E$152</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_COM" vbProcedure="false">VORM_0_Guide_DET!$A$5:$E$152</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="AREA" vbProcedure="false">VORM_0_Guide_DET!$A$1:$E$197</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0" vbProcedure="false">VORM_0_Guide_DET!$D$1:$D$197</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0" vbProcedure="false">VORM_0_Guide_DET!$A$1:$E$197</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_COM" vbProcedure="false">VORM_0_Guide_DET!$A$5:$E$197</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_SUP" vbProcedure="false">VORM_0_Guide_DET!$A$1:$E$4</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="AREA" vbProcedure="false">VORM_0_Classification!$A$1:$P$22</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="LMN_0" vbProcedure="false">VORM_0_Classification!$F$1:$O$22</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="311">
   <si>
     <t xml:space="preserve">fs</t>
   </si>
@@ -560,6 +560,58 @@
   </si>
   <si>
     <t xml:space="preserve">Dynamic Event Target (DET) Object</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- [Overview](#overview)
+- [Importation](#importation)
+- [Instantiation](#instantiation)
+- [Parsement](#parsement)
+  - [Parse Object](#parse-object)
+  - [Parse JSON](#parse-json)
+- [DET Object Event Listener Signment](#det-object-event-listener-signment)
+  - [Add Event Listener - Base Object](#add-event-listener---base-object)
+    - [Assign Base-Referenced Object Property](#assign-base-referenced-object-property)
+    - [Assign Base-Referenced Subbase Object Property](#assign-base-referenced-subbase-object-property)
+  - [Add Event Listener - Subbase Object](#add-event-listener---subbase-object)
+    - [Assign subbase object property](#assign-subbase-referenced-object-property)
+    - [Assign Subbase-Referenced Subbbase Object Property](#assign-subbase-referenced-subbbase-object-property)
+  - [Remove Event Lister](#remove-event-listener)
+    - [Remove Base-Referenced Event Listener](#remove-base-referenced-event-listener)
+    - [Remove Subbased-Referenced Event Listener](#remove-subbased-referenced-event-listener)
+- [DET Object Ventilation](#det-object-ventilation)
+  - [1. DET Object Assign Events](#1-det-object-assign-events)
+    - [1.1. "assignSourceProperty Event"](#11-assignsourceproperty-event)
+    - [1.2. "assignSource" Event](#12-assignsource-event)
+    - [1.3. "assign" Event](#13-assign-event)
+  - [2. DET Object Define Properties Events](#2-det-object-define-properties-events)
+    - [2.1. "defineProperties" Event](#21-defineproperties-event)
+  - [3. DET Object Define Property Events](#3-det-object-define-property-event)
+    - [3.1. "defineProperty" Event](#31-defineproperty-event)
+  - [4. DET Object Freeze Event](#4-det-object-freeze-event)
+    - [4.1. "freeze" Event](#41-freeze)
+  - [5. Object Seal](#5-object-seal)
+    - [5.1. "seal" Event](#51-seal)
+  - [Object Set Prototype](#6-object-set-prototype)
+    - [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"setPrototypeOf" Event](#61-setprototypeof)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Overview</t>
   </si>
   <si>
     <t xml:space="preserve">Dynamic Event Target (DET) ventilates **Object Property Modifier Functions**: </t>
@@ -617,7 +669,7 @@
     <t xml:space="preserve">Parsement</t>
   </si>
   <si>
-    <t xml:space="preserve">Parse</t>
+    <t xml:space="preserve">Parse Object</t>
   </si>
   <si>
     <t xml:space="preserve">```
@@ -625,28 +677,11 @@
 ```</t>
   </si>
   <si>
-    <t xml:space="preserve">**Returns Plain Object**  </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">```
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">{
+    <t xml:space="preserve">*Returns Plain JS Object*  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">```
+{
   aaa: 111,
   bbb: 222,
   ccc: {
@@ -657,32 +692,20 @@
     }
   }
 }
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">```</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Inspection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inspect</t>
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parse JSON</t>
   </si>
   <si>
     <t xml:space="preserve">```
-object.inspect()
+object.parse({
+  type: "JSON"
+})
 ```</t>
   </si>
   <si>
-    <t xml:space="preserve">**Returns JSON Object**  </t>
+    <t xml:space="preserve">*Returns JSON String*  </t>
   </si>
   <si>
     <t xml:space="preserve">```
@@ -700,85 +723,197 @@
 ```</t>
   </si>
   <si>
+    <t xml:space="preserve">DET Object Property Signment</t>
+  </si>
+  <si>
     <t xml:space="preserve">DET Object Event Listener Signment</t>
   </si>
   <si>
-    <t xml:space="preserve">Add Event Listener - Base Object</t>
+    <t xml:space="preserve">For demonstration purposes, a simple event logger:  </t>
   </si>
   <si>
     <t xml:space="preserve">```
-function objectAssign($event) {
+function DETEventLog($event) {
   console.log(
-    '\n', $event.basename, $event.path,
-    '\n', $event.type, $event.detail
+    '\n', 'basename', $event.basename, 
+    '\n', 'path', $event.path,
+    '\n', 'type', $event.type, 
+    '\n', 'detail', JSON.stringify(
+      $event.detail, null, 2
+    )
   )
 }
-object.addEventListener("assign", objectAssign)
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Event Listener - Base Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">```
+object.addEventListener('assign', DETEventLog)
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assign Base-Referenced Object Property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">```
+object.assign({
+  aaa: 111111
+})
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emits DynamicEvent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">```
+basename null 
+path null 
+type assign 
+detail {
+  "sources": [
+    {
+      "aaa": 111111
+    }
+  ]
+}
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assign Base-Referenced Subbase Object Property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">```
 object.assign({
   ccc: {
-    fff: {
-      ggg: 777777,
-      hhh: {
-        iii: 999
-      }
-    }
+    ddd: 444444
   }
 })
 ```</t>
   </si>
   <si>
-    <t xml:space="preserve">**Emits DynamicEvent**  </t>
+    <t xml:space="preserve">Emits DynamicEvents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">######</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Log #1</t>
   </si>
   <si>
     <t xml:space="preserve">```
-object.assign({
-  ccc: {
-    fff: {
-      ggg: 777777,
-      hhh: {
-        iii: 999
+basename ccc 
+path ccc 
+type assign 
+detail {
+  "sources": [
+    {
+      "ddd": 444444
+    }
+  ]
+}
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Log #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">```
+basename null 
+path null 
+type assign 
+detail {
+  "sources": [
+    {
+      "ccc": {
+        "ddd": 444444
       }
     }
-  }
+  ]
+}
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Event Listener - Subbase Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">```
+object.ccc.addEventListener("assign", DETEventLog)
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assign Subbase-Referenced Object Property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">```
+object.ccc.assign({
+  ddd: 444444444
 })
 ```</t>
   </si>
   <si>
+    <t xml:space="preserve">```
+basename ccc 
+path ccc 
+type assign 
+detail {
+  "sources": [
+    {
+      "ddd": 444444444
+    }
+  ]
+}
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assign Subbase-Referenced Subbbase Object Property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">```
+object.ccc.fff.assign({
+  ggg: 777777
+})
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">```
+basename fff 
+path ccc.fff 
+type assign 
+detail {
+  "sources": [
+    {
+      "ggg": 777777
+    }
+  ]
+}
+```</t>
+  </si>
+  <si>
     <t xml:space="preserve">Remove Event Listener</t>
   </si>
   <si>
+    <t xml:space="preserve">Remove Base-Referenced Event Listener</t>
+  </si>
+  <si>
     <t xml:space="preserve">```
-object.removeEventListener("assign", objectAssign)
+object.removeEventListener("assign", DETEventLog)
 object.assign({ aaa: 111111111 })
-/*
-Log: empty
-*/
 ```</t>
   </si>
   <si>
-    <t xml:space="preserve">Bubble Event Listener</t>
+    <t xml:space="preserve">Emits Nothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Subbased-Referenced Event Listener</t>
   </si>
   <si>
     <t xml:space="preserve">```
-function objectAssign($event) {
-  console.log(
-    $event.path, $event.basename, 
-    $event.type, $event.detail
-  )
-}
-object.addEventListener("assign", objectAssign)
-object.assign({
-  aaa: {
-    ddd: {
-      hhh: {
-        iii: 999999
-      }
-    }
-  }
+object.ccc.removeEventListener("assign", DETEventLog)
+object.ccc.assign({
+  ddd: 444444444
 })
-/*
-Log: assign { target: DynamicEventTarget }
-*/
 ```</t>
   </si>
   <si>
@@ -792,6 +927,9 @@
   </si>
   <si>
     <t xml:space="preserve">`assignSourceProperty` event occurs after each source property assignment to DET instance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Detail</t>
   </si>
   <si>
     <t xml:space="preserve">```
@@ -810,10 +948,92 @@
 |source|Object|Assigned Source|</t>
   </si>
   <si>
+    <t xml:space="preserve">Base-Referenced Property Assignment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">```
+object.addEventListener("assignSourceProperty", DETEventLog)
+object.assign({
+  aaa: 111
+})
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">```
+basename null 
+path null 
+type assignSourceProperty 
+detail {
+  "key": "aaa",
+  "val": 111,
+  "source": {
+    "aaa": 111
+  }
+}
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base-Referenced Subproperty Assignment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">```
+object.assign({
+  ccc: {
+    eee: 555
+  }
+})
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">```
+basename ccc 
+path ccc 
+type assignSourceProperty 
+detail {
+  "key": "eee",
+  "val": 555,
+  "source": {
+    "eee": 555
+  }
+}
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">```
+basename null 
+path null 
+type assignSourceProperty 
+detail {
+  "key": "ccc",
+  "val": {
+    "eee": 555
+  },
+  "source": {
+    "ccc": {
+      "eee": 555
+    }
+  }
+}
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subbase-Referenced Property Assignment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">```
+object.ccc.assign({
+  eee: 555
+})
+```</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.2. "assignSource" Event</t>
   </si>
   <si>
-    <t xml:space="preserve">`assignSource` event occurs after each source assignment to DET instance. </t>
+    <t xml:space="preserve">`assignSource` event occurs after each source assignment to DET instance.  </t>
   </si>
   <si>
     <t xml:space="preserve">```
@@ -831,7 +1051,7 @@
     <t xml:space="preserve">1.3. "assign" Event</t>
   </si>
   <si>
-    <t xml:space="preserve">`assign` event occurs after all sources assigned to DET instance. </t>
+    <t xml:space="preserve">`assign` event occurs after all sources assigned to DET instance.  </t>
   </si>
   <si>
     <t xml:space="preserve">```
@@ -855,7 +1075,7 @@
     <t xml:space="preserve">2.1. "defineProperties" Event</t>
   </si>
   <si>
-    <t xml:space="preserve">`defineProperties` event occurs after all properties defined on DET instance. </t>
+    <t xml:space="preserve">`defineProperties` event occurs after all properties defined on DET instance.  </t>
   </si>
   <si>
     <t xml:space="preserve">```
@@ -1195,17 +1415,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="14"/>
+      <sz val="10"/>
+      <name val="FreeMono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
       <name val="FreeMono"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="FreeMono"/>
-      <family val="3"/>
     </font>
     <font>
       <b val="true"/>
@@ -1216,7 +1435,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1424,7 +1643,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD81B60"/>
-        <bgColor rgb="FFC2185B"/>
+        <bgColor rgb="FFE91E63"/>
       </patternFill>
     </fill>
     <fill>
@@ -1436,7 +1655,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEC407A"/>
-        <bgColor rgb="FFD81B60"/>
+        <bgColor rgb="FFE91E63"/>
       </patternFill>
     </fill>
     <fill>
@@ -1449,6 +1668,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF8BBD0"/>
         <bgColor rgb="FFE1BEE7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE91E63"/>
+        <bgColor rgb="FFD81B60"/>
       </patternFill>
     </fill>
     <fill>
@@ -1660,7 +1885,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="113">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1937,11 +2162,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="28" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="27" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="28" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="30" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1949,15 +2174,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="38" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="31" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="31" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="38" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1965,36 +2182,64 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="39" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="39" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="37" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="27" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="35" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="37" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="40" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="40" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="35" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="35" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="39" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="39" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="35" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="27" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="35" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="39" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="39" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="39" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="18" fillId="24" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2013,15 +2258,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="40" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="40" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="41" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="41" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2029,27 +2266,35 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="42" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="42" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="42" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="43" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="43" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="44" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="43" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="44" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="44" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="45" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="45" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="46" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="45" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="46" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2117,7 +2362,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFD81B60"/>
+      <rgbColor rgb="FFE91E63"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF512DA8"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -2140,8 +2385,8 @@
       <rgbColor rgb="FF1D639D"/>
       <rgbColor rgb="FFE1BEE7"/>
       <rgbColor rgb="FF28222A"/>
+      <rgbColor rgb="FFD81B60"/>
       <rgbColor rgb="FFEC407A"/>
-      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF7B1FA2"/>
       <rgbColor rgb="FF5D4037"/>
@@ -2290,7 +2535,7 @@
   </sheetPr>
   <dimension ref="A1:Z238"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
@@ -14593,22 +14838,22 @@
     <tabColor rgb="FFD500F9"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F198"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A54" activeCellId="0" sqref="A54"/>
-      <selection pane="bottomRight" activeCell="D60" activeCellId="0" sqref="D60"/>
+      <selection pane="bottomLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
+      <selection pane="bottomRight" activeCell="D57" activeCellId="0" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="2.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="103.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="116.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="9.21"/>
   </cols>
@@ -14672,7 +14917,7 @@
       <c r="E5" s="37"/>
       <c r="F5" s="38"/>
     </row>
-    <row r="6" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="94.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="45"/>
@@ -14696,7 +14941,7 @@
       </c>
       <c r="F7" s="38"/>
     </row>
-    <row r="8" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="45"/>
@@ -14728,7 +14973,7 @@
       <c r="E10" s="37"/>
       <c r="F10" s="38"/>
     </row>
-    <row r="11" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="11" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="45"/>
@@ -14792,7 +15037,7 @@
       <c r="E16" s="37"/>
       <c r="F16" s="38"/>
     </row>
-    <row r="17" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="17" customFormat="false" ht="53.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="45"/>
@@ -14803,92 +15048,102 @@
       <c r="F17" s="38"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="56"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>154</v>
+      </c>
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="56"/>
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="56"/>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="42" t="n">
+        <f aca="false">VINE_Documents!$A$15</f>
+        <v>11</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>154</v>
+    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>155</v>
       </c>
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="57"/>
-      <c r="D22" s="56"/>
+      <c r="D22" s="46" t="s">
+        <v>156</v>
+      </c>
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="42" t="n">
-        <f aca="false">VINE_Documents!$A$15</f>
-        <v>11</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
+    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="61" t="s">
+        <v>157</v>
+      </c>
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="59" t="s">
-        <v>155</v>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="46" t="s">
+        <v>158</v>
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="46" t="s">
-        <v>156</v>
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>159</v>
       </c>
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="61" t="s">
-        <v>157</v>
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="67" t="s">
+        <v>161</v>
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
@@ -14896,33 +15151,35 @@
     <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
-      <c r="C27" s="57"/>
+      <c r="C27" s="57" t="s">
+        <v>162</v>
+      </c>
       <c r="D27" s="46" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A28" s="62"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="D28" s="64" t="s">
-        <v>159</v>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>164</v>
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D29" s="67" t="s">
-        <v>161</v>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>165</v>
       </c>
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
@@ -14930,11 +15187,9 @@
     <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A30" s="44"/>
       <c r="B30" s="44"/>
-      <c r="C30" s="57" t="s">
-        <v>162</v>
-      </c>
+      <c r="C30" s="57"/>
       <c r="D30" s="46" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
@@ -14942,11 +15197,9 @@
     <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A31" s="44"/>
       <c r="B31" s="44"/>
-      <c r="C31" s="57" t="s">
-        <v>162</v>
-      </c>
+      <c r="C31" s="57"/>
       <c r="D31" s="46" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
@@ -14954,240 +15207,238 @@
     <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A32" s="44"/>
       <c r="B32" s="44"/>
-      <c r="C32" s="57" t="s">
-        <v>162</v>
-      </c>
+      <c r="C32" s="57"/>
       <c r="D32" s="46" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="46" t="s">
-        <v>166</v>
-      </c>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="42" t="n">
+        <f aca="false">VINE_Documents!$A$17</f>
+        <v>13</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="46" t="s">
-        <v>167</v>
+    <row r="34" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="68"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="59" t="s">
+        <v>169</v>
       </c>
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
+    <row r="35" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="68"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="57"/>
-      <c r="D35" s="46" t="s">
-        <v>168</v>
+      <c r="D35" s="69" t="s">
+        <v>170</v>
       </c>
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="42" t="n">
-        <f aca="false">VINE_Documents!$A$17</f>
-        <v>13</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
+    <row r="36" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="68"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="70" t="s">
+        <v>171</v>
+      </c>
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="68"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" s="70" t="s">
-        <v>169</v>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="69" t="s">
+        <v>172</v>
       </c>
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="58"/>
       <c r="B38" s="58"/>
       <c r="C38" s="57"/>
-      <c r="D38" s="46" t="s">
-        <v>170</v>
+      <c r="D38" s="69" t="s">
+        <v>173</v>
       </c>
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="145.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="58"/>
       <c r="B39" s="58"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="46" t="s">
-        <v>171</v>
+      <c r="C39" s="71"/>
+      <c r="D39" s="72" t="s">
+        <v>174</v>
       </c>
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="58"/>
       <c r="B40" s="58"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="72" t="s">
-        <v>172</v>
+      <c r="C40" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="70" t="s">
+        <v>175</v>
       </c>
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="58"/>
       <c r="B41" s="58"/>
-      <c r="C41" s="73" t="s">
-        <v>143</v>
-      </c>
+      <c r="C41" s="73"/>
       <c r="D41" s="74" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="58"/>
       <c r="B42" s="58"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="76" t="s">
-        <v>174</v>
+      <c r="C42" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" s="70" t="s">
+        <v>177</v>
       </c>
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="58"/>
       <c r="B43" s="58"/>
-      <c r="C43" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="D43" s="74" t="s">
-        <v>175</v>
+      <c r="C43" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="61" t="s">
+        <v>178</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="135.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="58"/>
       <c r="B44" s="58"/>
-      <c r="C44" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="D44" s="78" t="s">
-        <v>176</v>
+      <c r="C44" s="73"/>
+      <c r="D44" s="74" t="s">
+        <v>179</v>
       </c>
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="58"/>
       <c r="B45" s="58"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="76" t="s">
-        <v>177</v>
+      <c r="C45" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="70" t="s">
+        <v>180</v>
       </c>
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="58"/>
       <c r="B46" s="58"/>
-      <c r="C46" s="79" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="80" t="s">
-        <v>178</v>
+      <c r="C46" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="61" t="s">
+        <v>181</v>
       </c>
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="58"/>
       <c r="B47" s="58"/>
-      <c r="C47" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="D47" s="78" t="s">
-        <v>179</v>
+      <c r="C47" s="73"/>
+      <c r="D47" s="74" t="s">
+        <v>182</v>
       </c>
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="58"/>
       <c r="B48" s="58"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="76" t="s">
-        <v>180</v>
+      <c r="C48" s="57"/>
+      <c r="D48" s="75" t="s">
+        <v>183</v>
       </c>
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="135.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="58"/>
       <c r="B49" s="58"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="46" t="s">
-        <v>181</v>
+      <c r="C49" s="73"/>
+      <c r="D49" s="74" t="s">
+        <v>184</v>
       </c>
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="58"/>
       <c r="B50" s="58"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="76" t="s">
-        <v>182</v>
+      <c r="C50" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="61" t="s">
+        <v>185</v>
       </c>
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="53.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="58"/>
       <c r="B51" s="58"/>
-      <c r="C51" s="79" t="s">
-        <v>143</v>
-      </c>
-      <c r="D51" s="80" t="s">
-        <v>183</v>
+      <c r="C51" s="73"/>
+      <c r="D51" s="74" t="s">
+        <v>186</v>
       </c>
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="58"/>
       <c r="B52" s="58"/>
-      <c r="C52" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="D52" s="78" t="s">
-        <v>184</v>
+      <c r="C52" s="57"/>
+      <c r="D52" s="75" t="s">
+        <v>187</v>
       </c>
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="135.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="58"/>
       <c r="B53" s="58"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="76" t="s">
-        <v>185</v>
+      <c r="C53" s="73"/>
+      <c r="D53" s="74" t="s">
+        <v>188</v>
       </c>
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
@@ -15195,404 +15446,416 @@
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="58"/>
       <c r="B54" s="58"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="46" t="s">
-        <v>186</v>
+      <c r="C54" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" s="70" t="s">
+        <v>189</v>
       </c>
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="58"/>
       <c r="B55" s="58"/>
-      <c r="C55" s="75"/>
-      <c r="D55" s="76" t="s">
-        <v>187</v>
-      </c>
+      <c r="C55" s="73"/>
+      <c r="D55" s="74"/>
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="58"/>
       <c r="B56" s="58"/>
-      <c r="C56" s="79" t="s">
-        <v>143</v>
-      </c>
-      <c r="D56" s="80" t="s">
-        <v>188</v>
-      </c>
+      <c r="C56" s="73"/>
+      <c r="D56" s="74"/>
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="58"/>
       <c r="B57" s="58"/>
-      <c r="C57" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="D57" s="78" t="s">
-        <v>189</v>
+      <c r="C57" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" s="70" t="s">
+        <v>190</v>
       </c>
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" customFormat="false" ht="191" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="58"/>
       <c r="B58" s="58"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="76" t="s">
-        <v>190</v>
+      <c r="C58" s="57"/>
+      <c r="D58" s="69" t="s">
+        <v>191</v>
       </c>
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="124.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="58"/>
       <c r="B59" s="58"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="46" t="s">
-        <v>191</v>
+      <c r="C59" s="73"/>
+      <c r="D59" s="74" t="s">
+        <v>192</v>
       </c>
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="58"/>
       <c r="B60" s="58"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="76" t="s">
-        <v>192</v>
+      <c r="C60" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" s="61" t="s">
+        <v>193</v>
       </c>
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="58"/>
       <c r="B61" s="58"/>
-      <c r="C61" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="D61" s="78" t="s">
-        <v>193</v>
+      <c r="C61" s="73"/>
+      <c r="D61" s="74" t="s">
+        <v>194</v>
       </c>
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="58"/>
       <c r="B62" s="58"/>
-      <c r="C62" s="81"/>
-      <c r="D62" s="76" t="s">
-        <v>194</v>
+      <c r="C62" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" s="64" t="s">
+        <v>195</v>
       </c>
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="53.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="58"/>
       <c r="B63" s="58"/>
-      <c r="C63" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="D63" s="78" t="s">
-        <v>195</v>
+      <c r="C63" s="73"/>
+      <c r="D63" s="74" t="s">
+        <v>196</v>
       </c>
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" customFormat="false" ht="214.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="58"/>
       <c r="B64" s="58"/>
-      <c r="C64" s="81"/>
-      <c r="D64" s="76" t="s">
-        <v>196</v>
+      <c r="C64" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" s="78" t="s">
+        <v>197</v>
       </c>
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="124.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="58"/>
       <c r="B65" s="58"/>
-      <c r="C65" s="73" t="s">
-        <v>143</v>
-      </c>
+      <c r="C65" s="73"/>
       <c r="D65" s="74" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="58"/>
       <c r="B66" s="58"/>
-      <c r="C66" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="D66" s="83" t="s">
-        <v>198</v>
+      <c r="C66" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D66" s="64" t="s">
+        <v>199</v>
       </c>
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="67" customFormat="false" ht="73.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="58"/>
       <c r="B67" s="58"/>
-      <c r="C67" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D67" s="67" t="s">
-        <v>199</v>
+      <c r="C67" s="73"/>
+      <c r="D67" s="74" t="s">
+        <v>200</v>
       </c>
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="58"/>
       <c r="B68" s="58"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="46" t="s">
-        <v>200</v>
+      <c r="C68" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" s="78" t="s">
+        <v>201</v>
       </c>
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" customFormat="false" ht="69.35" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="58"/>
       <c r="B69" s="58"/>
-      <c r="C69" s="75"/>
-      <c r="D69" s="76" t="s">
-        <v>201</v>
+      <c r="C69" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="D69" s="78" t="s">
+        <v>203</v>
       </c>
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="70" customFormat="false" ht="124.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="58"/>
       <c r="B70" s="58"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="46" t="s">
-        <v>202</v>
+      <c r="C70" s="73"/>
+      <c r="D70" s="74" t="s">
+        <v>204</v>
       </c>
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="58"/>
       <c r="B71" s="58"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="46"/>
+      <c r="C71" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="D71" s="78" t="s">
+        <v>205</v>
+      </c>
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="72" s="1" customFormat="true" ht="145.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="58"/>
       <c r="B72" s="58"/>
-      <c r="C72" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D72" s="67" t="s">
-        <v>203</v>
+      <c r="C72" s="73"/>
+      <c r="D72" s="74" t="s">
+        <v>206</v>
       </c>
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="73" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="58"/>
       <c r="B73" s="58"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="46" t="s">
-        <v>204</v>
+      <c r="C73" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73" s="61" t="s">
+        <v>207</v>
       </c>
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="74" s="1" customFormat="true" ht="32.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="58"/>
       <c r="B74" s="58"/>
-      <c r="C74" s="75"/>
-      <c r="D74" s="76" t="s">
-        <v>205</v>
+      <c r="C74" s="79"/>
+      <c r="D74" s="74" t="s">
+        <v>208</v>
       </c>
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="75" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="58"/>
       <c r="B75" s="58"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="46" t="s">
-        <v>206</v>
+      <c r="C75" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" s="64" t="s">
+        <v>209</v>
       </c>
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="76" s="1" customFormat="true" ht="53.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="58"/>
       <c r="B76" s="58"/>
-      <c r="C76" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D76" s="67" t="s">
-        <v>207</v>
+      <c r="C76" s="80"/>
+      <c r="D76" s="74" t="s">
+        <v>210</v>
       </c>
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="77" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="58"/>
       <c r="B77" s="58"/>
-      <c r="C77" s="57"/>
-      <c r="D77" s="46" t="s">
-        <v>208</v>
+      <c r="C77" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" s="78" t="s">
+        <v>197</v>
       </c>
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="78" s="1" customFormat="true" ht="124.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="58"/>
       <c r="B78" s="58"/>
-      <c r="C78" s="75"/>
-      <c r="D78" s="76" t="s">
-        <v>209</v>
+      <c r="C78" s="73"/>
+      <c r="D78" s="74" t="s">
+        <v>211</v>
       </c>
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="79" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="58"/>
       <c r="B79" s="58"/>
-      <c r="C79" s="57"/>
-      <c r="D79" s="46" t="s">
-        <v>210</v>
+      <c r="C79" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D79" s="64" t="s">
+        <v>212</v>
       </c>
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="80" s="1" customFormat="true" ht="53.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="58"/>
       <c r="B80" s="58"/>
-      <c r="C80" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="D80" s="83" t="s">
-        <v>211</v>
+      <c r="C80" s="80"/>
+      <c r="D80" s="74" t="s">
+        <v>213</v>
       </c>
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="81" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="58"/>
       <c r="B81" s="58"/>
-      <c r="C81" s="57"/>
-      <c r="D81" s="46" t="s">
-        <v>212</v>
+      <c r="C81" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D81" s="78" t="s">
+        <v>197</v>
       </c>
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="82" s="1" customFormat="true" ht="124.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="58"/>
       <c r="B82" s="58"/>
-      <c r="C82" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D82" s="67" t="s">
-        <v>213</v>
+      <c r="C82" s="73"/>
+      <c r="D82" s="74" t="s">
+        <v>214</v>
       </c>
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="58"/>
       <c r="B83" s="58"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="46" t="s">
-        <v>214</v>
+      <c r="C83" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D83" s="61" t="s">
+        <v>215</v>
       </c>
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="58"/>
       <c r="B84" s="58"/>
-      <c r="C84" s="75"/>
-      <c r="D84" s="76" t="s">
-        <v>215</v>
+      <c r="C84" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D84" s="64" t="s">
+        <v>216</v>
       </c>
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="85" customFormat="false" ht="42.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="58"/>
       <c r="B85" s="58"/>
-      <c r="C85" s="57"/>
-      <c r="D85" s="46" t="s">
-        <v>216</v>
+      <c r="C85" s="80"/>
+      <c r="D85" s="74" t="s">
+        <v>217</v>
       </c>
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="58"/>
       <c r="B86" s="58"/>
-      <c r="C86" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="D86" s="83" t="s">
-        <v>217</v>
+      <c r="C86" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D86" s="78" t="s">
+        <v>218</v>
       </c>
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="58"/>
       <c r="B87" s="58"/>
-      <c r="C87" s="66" t="s">
+      <c r="C87" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="D87" s="67" t="s">
-        <v>218</v>
+      <c r="D87" s="64" t="s">
+        <v>219</v>
       </c>
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="88" customFormat="false" ht="63.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="58"/>
       <c r="B88" s="58"/>
-      <c r="C88" s="57"/>
-      <c r="D88" s="46" t="s">
-        <v>219</v>
+      <c r="C88" s="80"/>
+      <c r="D88" s="74" t="s">
+        <v>220</v>
       </c>
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" customFormat="false" ht="69.35" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="58"/>
       <c r="B89" s="58"/>
-      <c r="C89" s="75"/>
-      <c r="D89" s="76" t="s">
-        <v>220</v>
+      <c r="C89" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D89" s="78" t="s">
+        <v>218</v>
       </c>
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="58"/>
       <c r="B90" s="58"/>
-      <c r="C90" s="57"/>
-      <c r="D90" s="46" t="s">
+      <c r="C90" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D90" s="70" t="s">
         <v>221</v>
       </c>
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="58"/>
       <c r="B91" s="58"/>
-      <c r="C91" s="82" t="s">
+      <c r="C91" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="D91" s="83" t="s">
+      <c r="D91" s="61" t="s">
         <v>222</v>
       </c>
       <c r="E91" s="37"/>
@@ -15601,657 +15864,1149 @@
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A92" s="58"/>
       <c r="B92" s="58"/>
-      <c r="C92" s="66" t="s">
+      <c r="C92" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="D92" s="67" t="s">
+      <c r="D92" s="64" t="s">
         <v>223</v>
       </c>
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="93" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A93" s="58"/>
       <c r="B93" s="58"/>
-      <c r="C93" s="57"/>
-      <c r="D93" s="46" t="s">
+      <c r="C93" s="81"/>
+      <c r="D93" s="69" t="s">
         <v>224</v>
       </c>
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="94" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A94" s="58"/>
       <c r="B94" s="58"/>
-      <c r="C94" s="75"/>
-      <c r="D94" s="76" t="s">
+      <c r="C94" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D94" s="78" t="s">
         <v>225</v>
       </c>
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="95" customFormat="false" ht="73.65" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A95" s="58"/>
       <c r="B95" s="58"/>
-      <c r="C95" s="57"/>
-      <c r="D95" s="46" t="s">
+      <c r="C95" s="82"/>
+      <c r="D95" s="74" t="s">
         <v>226</v>
       </c>
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="96" customFormat="false" ht="53.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A96" s="58"/>
       <c r="B96" s="58"/>
-      <c r="C96" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="D96" s="83" t="s">
+      <c r="C96" s="81"/>
+      <c r="D96" s="69" t="s">
         <v>227</v>
       </c>
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A97" s="58"/>
       <c r="B97" s="58"/>
-      <c r="C97" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D97" s="67" t="s">
+      <c r="C97" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D97" s="78" t="s">
         <v>228</v>
       </c>
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="98" customFormat="false" ht="63.4" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A98" s="58"/>
       <c r="B98" s="58"/>
-      <c r="C98" s="57"/>
-      <c r="D98" s="46" t="s">
+      <c r="C98" s="82"/>
+      <c r="D98" s="74" t="s">
         <v>229</v>
       </c>
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A99" s="58"/>
       <c r="B99" s="58"/>
-      <c r="C99" s="75"/>
-      <c r="D99" s="76" t="s">
+      <c r="C99" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="D99" s="67" t="s">
         <v>230</v>
       </c>
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="100" customFormat="false" ht="124.95" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A100" s="58"/>
       <c r="B100" s="58"/>
-      <c r="C100" s="57"/>
-      <c r="D100" s="46" t="s">
+      <c r="C100" s="82"/>
+      <c r="D100" s="74" t="s">
         <v>231</v>
       </c>
       <c r="E100" s="37"/>
       <c r="F100" s="38"/>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A101" s="58"/>
       <c r="B101" s="58"/>
-      <c r="C101" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="D101" s="83" t="s">
+      <c r="C101" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D101" s="78" t="s">
         <v>232</v>
       </c>
       <c r="E101" s="37"/>
       <c r="F101" s="38"/>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="102" customFormat="false" ht="73.65" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A102" s="58"/>
       <c r="B102" s="58"/>
-      <c r="C102" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D102" s="67" t="s">
+      <c r="C102" s="82"/>
+      <c r="D102" s="74" t="s">
         <v>233</v>
       </c>
       <c r="E102" s="37"/>
       <c r="F102" s="38"/>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A103" s="58"/>
       <c r="B103" s="58"/>
-      <c r="C103" s="57"/>
-      <c r="D103" s="46" t="s">
-        <v>234</v>
+      <c r="C103" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="D103" s="67" t="s">
+        <v>203</v>
       </c>
       <c r="E103" s="37"/>
       <c r="F103" s="38"/>
     </row>
-    <row r="104" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="104" customFormat="false" ht="124.95" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A104" s="58"/>
       <c r="B104" s="58"/>
-      <c r="C104" s="75"/>
-      <c r="D104" s="76" t="s">
-        <v>235</v>
+      <c r="C104" s="82"/>
+      <c r="D104" s="74" t="s">
+        <v>234</v>
       </c>
       <c r="E104" s="37"/>
       <c r="F104" s="38"/>
     </row>
-    <row r="105" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="105" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A105" s="58"/>
       <c r="B105" s="58"/>
-      <c r="C105" s="57"/>
-      <c r="D105" s="46" t="s">
-        <v>236</v>
+      <c r="C105" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="D105" s="67" t="s">
+        <v>205</v>
       </c>
       <c r="E105" s="37"/>
       <c r="F105" s="38"/>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="84" t="n">
+    <row r="106" customFormat="false" ht="166" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A106" s="58"/>
+      <c r="B106" s="58"/>
+      <c r="C106" s="82"/>
+      <c r="D106" s="74" t="s">
+        <v>235</v>
+      </c>
+      <c r="E106" s="37"/>
+      <c r="F106" s="38"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="true">
+      <c r="A107" s="58"/>
+      <c r="B107" s="58"/>
+      <c r="C107" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D107" s="78" t="s">
+        <v>236</v>
+      </c>
+      <c r="E107" s="37"/>
+      <c r="F107" s="38"/>
+    </row>
+    <row r="108" customFormat="false" ht="53.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A108" s="58"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="82"/>
+      <c r="D108" s="74" t="s">
+        <v>237</v>
+      </c>
+      <c r="E108" s="37"/>
+      <c r="F108" s="38"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A109" s="58"/>
+      <c r="B109" s="58"/>
+      <c r="C109" s="82"/>
+      <c r="D109" s="74"/>
+      <c r="E109" s="37"/>
+      <c r="F109" s="38"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A110" s="58"/>
+      <c r="B110" s="58"/>
+      <c r="C110" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D110" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="E110" s="37"/>
+      <c r="F110" s="38"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A111" s="58"/>
+      <c r="B111" s="58"/>
+      <c r="C111" s="81"/>
+      <c r="D111" s="69" t="s">
+        <v>239</v>
+      </c>
+      <c r="E111" s="37"/>
+      <c r="F111" s="38"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A112" s="58"/>
+      <c r="B112" s="58"/>
+      <c r="C112" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D112" s="78" t="s">
+        <v>225</v>
+      </c>
+      <c r="E112" s="37"/>
+      <c r="F112" s="38"/>
+    </row>
+    <row r="113" s="88" customFormat="true" ht="53.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A113" s="83"/>
+      <c r="B113" s="83"/>
+      <c r="C113" s="84"/>
+      <c r="D113" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="E113" s="86"/>
+      <c r="F113" s="87"/>
+    </row>
+    <row r="114" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A114" s="58"/>
+      <c r="B114" s="58"/>
+      <c r="C114" s="81"/>
+      <c r="D114" s="69" t="s">
+        <v>241</v>
+      </c>
+      <c r="E114" s="37"/>
+      <c r="F114" s="38"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A115" s="58"/>
+      <c r="B115" s="58"/>
+      <c r="C115" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D115" s="64" t="s">
+        <v>242</v>
+      </c>
+      <c r="E115" s="37"/>
+      <c r="F115" s="38"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A116" s="58"/>
+      <c r="B116" s="58"/>
+      <c r="C116" s="81"/>
+      <c r="D116" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="E116" s="37"/>
+      <c r="F116" s="38"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A117" s="58"/>
+      <c r="B117" s="58"/>
+      <c r="C117" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D117" s="78" t="s">
+        <v>225</v>
+      </c>
+      <c r="E117" s="37"/>
+      <c r="F117" s="38"/>
+    </row>
+    <row r="118" customFormat="false" ht="53.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A118" s="58"/>
+      <c r="B118" s="58"/>
+      <c r="C118" s="82"/>
+      <c r="D118" s="74" t="s">
+        <v>244</v>
+      </c>
+      <c r="E118" s="37"/>
+      <c r="F118" s="38"/>
+    </row>
+    <row r="119" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A119" s="58"/>
+      <c r="B119" s="58"/>
+      <c r="C119" s="81"/>
+      <c r="D119" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="E119" s="37"/>
+      <c r="F119" s="38"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A120" s="58"/>
+      <c r="B120" s="58"/>
+      <c r="C120" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D120" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="E120" s="37"/>
+      <c r="F120" s="38"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A121" s="58"/>
+      <c r="B121" s="58"/>
+      <c r="C121" s="81"/>
+      <c r="D121" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="E121" s="37"/>
+      <c r="F121" s="38"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A122" s="58"/>
+      <c r="B122" s="58"/>
+      <c r="C122" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D122" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="E122" s="37"/>
+      <c r="F122" s="38"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A123" s="58"/>
+      <c r="B123" s="58"/>
+      <c r="C123" s="81"/>
+      <c r="D123" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="E123" s="37"/>
+      <c r="F123" s="38"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A124" s="58"/>
+      <c r="B124" s="58"/>
+      <c r="C124" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D124" s="78" t="s">
+        <v>225</v>
+      </c>
+      <c r="E124" s="37"/>
+      <c r="F124" s="38"/>
+    </row>
+    <row r="125" customFormat="false" ht="53.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A125" s="58"/>
+      <c r="B125" s="58"/>
+      <c r="C125" s="82"/>
+      <c r="D125" s="74" t="s">
+        <v>250</v>
+      </c>
+      <c r="E125" s="37"/>
+      <c r="F125" s="38"/>
+    </row>
+    <row r="126" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A126" s="58"/>
+      <c r="B126" s="58"/>
+      <c r="C126" s="81"/>
+      <c r="D126" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="E126" s="37"/>
+      <c r="F126" s="38"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A127" s="58"/>
+      <c r="B127" s="58"/>
+      <c r="C127" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D127" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="E127" s="37"/>
+      <c r="F127" s="38"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A128" s="58"/>
+      <c r="B128" s="58"/>
+      <c r="C128" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D128" s="64" t="s">
+        <v>253</v>
+      </c>
+      <c r="E128" s="37"/>
+      <c r="F128" s="38"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A129" s="58"/>
+      <c r="B129" s="58"/>
+      <c r="C129" s="81"/>
+      <c r="D129" s="69" t="s">
+        <v>254</v>
+      </c>
+      <c r="E129" s="37"/>
+      <c r="F129" s="38"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A130" s="58"/>
+      <c r="B130" s="58"/>
+      <c r="C130" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D130" s="78" t="s">
+        <v>225</v>
+      </c>
+      <c r="E130" s="37"/>
+      <c r="F130" s="38"/>
+    </row>
+    <row r="131" customFormat="false" ht="73.65" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A131" s="58"/>
+      <c r="B131" s="58"/>
+      <c r="C131" s="82"/>
+      <c r="D131" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="E131" s="37"/>
+      <c r="F131" s="38"/>
+    </row>
+    <row r="132" customFormat="false" ht="42.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A132" s="58"/>
+      <c r="B132" s="58"/>
+      <c r="C132" s="81"/>
+      <c r="D132" s="69" t="s">
+        <v>256</v>
+      </c>
+      <c r="E132" s="37"/>
+      <c r="F132" s="38"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A133" s="58"/>
+      <c r="B133" s="58"/>
+      <c r="C133" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D133" s="61" t="s">
+        <v>257</v>
+      </c>
+      <c r="E133" s="37"/>
+      <c r="F133" s="38"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A134" s="58"/>
+      <c r="B134" s="58"/>
+      <c r="C134" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D134" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="E134" s="37"/>
+      <c r="F134" s="38"/>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A135" s="58"/>
+      <c r="B135" s="58"/>
+      <c r="C135" s="81"/>
+      <c r="D135" s="69" t="s">
+        <v>259</v>
+      </c>
+      <c r="E135" s="37"/>
+      <c r="F135" s="38"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A136" s="58"/>
+      <c r="B136" s="58"/>
+      <c r="C136" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D136" s="78" t="s">
+        <v>225</v>
+      </c>
+      <c r="E136" s="37"/>
+      <c r="F136" s="38"/>
+    </row>
+    <row r="137" customFormat="false" ht="53.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A137" s="58"/>
+      <c r="B137" s="58"/>
+      <c r="C137" s="82"/>
+      <c r="D137" s="74" t="s">
+        <v>260</v>
+      </c>
+      <c r="E137" s="37"/>
+      <c r="F137" s="38"/>
+    </row>
+    <row r="138" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A138" s="58"/>
+      <c r="B138" s="58"/>
+      <c r="C138" s="81"/>
+      <c r="D138" s="69" t="s">
+        <v>261</v>
+      </c>
+      <c r="E138" s="37"/>
+      <c r="F138" s="38"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A139" s="58"/>
+      <c r="B139" s="58"/>
+      <c r="C139" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D139" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="E139" s="37"/>
+      <c r="F139" s="38"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A140" s="58"/>
+      <c r="B140" s="58"/>
+      <c r="C140" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D140" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="E140" s="37"/>
+      <c r="F140" s="38"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A141" s="58"/>
+      <c r="B141" s="58"/>
+      <c r="C141" s="81"/>
+      <c r="D141" s="69" t="s">
+        <v>264</v>
+      </c>
+      <c r="E141" s="37"/>
+      <c r="F141" s="38"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A142" s="58"/>
+      <c r="B142" s="58"/>
+      <c r="C142" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D142" s="78" t="s">
+        <v>225</v>
+      </c>
+      <c r="E142" s="37"/>
+      <c r="F142" s="38"/>
+    </row>
+    <row r="143" customFormat="false" ht="53.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A143" s="58"/>
+      <c r="B143" s="58"/>
+      <c r="C143" s="82"/>
+      <c r="D143" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="E143" s="37"/>
+      <c r="F143" s="38"/>
+    </row>
+    <row r="144" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A144" s="58"/>
+      <c r="B144" s="58"/>
+      <c r="C144" s="81"/>
+      <c r="D144" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="E144" s="37"/>
+      <c r="F144" s="38"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A145" s="58"/>
+      <c r="B145" s="58"/>
+      <c r="C145" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D145" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="E145" s="37"/>
+      <c r="F145" s="38"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A146" s="58"/>
+      <c r="B146" s="58"/>
+      <c r="C146" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D146" s="64" t="s">
+        <v>268</v>
+      </c>
+      <c r="E146" s="37"/>
+      <c r="F146" s="38"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A147" s="58"/>
+      <c r="B147" s="58"/>
+      <c r="C147" s="81"/>
+      <c r="D147" s="69" t="s">
+        <v>269</v>
+      </c>
+      <c r="E147" s="37"/>
+      <c r="F147" s="38"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A148" s="58"/>
+      <c r="B148" s="58"/>
+      <c r="C148" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D148" s="78" t="s">
+        <v>225</v>
+      </c>
+      <c r="E148" s="37"/>
+      <c r="F148" s="38"/>
+    </row>
+    <row r="149" customFormat="false" ht="53.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A149" s="58"/>
+      <c r="B149" s="58"/>
+      <c r="C149" s="82"/>
+      <c r="D149" s="74" t="s">
+        <v>270</v>
+      </c>
+      <c r="E149" s="37"/>
+      <c r="F149" s="38"/>
+    </row>
+    <row r="150" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A150" s="58"/>
+      <c r="B150" s="58"/>
+      <c r="C150" s="81"/>
+      <c r="D150" s="69" t="s">
+        <v>271</v>
+      </c>
+      <c r="E150" s="37"/>
+      <c r="F150" s="38"/>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="89" t="n">
         <f aca="false">VINE_Documents!$A$19</f>
         <v>15</v>
       </c>
-      <c r="B106" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="C106" s="43"/>
-      <c r="D106" s="85"/>
-      <c r="E106" s="37"/>
-      <c r="F106" s="38"/>
-    </row>
-    <row r="107" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A107" s="47"/>
-      <c r="B107" s="47"/>
-      <c r="C107" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="D107" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="E107" s="37"/>
-      <c r="F107" s="38"/>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A108" s="60"/>
-      <c r="B108" s="60"/>
-      <c r="C108" s="88" t="s">
-        <v>143</v>
-      </c>
-      <c r="D108" s="89"/>
-      <c r="E108" s="37"/>
-      <c r="F108" s="38"/>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A109" s="44"/>
-      <c r="B109" s="44"/>
-      <c r="C109" s="90"/>
-      <c r="D109" s="91" t="s">
-        <v>239</v>
-      </c>
-      <c r="E109" s="37"/>
-      <c r="F109" s="38"/>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A110" s="44"/>
-      <c r="B110" s="44"/>
-      <c r="C110" s="90"/>
-      <c r="D110" s="91" t="s">
-        <v>240</v>
-      </c>
-      <c r="E110" s="37"/>
-      <c r="F110" s="38"/>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A111" s="92"/>
-      <c r="B111" s="92"/>
-      <c r="C111" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="D111" s="94" t="s">
-        <v>241</v>
-      </c>
-      <c r="E111" s="37"/>
-      <c r="F111" s="38"/>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A112" s="95"/>
-      <c r="B112" s="95"/>
-      <c r="C112" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D112" s="97" t="s">
-        <v>242</v>
-      </c>
-      <c r="E112" s="37"/>
-      <c r="F112" s="38"/>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A113" s="44"/>
-      <c r="B113" s="44"/>
-      <c r="C113" s="90"/>
-      <c r="D113" s="91"/>
-      <c r="E113" s="37"/>
-      <c r="F113" s="38"/>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A114" s="95"/>
-      <c r="B114" s="95"/>
-      <c r="C114" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D114" s="97" t="s">
-        <v>243</v>
-      </c>
-      <c r="E114" s="37"/>
-      <c r="F114" s="38"/>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A115" s="44"/>
-      <c r="B115" s="44"/>
-      <c r="C115" s="90"/>
-      <c r="D115" s="91"/>
-      <c r="E115" s="37"/>
-      <c r="F115" s="38"/>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A116" s="92"/>
-      <c r="B116" s="92"/>
-      <c r="C116" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="D116" s="94" t="s">
-        <v>244</v>
-      </c>
-      <c r="E116" s="37"/>
-      <c r="F116" s="38"/>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A117" s="95"/>
-      <c r="B117" s="95"/>
-      <c r="C117" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D117" s="97" t="s">
-        <v>245</v>
-      </c>
-      <c r="E117" s="37"/>
-      <c r="F117" s="38"/>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A118" s="44"/>
-      <c r="B118" s="44"/>
-      <c r="C118" s="90"/>
-      <c r="D118" s="91"/>
-      <c r="E118" s="37"/>
-      <c r="F118" s="38"/>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A119" s="95"/>
-      <c r="B119" s="95"/>
-      <c r="C119" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D119" s="97" t="s">
-        <v>246</v>
-      </c>
-      <c r="E119" s="37"/>
-      <c r="F119" s="38"/>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A120" s="44"/>
-      <c r="B120" s="44"/>
-      <c r="C120" s="90"/>
-      <c r="D120" s="91"/>
-      <c r="E120" s="37"/>
-      <c r="F120" s="38"/>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A121" s="92"/>
-      <c r="B121" s="92"/>
-      <c r="C121" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="D121" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="E121" s="37"/>
-      <c r="F121" s="38"/>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A122" s="95"/>
-      <c r="B122" s="95"/>
-      <c r="C122" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D122" s="97" t="s">
-        <v>248</v>
-      </c>
-      <c r="E122" s="37"/>
-      <c r="F122" s="38"/>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A123" s="44"/>
-      <c r="B123" s="44"/>
-      <c r="C123" s="90"/>
-      <c r="D123" s="91"/>
-      <c r="E123" s="37"/>
-      <c r="F123" s="38"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A124" s="92"/>
-      <c r="B124" s="92"/>
-      <c r="C124" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="D124" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="E124" s="37"/>
-      <c r="F124" s="38"/>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A125" s="95"/>
-      <c r="B125" s="95"/>
-      <c r="C125" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D125" s="97" t="s">
-        <v>250</v>
-      </c>
-      <c r="E125" s="37"/>
-      <c r="F125" s="38"/>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A126" s="95"/>
-      <c r="B126" s="95"/>
-      <c r="C126" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D126" s="97" t="s">
-        <v>251</v>
-      </c>
-      <c r="E126" s="37"/>
-      <c r="F126" s="38"/>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A127" s="44"/>
-      <c r="B127" s="44"/>
-      <c r="C127" s="90"/>
-      <c r="D127" s="91"/>
-      <c r="E127" s="37"/>
-      <c r="F127" s="38"/>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A128" s="92"/>
-      <c r="B128" s="92"/>
-      <c r="C128" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="D128" s="94" t="s">
-        <v>252</v>
-      </c>
-      <c r="E128" s="37"/>
-      <c r="F128" s="38"/>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A129" s="95"/>
-      <c r="B129" s="95"/>
-      <c r="C129" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D129" s="97" t="s">
-        <v>253</v>
-      </c>
-      <c r="E129" s="37"/>
-      <c r="F129" s="38"/>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A130" s="44"/>
-      <c r="B130" s="44"/>
-      <c r="C130" s="90"/>
-      <c r="D130" s="91"/>
-      <c r="E130" s="37"/>
-      <c r="F130" s="38"/>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A131" s="92"/>
-      <c r="B131" s="92"/>
-      <c r="C131" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="D131" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="E131" s="37"/>
-      <c r="F131" s="38"/>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A132" s="95"/>
-      <c r="B132" s="95"/>
-      <c r="C132" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D132" s="97" t="s">
-        <v>255</v>
-      </c>
-      <c r="E132" s="37"/>
-      <c r="F132" s="38"/>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A133" s="44"/>
-      <c r="B133" s="44"/>
-      <c r="C133" s="90"/>
-      <c r="D133" s="91"/>
-      <c r="E133" s="37"/>
-      <c r="F133" s="38"/>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A134" s="92"/>
-      <c r="B134" s="92"/>
-      <c r="C134" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="D134" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="E134" s="37"/>
-      <c r="F134" s="38"/>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A135" s="95"/>
-      <c r="B135" s="95"/>
-      <c r="C135" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D135" s="97" t="s">
-        <v>257</v>
-      </c>
-      <c r="E135" s="37"/>
-      <c r="F135" s="38"/>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A136" s="44"/>
-      <c r="B136" s="44"/>
-      <c r="C136" s="90"/>
-      <c r="D136" s="91"/>
-      <c r="E136" s="37"/>
-      <c r="F136" s="38"/>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A137" s="92"/>
-      <c r="B137" s="92"/>
-      <c r="C137" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="D137" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="E137" s="37"/>
-      <c r="F137" s="38"/>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A138" s="95"/>
-      <c r="B138" s="95"/>
-      <c r="C138" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D138" s="97" t="s">
-        <v>259</v>
-      </c>
-      <c r="E138" s="37"/>
-      <c r="F138" s="38"/>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A139" s="44"/>
-      <c r="B139" s="44"/>
-      <c r="C139" s="90"/>
-      <c r="D139" s="91"/>
-      <c r="E139" s="37"/>
-      <c r="F139" s="38"/>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A140" s="92"/>
-      <c r="B140" s="92"/>
-      <c r="C140" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="D140" s="94" t="s">
-        <v>260</v>
-      </c>
-      <c r="E140" s="37"/>
-      <c r="F140" s="38"/>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A141" s="95"/>
-      <c r="B141" s="95"/>
-      <c r="C141" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D141" s="97" t="s">
-        <v>261</v>
-      </c>
-      <c r="E141" s="37"/>
-      <c r="F141" s="38"/>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A142" s="44"/>
-      <c r="B142" s="44"/>
-      <c r="C142" s="90"/>
-      <c r="D142" s="91"/>
-      <c r="E142" s="37"/>
-      <c r="F142" s="38"/>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A143" s="95"/>
-      <c r="B143" s="95"/>
-      <c r="C143" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D143" s="97" t="s">
-        <v>262</v>
-      </c>
-      <c r="E143" s="37"/>
-      <c r="F143" s="38"/>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A144" s="44"/>
-      <c r="B144" s="44"/>
-      <c r="C144" s="90"/>
-      <c r="D144" s="91"/>
-      <c r="E144" s="37"/>
-      <c r="F144" s="38"/>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A145" s="95"/>
-      <c r="B145" s="95"/>
-      <c r="C145" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D145" s="97" t="s">
-        <v>263</v>
-      </c>
-      <c r="E145" s="37"/>
-      <c r="F145" s="38"/>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A146" s="44"/>
-      <c r="B146" s="44"/>
-      <c r="C146" s="90"/>
-      <c r="D146" s="91"/>
-      <c r="E146" s="37"/>
-      <c r="F146" s="38"/>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A147" s="92"/>
-      <c r="B147" s="92"/>
-      <c r="C147" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="D147" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="E147" s="37"/>
-      <c r="F147" s="38"/>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A148" s="95"/>
-      <c r="B148" s="95"/>
-      <c r="C148" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D148" s="97" t="s">
-        <v>265</v>
-      </c>
-      <c r="E148" s="37"/>
-      <c r="F148" s="38"/>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A149" s="44"/>
-      <c r="B149" s="44"/>
-      <c r="C149" s="90"/>
-      <c r="D149" s="91"/>
-      <c r="E149" s="37"/>
-      <c r="F149" s="38"/>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A150" s="95"/>
-      <c r="B150" s="95"/>
-      <c r="C150" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D150" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="E150" s="37"/>
-      <c r="F150" s="38"/>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A151" s="44"/>
-      <c r="B151" s="44"/>
-      <c r="C151" s="90"/>
-      <c r="D151" s="91"/>
+      <c r="B151" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="C151" s="43"/>
+      <c r="D151" s="90"/>
       <c r="E151" s="37"/>
       <c r="F151" s="38"/>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="37"/>
-      <c r="B152" s="37"/>
-      <c r="C152" s="37"/>
-      <c r="D152" s="37"/>
+    <row r="152" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A152" s="47"/>
+      <c r="B152" s="47"/>
+      <c r="C152" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="D152" s="92" t="s">
+        <v>273</v>
+      </c>
       <c r="E152" s="37"/>
       <c r="F152" s="38"/>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="38"/>
-      <c r="B153" s="38"/>
-      <c r="C153" s="98"/>
-      <c r="D153" s="99" t="n">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A153" s="60"/>
+      <c r="B153" s="60"/>
+      <c r="C153" s="93" t="s">
+        <v>143</v>
+      </c>
+      <c r="D153" s="94"/>
+      <c r="E153" s="37"/>
+      <c r="F153" s="38"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A154" s="44"/>
+      <c r="B154" s="44"/>
+      <c r="C154" s="95"/>
+      <c r="D154" s="96" t="s">
+        <v>274</v>
+      </c>
+      <c r="E154" s="37"/>
+      <c r="F154" s="38"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A155" s="44"/>
+      <c r="B155" s="44"/>
+      <c r="C155" s="95"/>
+      <c r="D155" s="96" t="s">
+        <v>275</v>
+      </c>
+      <c r="E155" s="37"/>
+      <c r="F155" s="38"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A156" s="97"/>
+      <c r="B156" s="97"/>
+      <c r="C156" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="D156" s="99" t="s">
+        <v>276</v>
+      </c>
+      <c r="E156" s="37"/>
+      <c r="F156" s="38"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A157" s="100"/>
+      <c r="B157" s="100"/>
+      <c r="C157" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="D157" s="102" t="s">
+        <v>277</v>
+      </c>
+      <c r="E157" s="37"/>
+      <c r="F157" s="38"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A158" s="44"/>
+      <c r="B158" s="44"/>
+      <c r="C158" s="95"/>
+      <c r="D158" s="96"/>
+      <c r="E158" s="37"/>
+      <c r="F158" s="38"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A159" s="100"/>
+      <c r="B159" s="100"/>
+      <c r="C159" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="D159" s="102" t="s">
+        <v>278</v>
+      </c>
+      <c r="E159" s="37"/>
+      <c r="F159" s="38"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A160" s="44"/>
+      <c r="B160" s="44"/>
+      <c r="C160" s="95"/>
+      <c r="D160" s="96"/>
+      <c r="E160" s="37"/>
+      <c r="F160" s="38"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A161" s="97"/>
+      <c r="B161" s="97"/>
+      <c r="C161" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="D161" s="99" t="s">
+        <v>279</v>
+      </c>
+      <c r="E161" s="37"/>
+      <c r="F161" s="38"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A162" s="100"/>
+      <c r="B162" s="100"/>
+      <c r="C162" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="D162" s="102" t="s">
+        <v>280</v>
+      </c>
+      <c r="E162" s="37"/>
+      <c r="F162" s="38"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A163" s="44"/>
+      <c r="B163" s="44"/>
+      <c r="C163" s="95"/>
+      <c r="D163" s="96"/>
+      <c r="E163" s="37"/>
+      <c r="F163" s="38"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A164" s="100"/>
+      <c r="B164" s="100"/>
+      <c r="C164" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="D164" s="102" t="s">
+        <v>281</v>
+      </c>
+      <c r="E164" s="37"/>
+      <c r="F164" s="38"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A165" s="44"/>
+      <c r="B165" s="44"/>
+      <c r="C165" s="95"/>
+      <c r="D165" s="96"/>
+      <c r="E165" s="37"/>
+      <c r="F165" s="38"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A166" s="97"/>
+      <c r="B166" s="97"/>
+      <c r="C166" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="D166" s="99" t="s">
+        <v>282</v>
+      </c>
+      <c r="E166" s="37"/>
+      <c r="F166" s="38"/>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A167" s="100"/>
+      <c r="B167" s="100"/>
+      <c r="C167" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="D167" s="102" t="s">
+        <v>283</v>
+      </c>
+      <c r="E167" s="37"/>
+      <c r="F167" s="38"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A168" s="44"/>
+      <c r="B168" s="44"/>
+      <c r="C168" s="95"/>
+      <c r="D168" s="96"/>
+      <c r="E168" s="37"/>
+      <c r="F168" s="38"/>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A169" s="97"/>
+      <c r="B169" s="97"/>
+      <c r="C169" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="D169" s="99" t="s">
+        <v>284</v>
+      </c>
+      <c r="E169" s="37"/>
+      <c r="F169" s="38"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A170" s="100"/>
+      <c r="B170" s="100"/>
+      <c r="C170" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="D170" s="102" t="s">
+        <v>285</v>
+      </c>
+      <c r="E170" s="37"/>
+      <c r="F170" s="38"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A171" s="100"/>
+      <c r="B171" s="100"/>
+      <c r="C171" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="D171" s="102" t="s">
+        <v>286</v>
+      </c>
+      <c r="E171" s="37"/>
+      <c r="F171" s="38"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A172" s="44"/>
+      <c r="B172" s="44"/>
+      <c r="C172" s="95"/>
+      <c r="D172" s="96"/>
+      <c r="E172" s="37"/>
+      <c r="F172" s="38"/>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A173" s="97"/>
+      <c r="B173" s="97"/>
+      <c r="C173" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="D173" s="99" t="s">
+        <v>287</v>
+      </c>
+      <c r="E173" s="37"/>
+      <c r="F173" s="38"/>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A174" s="100"/>
+      <c r="B174" s="100"/>
+      <c r="C174" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="D174" s="102" t="s">
+        <v>288</v>
+      </c>
+      <c r="E174" s="37"/>
+      <c r="F174" s="38"/>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A175" s="44"/>
+      <c r="B175" s="44"/>
+      <c r="C175" s="95"/>
+      <c r="D175" s="96"/>
+      <c r="E175" s="37"/>
+      <c r="F175" s="38"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A176" s="97"/>
+      <c r="B176" s="97"/>
+      <c r="C176" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="D176" s="99" t="s">
+        <v>289</v>
+      </c>
+      <c r="E176" s="37"/>
+      <c r="F176" s="38"/>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A177" s="100"/>
+      <c r="B177" s="100"/>
+      <c r="C177" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="D177" s="102" t="s">
+        <v>290</v>
+      </c>
+      <c r="E177" s="37"/>
+      <c r="F177" s="38"/>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A178" s="44"/>
+      <c r="B178" s="44"/>
+      <c r="C178" s="95"/>
+      <c r="D178" s="96"/>
+      <c r="E178" s="37"/>
+      <c r="F178" s="38"/>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A179" s="97"/>
+      <c r="B179" s="97"/>
+      <c r="C179" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="D179" s="99" t="s">
+        <v>291</v>
+      </c>
+      <c r="E179" s="37"/>
+      <c r="F179" s="38"/>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A180" s="100"/>
+      <c r="B180" s="100"/>
+      <c r="C180" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="D180" s="102" t="s">
+        <v>292</v>
+      </c>
+      <c r="E180" s="37"/>
+      <c r="F180" s="38"/>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A181" s="44"/>
+      <c r="B181" s="44"/>
+      <c r="C181" s="95"/>
+      <c r="D181" s="96"/>
+      <c r="E181" s="37"/>
+      <c r="F181" s="38"/>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A182" s="97"/>
+      <c r="B182" s="97"/>
+      <c r="C182" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="D182" s="99" t="s">
+        <v>293</v>
+      </c>
+      <c r="E182" s="37"/>
+      <c r="F182" s="38"/>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A183" s="100"/>
+      <c r="B183" s="100"/>
+      <c r="C183" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="D183" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="E183" s="37"/>
+      <c r="F183" s="38"/>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A184" s="44"/>
+      <c r="B184" s="44"/>
+      <c r="C184" s="95"/>
+      <c r="D184" s="96"/>
+      <c r="E184" s="37"/>
+      <c r="F184" s="38"/>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A185" s="97"/>
+      <c r="B185" s="97"/>
+      <c r="C185" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="D185" s="99" t="s">
+        <v>295</v>
+      </c>
+      <c r="E185" s="37"/>
+      <c r="F185" s="38"/>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A186" s="100"/>
+      <c r="B186" s="100"/>
+      <c r="C186" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="D186" s="102" t="s">
+        <v>296</v>
+      </c>
+      <c r="E186" s="37"/>
+      <c r="F186" s="38"/>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A187" s="44"/>
+      <c r="B187" s="44"/>
+      <c r="C187" s="95"/>
+      <c r="D187" s="96"/>
+      <c r="E187" s="37"/>
+      <c r="F187" s="38"/>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A188" s="100"/>
+      <c r="B188" s="100"/>
+      <c r="C188" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="D188" s="102" t="s">
+        <v>297</v>
+      </c>
+      <c r="E188" s="37"/>
+      <c r="F188" s="38"/>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A189" s="44"/>
+      <c r="B189" s="44"/>
+      <c r="C189" s="95"/>
+      <c r="D189" s="96"/>
+      <c r="E189" s="37"/>
+      <c r="F189" s="38"/>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A190" s="100"/>
+      <c r="B190" s="100"/>
+      <c r="C190" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="D190" s="102" t="s">
+        <v>298</v>
+      </c>
+      <c r="E190" s="37"/>
+      <c r="F190" s="38"/>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A191" s="44"/>
+      <c r="B191" s="44"/>
+      <c r="C191" s="95"/>
+      <c r="D191" s="96"/>
+      <c r="E191" s="37"/>
+      <c r="F191" s="38"/>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A192" s="97"/>
+      <c r="B192" s="97"/>
+      <c r="C192" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="D192" s="99" t="s">
+        <v>299</v>
+      </c>
+      <c r="E192" s="37"/>
+      <c r="F192" s="38"/>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A193" s="100"/>
+      <c r="B193" s="100"/>
+      <c r="C193" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="D193" s="102" t="s">
+        <v>300</v>
+      </c>
+      <c r="E193" s="37"/>
+      <c r="F193" s="38"/>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A194" s="44"/>
+      <c r="B194" s="44"/>
+      <c r="C194" s="95"/>
+      <c r="D194" s="96"/>
+      <c r="E194" s="37"/>
+      <c r="F194" s="38"/>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A195" s="100"/>
+      <c r="B195" s="100"/>
+      <c r="C195" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="D195" s="102" t="s">
+        <v>301</v>
+      </c>
+      <c r="E195" s="37"/>
+      <c r="F195" s="38"/>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A196" s="44"/>
+      <c r="B196" s="44"/>
+      <c r="C196" s="95"/>
+      <c r="D196" s="96"/>
+      <c r="E196" s="37"/>
+      <c r="F196" s="38"/>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="37"/>
+      <c r="B197" s="37"/>
+      <c r="C197" s="37"/>
+      <c r="D197" s="37"/>
+      <c r="E197" s="37"/>
+      <c r="F197" s="38"/>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="38"/>
+      <c r="B198" s="38"/>
+      <c r="C198" s="103"/>
+      <c r="D198" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="E153" s="38"/>
-      <c r="F153" s="38"/>
+      <c r="E198" s="38"/>
+      <c r="F198" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -16281,7 +17036,7 @@
   </sheetPr>
   <dimension ref="A1:AC40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -16291,18 +17046,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="100" width="4.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="100" width="2.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="101" width="2.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="101" width="3.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="101" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="100" width="2.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="100" width="4.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="100" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="100" width="60.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="100" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="100" width="9.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="19" style="100" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="105" width="4.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="105" width="2.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="106" width="2.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="106" width="3.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="106" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="105" width="2.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="105" width="4.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="105" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="105" width="60.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="105" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="105" width="9.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="19" style="105" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16337,11 +17092,11 @@
       <c r="B2" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="102" t="s">
-        <v>267</v>
-      </c>
-      <c r="D2" s="102" t="s">
-        <v>268</v>
+      <c r="C2" s="107" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" s="107" t="s">
+        <v>303</v>
       </c>
       <c r="E2" s="40" t="s">
         <v>135</v>
@@ -16362,8 +17117,8 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
       <c r="E3" s="41" t="s">
         <v>136</v>
       </c>
@@ -16388,418 +17143,418 @@
         <v>25</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>269</v>
-      </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
+        <v>304</v>
+      </c>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
       <c r="P4" s="37"/>
       <c r="Q4" s="38"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
+      <c r="AB4" s="109"/>
+      <c r="AC4" s="109"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
-      <c r="C5" s="105" t="s">
-        <v>270</v>
-      </c>
-      <c r="D5" s="106" t="s">
-        <v>271</v>
+      <c r="C5" s="110" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="111" t="s">
+        <v>306</v>
       </c>
       <c r="E5" s="48" t="s">
         <v>140</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>272</v>
-      </c>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
+        <v>307</v>
+      </c>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
       <c r="P5" s="37"/>
       <c r="Q5" s="38"/>
-      <c r="AB5" s="104"/>
-      <c r="AC5" s="104"/>
+      <c r="AB5" s="109"/>
+      <c r="AC5" s="109"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="111"/>
       <c r="E6" s="48"/>
       <c r="F6" s="49"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
       <c r="P6" s="37"/>
       <c r="Q6" s="38"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
+      <c r="AB6" s="109"/>
+      <c r="AC6" s="109"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="47"/>
       <c r="B7" s="47"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="106"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="111"/>
       <c r="E7" s="48"/>
       <c r="F7" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
       <c r="P7" s="37"/>
       <c r="Q7" s="38"/>
-      <c r="AB7" s="104"/>
-      <c r="AC7" s="104"/>
+      <c r="AB7" s="109"/>
+      <c r="AC7" s="109"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="106"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="111"/>
       <c r="E8" s="48"/>
       <c r="F8" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
       <c r="P8" s="37"/>
       <c r="Q8" s="38"/>
-      <c r="AB8" s="104"/>
-      <c r="AC8" s="104"/>
+      <c r="AB8" s="109"/>
+      <c r="AC8" s="109"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="47"/>
       <c r="B9" s="47"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="106"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="111"/>
       <c r="E9" s="48"/>
       <c r="F9" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="112"/>
       <c r="P9" s="37"/>
       <c r="Q9" s="38"/>
-      <c r="AB9" s="104"/>
-      <c r="AC9" s="104"/>
+      <c r="AB9" s="109"/>
+      <c r="AC9" s="109"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="106"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="111"/>
       <c r="E10" s="48"/>
       <c r="F10" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="107"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="112"/>
       <c r="P10" s="37"/>
       <c r="Q10" s="38"/>
-      <c r="AB10" s="104"/>
-      <c r="AC10" s="104"/>
+      <c r="AB10" s="109"/>
+      <c r="AC10" s="109"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="47"/>
       <c r="B11" s="47"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="106"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="111"/>
       <c r="E11" s="48"/>
       <c r="F11" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="107"/>
-      <c r="N11" s="107"/>
-      <c r="O11" s="107"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
       <c r="P11" s="37"/>
       <c r="Q11" s="38"/>
-      <c r="AB11" s="104"/>
-      <c r="AC11" s="104"/>
+      <c r="AB11" s="109"/>
+      <c r="AC11" s="109"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="47"/>
       <c r="B12" s="47"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="48"/>
       <c r="F12" s="49"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="107"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
       <c r="P12" s="37"/>
       <c r="Q12" s="38"/>
-      <c r="AB12" s="104"/>
-      <c r="AC12" s="104"/>
+      <c r="AB12" s="109"/>
+      <c r="AC12" s="109"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="47"/>
       <c r="B13" s="47"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="106"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="48"/>
       <c r="F13" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="107"/>
-      <c r="O13" s="107"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
       <c r="P13" s="37"/>
       <c r="Q13" s="38"/>
-      <c r="AB13" s="104"/>
-      <c r="AC13" s="104"/>
+      <c r="AB13" s="109"/>
+      <c r="AC13" s="109"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="106"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="48"/>
       <c r="F14" s="49" t="s">
-        <v>273</v>
-      </c>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="107"/>
+        <v>308</v>
+      </c>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="112"/>
+      <c r="O14" s="112"/>
       <c r="P14" s="37"/>
       <c r="Q14" s="38"/>
-      <c r="AB14" s="104"/>
-      <c r="AC14" s="104"/>
+      <c r="AB14" s="109"/>
+      <c r="AC14" s="109"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="47"/>
       <c r="B15" s="47"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="106"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="48"/>
       <c r="F15" s="49" t="s">
-        <v>274</v>
-      </c>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="107"/>
+        <v>309</v>
+      </c>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="112"/>
+      <c r="O15" s="112"/>
       <c r="P15" s="37"/>
       <c r="Q15" s="38"/>
-      <c r="AB15" s="104"/>
-      <c r="AC15" s="104"/>
+      <c r="AB15" s="109"/>
+      <c r="AC15" s="109"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="47"/>
       <c r="B16" s="47"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="106"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="48"/>
       <c r="F16" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="112"/>
       <c r="P16" s="37"/>
       <c r="Q16" s="38"/>
-      <c r="AB16" s="104"/>
-      <c r="AC16" s="104"/>
+      <c r="AB16" s="109"/>
+      <c r="AC16" s="109"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="47"/>
       <c r="B17" s="47"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="106"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="111"/>
       <c r="E17" s="48"/>
       <c r="F17" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="107"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="112"/>
       <c r="P17" s="37"/>
       <c r="Q17" s="38"/>
-      <c r="AB17" s="104"/>
-      <c r="AC17" s="104"/>
+      <c r="AB17" s="109"/>
+      <c r="AC17" s="109"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="47"/>
       <c r="B18" s="47"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="106"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="111"/>
       <c r="E18" s="48"/>
       <c r="F18" s="49" t="s">
-        <v>275</v>
-      </c>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
+        <v>310</v>
+      </c>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="112"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="38"/>
-      <c r="AB18" s="104"/>
-      <c r="AC18" s="104"/>
+      <c r="AB18" s="109"/>
+      <c r="AC18" s="109"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="47"/>
       <c r="B19" s="47"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="106"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="111"/>
       <c r="E19" s="48"/>
       <c r="F19" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
       <c r="P19" s="37"/>
       <c r="Q19" s="38"/>
-      <c r="AB19" s="104"/>
-      <c r="AC19" s="104"/>
+      <c r="AB19" s="109"/>
+      <c r="AC19" s="109"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="47"/>
       <c r="B20" s="47"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
       <c r="E20" s="48"/>
       <c r="F20" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="107"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="112"/>
+      <c r="N20" s="112"/>
+      <c r="O20" s="112"/>
       <c r="P20" s="37"/>
       <c r="Q20" s="38"/>
-      <c r="AB20" s="104"/>
-      <c r="AC20" s="104"/>
+      <c r="AB20" s="109"/>
+      <c r="AC20" s="109"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="47"/>
       <c r="B21" s="47"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
       <c r="E21" s="48"/>
       <c r="F21" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="112"/>
       <c r="P21" s="37"/>
       <c r="Q21" s="38"/>
-      <c r="AB21" s="104"/>
-      <c r="AC21" s="104"/>
+      <c r="AB21" s="109"/>
+      <c r="AC21" s="109"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="37"/>
@@ -16819,155 +17574,155 @@
       <c r="O22" s="37"/>
       <c r="P22" s="37"/>
       <c r="Q22" s="38"/>
-      <c r="W22" s="104"/>
-      <c r="X22" s="104"/>
-      <c r="AB22" s="104"/>
-      <c r="AC22" s="104"/>
+      <c r="W22" s="109"/>
+      <c r="X22" s="109"/>
+      <c r="AB22" s="109"/>
+      <c r="AC22" s="109"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="38"/>
       <c r="B23" s="38"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="99" t="n">
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="G23" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="99" t="n">
+      <c r="G23" s="104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="104" t="n">
         <v>2</v>
       </c>
-      <c r="I23" s="99" t="n">
+      <c r="I23" s="104" t="n">
         <v>3</v>
       </c>
-      <c r="J23" s="99" t="n">
-        <v>4</v>
-      </c>
-      <c r="K23" s="99" t="n">
-        <v>5</v>
-      </c>
-      <c r="L23" s="99" t="n">
+      <c r="J23" s="104" t="n">
+        <v>4</v>
+      </c>
+      <c r="K23" s="104" t="n">
+        <v>5</v>
+      </c>
+      <c r="L23" s="104" t="n">
         <v>6</v>
       </c>
-      <c r="M23" s="99" t="n">
+      <c r="M23" s="104" t="n">
         <v>7</v>
       </c>
-      <c r="N23" s="99" t="n">
+      <c r="N23" s="104" t="n">
         <v>8</v>
       </c>
-      <c r="O23" s="99" t="n">
+      <c r="O23" s="104" t="n">
         <v>9</v>
       </c>
       <c r="P23" s="38"/>
       <c r="Q23" s="38"/>
-      <c r="W23" s="104"/>
-      <c r="X23" s="104"/>
-      <c r="AB23" s="104"/>
-      <c r="AC23" s="104"/>
+      <c r="W23" s="109"/>
+      <c r="X23" s="109"/>
+      <c r="AB23" s="109"/>
+      <c r="AC23" s="109"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W24" s="104"/>
-      <c r="X24" s="104"/>
-      <c r="AB24" s="104"/>
-      <c r="AC24" s="104"/>
+      <c r="W24" s="109"/>
+      <c r="X24" s="109"/>
+      <c r="AB24" s="109"/>
+      <c r="AC24" s="109"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W25" s="104"/>
-      <c r="X25" s="104"/>
-      <c r="AB25" s="104"/>
-      <c r="AC25" s="104"/>
+      <c r="W25" s="109"/>
+      <c r="X25" s="109"/>
+      <c r="AB25" s="109"/>
+      <c r="AC25" s="109"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W26" s="104"/>
-      <c r="X26" s="104"/>
-      <c r="AB26" s="104"/>
-      <c r="AC26" s="104"/>
+      <c r="W26" s="109"/>
+      <c r="X26" s="109"/>
+      <c r="AB26" s="109"/>
+      <c r="AC26" s="109"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W27" s="104"/>
-      <c r="X27" s="104"/>
-      <c r="AB27" s="104"/>
-      <c r="AC27" s="104"/>
+      <c r="W27" s="109"/>
+      <c r="X27" s="109"/>
+      <c r="AB27" s="109"/>
+      <c r="AC27" s="109"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W28" s="104"/>
-      <c r="X28" s="104"/>
-      <c r="AB28" s="104"/>
-      <c r="AC28" s="104"/>
+      <c r="W28" s="109"/>
+      <c r="X28" s="109"/>
+      <c r="AB28" s="109"/>
+      <c r="AC28" s="109"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W29" s="104"/>
-      <c r="X29" s="104"/>
-      <c r="AB29" s="104"/>
-      <c r="AC29" s="104"/>
+      <c r="W29" s="109"/>
+      <c r="X29" s="109"/>
+      <c r="AB29" s="109"/>
+      <c r="AC29" s="109"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W30" s="104"/>
-      <c r="X30" s="104"/>
-      <c r="AB30" s="104"/>
-      <c r="AC30" s="104"/>
+      <c r="W30" s="109"/>
+      <c r="X30" s="109"/>
+      <c r="AB30" s="109"/>
+      <c r="AC30" s="109"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W31" s="104"/>
-      <c r="X31" s="104"/>
-      <c r="AB31" s="104"/>
-      <c r="AC31" s="104"/>
+      <c r="W31" s="109"/>
+      <c r="X31" s="109"/>
+      <c r="AB31" s="109"/>
+      <c r="AC31" s="109"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W32" s="104"/>
-      <c r="X32" s="104"/>
-      <c r="AB32" s="104"/>
-      <c r="AC32" s="104"/>
+      <c r="W32" s="109"/>
+      <c r="X32" s="109"/>
+      <c r="AB32" s="109"/>
+      <c r="AC32" s="109"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W33" s="104"/>
-      <c r="X33" s="104"/>
-      <c r="AB33" s="104"/>
-      <c r="AC33" s="104"/>
+      <c r="W33" s="109"/>
+      <c r="X33" s="109"/>
+      <c r="AB33" s="109"/>
+      <c r="AC33" s="109"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W34" s="104"/>
-      <c r="X34" s="104"/>
-      <c r="AB34" s="104"/>
-      <c r="AC34" s="104"/>
+      <c r="W34" s="109"/>
+      <c r="X34" s="109"/>
+      <c r="AB34" s="109"/>
+      <c r="AC34" s="109"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W35" s="104"/>
-      <c r="X35" s="104"/>
-      <c r="AB35" s="104"/>
-      <c r="AC35" s="104"/>
+      <c r="W35" s="109"/>
+      <c r="X35" s="109"/>
+      <c r="AB35" s="109"/>
+      <c r="AC35" s="109"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W36" s="104"/>
-      <c r="X36" s="104"/>
-      <c r="AB36" s="104"/>
-      <c r="AC36" s="104"/>
+      <c r="W36" s="109"/>
+      <c r="X36" s="109"/>
+      <c r="AB36" s="109"/>
+      <c r="AC36" s="109"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W37" s="104"/>
-      <c r="X37" s="104"/>
-      <c r="AB37" s="104"/>
-      <c r="AC37" s="104"/>
+      <c r="W37" s="109"/>
+      <c r="X37" s="109"/>
+      <c r="AB37" s="109"/>
+      <c r="AC37" s="109"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W38" s="104"/>
-      <c r="X38" s="104"/>
-      <c r="AB38" s="104"/>
-      <c r="AC38" s="104"/>
+      <c r="W38" s="109"/>
+      <c r="X38" s="109"/>
+      <c r="AB38" s="109"/>
+      <c r="AC38" s="109"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W39" s="104"/>
-      <c r="X39" s="104"/>
-      <c r="AB39" s="104"/>
-      <c r="AC39" s="104"/>
+      <c r="W39" s="109"/>
+      <c r="X39" s="109"/>
+      <c r="AB39" s="109"/>
+      <c r="AC39" s="109"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W40" s="104"/>
-      <c r="X40" s="104"/>
-      <c r="AB40" s="104"/>
-      <c r="AC40" s="104"/>
+      <c r="W40" s="109"/>
+      <c r="X40" s="109"/>
+      <c r="AB40" s="109"/>
+      <c r="AC40" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/designment/document/mvc-framework-document.xlsx
+++ b/designment/document/mvc-framework-document.xlsx
@@ -5,19 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="VINE_Documents" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="VORM_0_Guide_DET" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="VORM_0_Guide_DET" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="VORM_0_Classification" sheetId="3" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="AREA" vbProcedure="false">VINE_Documents!$A$1:$Y$237</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0" vbProcedure="false">VINE_Documents!$C$1:$L$237</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0_PAT" vbProcedure="false">VINE_Documents!$B$1:$B$237</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="MOD_0" vbProcedure="false">VINE_Documents!$A$1:$Y$237</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_COM" vbProcedure="false">VINE_Documents!$A$4:$Y$237</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="AREA" vbProcedure="false">VINE_Documents!$A$1:$Y$241</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0" vbProcedure="false">VINE_Documents!$C$1:$L$241</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0_PAT" vbProcedure="false">VINE_Documents!$B$1:$B$241</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="MOD_0" vbProcedure="false">VINE_Documents!$A$1:$Y$241</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_COM" vbProcedure="false">VINE_Documents!$A$4:$Y$241</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_SUP" vbProcedure="false">VINE_Documents!$A$1:$Y$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="AREA" vbProcedure="false">VORM_0_Guide_DET!$A$1:$E$197</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="LMN_0" vbProcedure="false">VORM_0_Guide_DET!$D$1:$D$197</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="313">
   <si>
     <t xml:space="preserve">fs</t>
   </si>
@@ -141,16 +141,22 @@
     <t xml:space="preserve">document</t>
   </si>
   <si>
+    <t xml:space="preserve">Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DynamicEventTarget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DET-Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assign.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guide</t>
   </si>
   <si>
     <t xml:space="preserve">index.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DynamicEventTarget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DET-Object</t>
   </si>
   <si>
     <t xml:space="preserve">DET-Array</t>
@@ -562,14 +568,7 @@
     <t xml:space="preserve">Dynamic Event Target (DET) Object</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">- [Overview](#overview)
+    <t xml:space="preserve">- [Overview](#overview)
 - [Importation](#importation)
 - [Instantiation](#instantiation)
 - [Parsement](#parsement)
@@ -599,16 +598,7 @@
   - [5. Object Seal](#5-object-seal)
     - [5.1. "seal" Event](#51-seal)
   - [Object Set Prototype](#6-object-set-prototype)
-    - [</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">"setPrototypeOf" Event](#61-setprototypeof)</t>
-    </r>
+    - ["setPrototypeOf" Event](#61-setprototypeof)</t>
   </si>
   <si>
     <t xml:space="preserve">Overview</t>
@@ -1302,7 +1292,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1413,11 +1403,6 @@
       <name val="FreeMono"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="FreeMono"/>
-      <family val="3"/>
     </font>
     <font>
       <i val="true"/>
@@ -2186,7 +2171,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="27" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="27" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2242,7 +2227,7 @@
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="24" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2533,14 +2518,14 @@
     <tabColor rgb="FFBF360C"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z238"/>
+  <dimension ref="A1:Z242"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="0"/>
@@ -3157,59 +3142,53 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="n">
+      <c r="A13" s="26" t="n">
         <f aca="false">ROW() - 4</f>
         <v>9</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22" t="s">
+      <c r="B13" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="O13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="S13" s="21" t="n">
-        <v>6</v>
-      </c>
-      <c r="T13" s="21" t="n">
-        <v>4</v>
-      </c>
-      <c r="U13" s="21" t="n">
-        <v>4</v>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="29"/>
+      <c r="S13" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="T13" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="U13" s="27" t="n">
+        <v>5</v>
       </c>
       <c r="V13" s="14"/>
       <c r="W13" s="14"/>
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
-      <c r="Z13" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="Z13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="26" t="n">
@@ -3221,10 +3200,10 @@
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
@@ -3271,10 +3250,10 @@
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
@@ -3311,9 +3290,7 @@
       <c r="W15" s="14"/>
       <c r="X15" s="14"/>
       <c r="Y15" s="14"/>
-      <c r="Z15" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="Z15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="n">
@@ -3324,11 +3301,11 @@
         <v>20</v>
       </c>
       <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
+      <c r="D16" s="28" t="s">
+        <v>37</v>
+      </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="28" t="s">
-        <v>36</v>
-      </c>
+      <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
@@ -3374,11 +3351,11 @@
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="F17" s="22"/>
-      <c r="G17" s="22" t="s">
-        <v>34</v>
-      </c>
+      <c r="G17" s="22"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
@@ -3429,10 +3406,10 @@
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28" t="s">
-        <v>37</v>
-      </c>
+      <c r="E18" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
@@ -3479,10 +3456,10 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22" t="s">
-        <v>34</v>
-      </c>
+      <c r="F19" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
@@ -3535,7 +3512,7 @@
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
       <c r="F20" s="28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
@@ -3585,7 +3562,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
@@ -3627,7 +3604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="26" t="n">
         <f aca="false">ROW() - 4</f>
         <v>18</v>
@@ -3636,11 +3613,11 @@
         <v>20</v>
       </c>
       <c r="C22" s="28"/>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
@@ -3674,11 +3651,9 @@
       <c r="W22" s="14"/>
       <c r="X22" s="14"/>
       <c r="Y22" s="14"/>
-      <c r="Z22" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="Z22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="20" t="n">
         <f aca="false">ROW() - 4</f>
         <v>19</v>
@@ -3688,11 +3663,11 @@
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="22" t="s">
-        <v>34</v>
-      </c>
+      <c r="E23" s="22"/>
       <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
+      <c r="G23" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
@@ -3733,7 +3708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="26" t="n">
         <f aca="false">ROW() - 4</f>
         <v>20</v>
@@ -3743,10 +3718,10 @@
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="28"/>
+      <c r="F24" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
@@ -3780,11 +3755,9 @@
       <c r="W24" s="14"/>
       <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
-      <c r="Z24" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="Z24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="20" t="n">
         <f aca="false">ROW() - 4</f>
         <v>21</v>
@@ -3795,10 +3768,10 @@
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
@@ -3848,10 +3821,10 @@
         <v>20</v>
       </c>
       <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28" t="s">
+      <c r="D26" s="28" t="s">
         <v>41</v>
       </c>
+      <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -3900,10 +3873,10 @@
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22" t="s">
-        <v>34</v>
-      </c>
+      <c r="E27" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="22"/>
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
@@ -3941,7 +3914,9 @@
       <c r="W27" s="14"/>
       <c r="X27" s="14"/>
       <c r="Y27" s="14"/>
-      <c r="Z27" s="4"/>
+      <c r="Z27" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A28" s="26" t="n">
@@ -3953,10 +3928,10 @@
       </c>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28" t="s">
-        <v>35</v>
-      </c>
+      <c r="E28" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
@@ -4005,10 +3980,10 @@
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22" t="s">
-        <v>34</v>
-      </c>
+      <c r="F29" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="22"/>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
@@ -4045,7 +4020,9 @@
       <c r="W29" s="14"/>
       <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
-      <c r="Z29" s="4"/>
+      <c r="Z29" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A30" s="26" t="n">
@@ -4057,11 +4034,11 @@
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
+      <c r="E30" s="28" t="s">
+        <v>43</v>
+      </c>
       <c r="F30" s="28"/>
-      <c r="G30" s="28" t="s">
-        <v>42</v>
-      </c>
+      <c r="G30" s="28"/>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
       <c r="J30" s="28"/>
@@ -4109,11 +4086,11 @@
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
+      <c r="F31" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="G31" s="22"/>
-      <c r="H31" s="22" t="s">
-        <v>34</v>
-      </c>
+      <c r="H31" s="22"/>
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
@@ -4162,11 +4139,11 @@
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="F32" s="28" t="s">
+        <v>34</v>
+      </c>
       <c r="G32" s="28"/>
-      <c r="H32" s="28" t="s">
-        <v>43</v>
-      </c>
+      <c r="H32" s="28"/>
       <c r="I32" s="28"/>
       <c r="J32" s="28"/>
       <c r="K32" s="28"/>
@@ -4214,11 +4191,11 @@
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
+      <c r="G33" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="H33" s="22"/>
-      <c r="I33" s="22" t="s">
-        <v>34</v>
-      </c>
+      <c r="I33" s="22"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
@@ -4267,11 +4244,11 @@
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
+      <c r="G34" s="28" t="s">
+        <v>44</v>
+      </c>
       <c r="H34" s="28"/>
-      <c r="I34" s="28" t="s">
-        <v>44</v>
-      </c>
+      <c r="I34" s="28"/>
       <c r="J34" s="28"/>
       <c r="K34" s="28"/>
       <c r="L34" s="28"/>
@@ -4319,11 +4296,11 @@
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
+      <c r="H35" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="I35" s="22"/>
-      <c r="J35" s="22" t="s">
-        <v>34</v>
-      </c>
+      <c r="J35" s="22"/>
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
       <c r="M35" s="23" t="s">
@@ -4359,7 +4336,7 @@
       <c r="Y35" s="14"/>
       <c r="Z35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A36" s="26" t="n">
         <f aca="false">ROW() - 4</f>
         <v>32</v>
@@ -4372,10 +4349,10 @@
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28" t="s">
+      <c r="H36" s="28" t="s">
         <v>45</v>
       </c>
+      <c r="I36" s="28"/>
       <c r="J36" s="28"/>
       <c r="K36" s="28"/>
       <c r="L36" s="28"/>
@@ -4410,7 +4387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A37" s="20" t="n">
         <f aca="false">ROW() - 4</f>
         <v>33</v>
@@ -4424,10 +4401,10 @@
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22" t="s">
-        <v>34</v>
-      </c>
+      <c r="I37" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37" s="22"/>
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
       <c r="M37" s="23" t="s">
@@ -4463,7 +4440,7 @@
       <c r="Y37" s="14"/>
       <c r="Z37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A38" s="26" t="n">
         <f aca="false">ROW() - 4</f>
         <v>34</v>
@@ -4477,10 +4454,10 @@
       <c r="F38" s="28"/>
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28" t="s">
+      <c r="I38" s="28" t="s">
         <v>46</v>
       </c>
+      <c r="J38" s="28"/>
       <c r="K38" s="28"/>
       <c r="L38" s="28"/>
       <c r="M38" s="29"/>
@@ -4514,7 +4491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A39" s="20" t="n">
         <f aca="false">ROW() - 4</f>
         <v>35</v>
@@ -4529,10 +4506,10 @@
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22" t="s">
-        <v>34</v>
-      </c>
+      <c r="J39" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K39" s="22"/>
       <c r="L39" s="22"/>
       <c r="M39" s="23" t="s">
         <v>27</v>
@@ -4581,11 +4558,11 @@
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
+      <c r="I40" s="28" t="s">
+        <v>47</v>
+      </c>
       <c r="J40" s="28"/>
-      <c r="K40" s="28" t="s">
-        <v>47</v>
-      </c>
+      <c r="K40" s="28"/>
       <c r="L40" s="28"/>
       <c r="M40" s="29"/>
       <c r="N40" s="29" t="s">
@@ -4633,11 +4610,11 @@
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
+      <c r="J41" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="K41" s="22"/>
-      <c r="L41" s="22" t="s">
-        <v>34</v>
-      </c>
+      <c r="L41" s="22"/>
       <c r="M41" s="23" t="s">
         <v>27</v>
       </c>
@@ -4686,10 +4663,10 @@
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
       <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28" t="s">
+      <c r="J42" s="28" t="s">
         <v>48</v>
       </c>
+      <c r="K42" s="28"/>
       <c r="L42" s="28"/>
       <c r="M42" s="29"/>
       <c r="N42" s="29" t="s">
@@ -4738,10 +4715,10 @@
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22" t="s">
-        <v>34</v>
-      </c>
+      <c r="K43" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L43" s="22"/>
       <c r="M43" s="23" t="s">
         <v>27</v>
       </c>
@@ -4844,7 +4821,7 @@
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M45" s="23" t="s">
         <v>27</v>
@@ -4948,7 +4925,7 @@
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
       <c r="L47" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M47" s="23" t="s">
         <v>27</v>
@@ -5052,7 +5029,7 @@
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
       <c r="L49" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M49" s="23" t="s">
         <v>27</v>
@@ -5156,7 +5133,7 @@
       <c r="J51" s="22"/>
       <c r="K51" s="22"/>
       <c r="L51" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M51" s="23" t="s">
         <v>27</v>
@@ -5260,7 +5237,7 @@
       <c r="J53" s="22"/>
       <c r="K53" s="22"/>
       <c r="L53" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M53" s="23" t="s">
         <v>27</v>
@@ -5364,7 +5341,7 @@
       <c r="J55" s="22"/>
       <c r="K55" s="22"/>
       <c r="L55" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M55" s="23" t="s">
         <v>27</v>
@@ -5468,7 +5445,7 @@
       <c r="J57" s="22"/>
       <c r="K57" s="22"/>
       <c r="L57" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M57" s="23" t="s">
         <v>27</v>
@@ -5572,7 +5549,7 @@
       <c r="J59" s="22"/>
       <c r="K59" s="22"/>
       <c r="L59" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M59" s="23" t="s">
         <v>27</v>
@@ -5676,7 +5653,7 @@
       <c r="J61" s="22"/>
       <c r="K61" s="22"/>
       <c r="L61" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M61" s="23" t="s">
         <v>27</v>
@@ -5780,7 +5757,7 @@
       <c r="J63" s="22"/>
       <c r="K63" s="22"/>
       <c r="L63" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M63" s="23" t="s">
         <v>27</v>
@@ -5884,7 +5861,7 @@
       <c r="J65" s="22"/>
       <c r="K65" s="22"/>
       <c r="L65" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M65" s="23" t="s">
         <v>27</v>
@@ -5988,7 +5965,7 @@
       <c r="J67" s="22"/>
       <c r="K67" s="22"/>
       <c r="L67" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M67" s="23" t="s">
         <v>27</v>
@@ -6092,7 +6069,7 @@
       <c r="J69" s="22"/>
       <c r="K69" s="22"/>
       <c r="L69" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M69" s="23" t="s">
         <v>27</v>
@@ -6196,7 +6173,7 @@
       <c r="J71" s="22"/>
       <c r="K71" s="22"/>
       <c r="L71" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M71" s="23" t="s">
         <v>27</v>
@@ -6300,7 +6277,7 @@
       <c r="J73" s="22"/>
       <c r="K73" s="22"/>
       <c r="L73" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M73" s="23" t="s">
         <v>27</v>
@@ -6404,7 +6381,7 @@
       <c r="J75" s="22"/>
       <c r="K75" s="22"/>
       <c r="L75" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M75" s="23" t="s">
         <v>27</v>
@@ -6508,7 +6485,7 @@
       <c r="J77" s="22"/>
       <c r="K77" s="22"/>
       <c r="L77" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M77" s="23" t="s">
         <v>27</v>
@@ -6612,7 +6589,7 @@
       <c r="J79" s="22"/>
       <c r="K79" s="22"/>
       <c r="L79" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M79" s="23" t="s">
         <v>27</v>
@@ -6716,7 +6693,7 @@
       <c r="J81" s="22"/>
       <c r="K81" s="22"/>
       <c r="L81" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M81" s="23" t="s">
         <v>27</v>
@@ -6820,7 +6797,7 @@
       <c r="J83" s="22"/>
       <c r="K83" s="22"/>
       <c r="L83" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M83" s="23" t="s">
         <v>27</v>
@@ -6924,7 +6901,7 @@
       <c r="J85" s="22"/>
       <c r="K85" s="22"/>
       <c r="L85" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M85" s="23" t="s">
         <v>27</v>
@@ -7028,7 +7005,7 @@
       <c r="J87" s="22"/>
       <c r="K87" s="22"/>
       <c r="L87" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M87" s="23" t="s">
         <v>27</v>
@@ -7132,7 +7109,7 @@
       <c r="J89" s="22"/>
       <c r="K89" s="22"/>
       <c r="L89" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M89" s="23" t="s">
         <v>27</v>
@@ -7236,7 +7213,7 @@
       <c r="J91" s="22"/>
       <c r="K91" s="22"/>
       <c r="L91" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M91" s="23" t="s">
         <v>27</v>
@@ -7340,7 +7317,7 @@
       <c r="J93" s="22"/>
       <c r="K93" s="22"/>
       <c r="L93" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M93" s="23" t="s">
         <v>27</v>
@@ -7444,7 +7421,7 @@
       <c r="J95" s="22"/>
       <c r="K95" s="22"/>
       <c r="L95" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M95" s="23" t="s">
         <v>27</v>
@@ -7548,7 +7525,7 @@
       <c r="J97" s="22"/>
       <c r="K97" s="22"/>
       <c r="L97" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M97" s="23" t="s">
         <v>27</v>
@@ -7652,7 +7629,7 @@
       <c r="J99" s="22"/>
       <c r="K99" s="22"/>
       <c r="L99" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M99" s="23" t="s">
         <v>27</v>
@@ -7756,7 +7733,7 @@
       <c r="J101" s="22"/>
       <c r="K101" s="22"/>
       <c r="L101" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M101" s="23" t="s">
         <v>27</v>
@@ -7860,7 +7837,7 @@
       <c r="J103" s="22"/>
       <c r="K103" s="22"/>
       <c r="L103" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M103" s="23" t="s">
         <v>27</v>
@@ -7964,7 +7941,7 @@
       <c r="J105" s="22"/>
       <c r="K105" s="22"/>
       <c r="L105" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M105" s="23" t="s">
         <v>27</v>
@@ -8068,7 +8045,7 @@
       <c r="J107" s="22"/>
       <c r="K107" s="22"/>
       <c r="L107" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M107" s="23" t="s">
         <v>27</v>
@@ -8172,7 +8149,7 @@
       <c r="J109" s="22"/>
       <c r="K109" s="22"/>
       <c r="L109" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M109" s="23" t="s">
         <v>27</v>
@@ -8276,7 +8253,7 @@
       <c r="J111" s="22"/>
       <c r="K111" s="22"/>
       <c r="L111" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M111" s="23" t="s">
         <v>27</v>
@@ -8380,7 +8357,7 @@
       <c r="J113" s="22"/>
       <c r="K113" s="22"/>
       <c r="L113" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M113" s="23" t="s">
         <v>27</v>
@@ -8484,7 +8461,7 @@
       <c r="J115" s="22"/>
       <c r="K115" s="22"/>
       <c r="L115" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M115" s="23" t="s">
         <v>27</v>
@@ -8588,7 +8565,7 @@
       <c r="J117" s="22"/>
       <c r="K117" s="22"/>
       <c r="L117" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M117" s="23" t="s">
         <v>27</v>
@@ -8692,7 +8669,7 @@
       <c r="J119" s="22"/>
       <c r="K119" s="22"/>
       <c r="L119" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M119" s="23" t="s">
         <v>27</v>
@@ -8796,7 +8773,7 @@
       <c r="J121" s="22"/>
       <c r="K121" s="22"/>
       <c r="L121" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M121" s="23" t="s">
         <v>27</v>
@@ -8900,7 +8877,7 @@
       <c r="J123" s="22"/>
       <c r="K123" s="22"/>
       <c r="L123" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M123" s="23" t="s">
         <v>27</v>
@@ -8950,10 +8927,10 @@
       <c r="G124" s="28"/>
       <c r="H124" s="28"/>
       <c r="I124" s="28"/>
-      <c r="J124" s="28" t="s">
+      <c r="J124" s="28"/>
+      <c r="K124" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="K124" s="28"/>
       <c r="L124" s="28"/>
       <c r="M124" s="29"/>
       <c r="N124" s="29" t="s">
@@ -9002,10 +8979,10 @@
       <c r="H125" s="22"/>
       <c r="I125" s="22"/>
       <c r="J125" s="22"/>
-      <c r="K125" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="L125" s="22"/>
+      <c r="K125" s="22"/>
+      <c r="L125" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="M125" s="23" t="s">
         <v>27</v>
       </c>
@@ -9086,7 +9063,9 @@
       <c r="W126" s="14"/>
       <c r="X126" s="14"/>
       <c r="Y126" s="14"/>
-      <c r="Z126" s="4"/>
+      <c r="Z126" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A127" s="20" t="n">
@@ -9106,7 +9085,7 @@
       <c r="J127" s="22"/>
       <c r="K127" s="22"/>
       <c r="L127" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M127" s="23" t="s">
         <v>27</v>
@@ -9156,10 +9135,10 @@
       <c r="G128" s="28"/>
       <c r="H128" s="28"/>
       <c r="I128" s="28"/>
-      <c r="J128" s="28"/>
-      <c r="K128" s="28" t="s">
-        <v>13</v>
-      </c>
+      <c r="J128" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K128" s="28"/>
       <c r="L128" s="28"/>
       <c r="M128" s="29"/>
       <c r="N128" s="29" t="s">
@@ -9188,7 +9167,9 @@
       <c r="W128" s="14"/>
       <c r="X128" s="14"/>
       <c r="Y128" s="14"/>
-      <c r="Z128" s="4"/>
+      <c r="Z128" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A129" s="20" t="n">
@@ -9206,10 +9187,10 @@
       <c r="H129" s="22"/>
       <c r="I129" s="22"/>
       <c r="J129" s="22"/>
-      <c r="K129" s="22"/>
-      <c r="L129" s="22" t="s">
-        <v>34</v>
-      </c>
+      <c r="K129" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L129" s="22"/>
       <c r="M129" s="23" t="s">
         <v>27</v>
       </c>
@@ -9260,7 +9241,7 @@
       <c r="I130" s="28"/>
       <c r="J130" s="28"/>
       <c r="K130" s="28" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="L130" s="28"/>
       <c r="M130" s="29"/>
@@ -9310,7 +9291,7 @@
       <c r="J131" s="22"/>
       <c r="K131" s="22"/>
       <c r="L131" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M131" s="23" t="s">
         <v>27</v>
@@ -9362,7 +9343,7 @@
       <c r="I132" s="28"/>
       <c r="J132" s="28"/>
       <c r="K132" s="28" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="L132" s="28"/>
       <c r="M132" s="29"/>
@@ -9412,7 +9393,7 @@
       <c r="J133" s="22"/>
       <c r="K133" s="22"/>
       <c r="L133" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M133" s="23" t="s">
         <v>27</v>
@@ -9464,7 +9445,7 @@
       <c r="I134" s="28"/>
       <c r="J134" s="28"/>
       <c r="K134" s="28" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="L134" s="28"/>
       <c r="M134" s="29"/>
@@ -9514,7 +9495,7 @@
       <c r="J135" s="22"/>
       <c r="K135" s="22"/>
       <c r="L135" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M135" s="23" t="s">
         <v>27</v>
@@ -9566,7 +9547,7 @@
       <c r="I136" s="28"/>
       <c r="J136" s="28"/>
       <c r="K136" s="28" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="L136" s="28"/>
       <c r="M136" s="29"/>
@@ -9616,7 +9597,7 @@
       <c r="J137" s="22"/>
       <c r="K137" s="22"/>
       <c r="L137" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M137" s="23" t="s">
         <v>27</v>
@@ -9718,7 +9699,7 @@
       <c r="J139" s="22"/>
       <c r="K139" s="22"/>
       <c r="L139" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M139" s="23" t="s">
         <v>27</v>
@@ -9770,7 +9751,7 @@
       <c r="I140" s="28"/>
       <c r="J140" s="28"/>
       <c r="K140" s="28" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="L140" s="28"/>
       <c r="M140" s="29"/>
@@ -9820,7 +9801,7 @@
       <c r="J141" s="22"/>
       <c r="K141" s="22"/>
       <c r="L141" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M141" s="23" t="s">
         <v>27</v>
@@ -9872,7 +9853,7 @@
       <c r="I142" s="28"/>
       <c r="J142" s="28"/>
       <c r="K142" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L142" s="28"/>
       <c r="M142" s="29"/>
@@ -9922,7 +9903,7 @@
       <c r="J143" s="22"/>
       <c r="K143" s="22"/>
       <c r="L143" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M143" s="23" t="s">
         <v>27</v>
@@ -9974,7 +9955,7 @@
       <c r="I144" s="28"/>
       <c r="J144" s="28"/>
       <c r="K144" s="28" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="L144" s="28"/>
       <c r="M144" s="29"/>
@@ -10024,7 +10005,7 @@
       <c r="J145" s="22"/>
       <c r="K145" s="22"/>
       <c r="L145" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M145" s="23" t="s">
         <v>27</v>
@@ -10076,7 +10057,7 @@
       <c r="I146" s="28"/>
       <c r="J146" s="28"/>
       <c r="K146" s="28" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="L146" s="28"/>
       <c r="M146" s="29"/>
@@ -10126,7 +10107,7 @@
       <c r="J147" s="22"/>
       <c r="K147" s="22"/>
       <c r="L147" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M147" s="23" t="s">
         <v>27</v>
@@ -10176,10 +10157,10 @@
       <c r="G148" s="28"/>
       <c r="H148" s="28"/>
       <c r="I148" s="28"/>
-      <c r="J148" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="K148" s="28"/>
+      <c r="J148" s="28"/>
+      <c r="K148" s="28" t="s">
+        <v>97</v>
+      </c>
       <c r="L148" s="28"/>
       <c r="M148" s="29"/>
       <c r="N148" s="29" t="s">
@@ -10208,9 +10189,7 @@
       <c r="W148" s="14"/>
       <c r="X148" s="14"/>
       <c r="Y148" s="14"/>
-      <c r="Z148" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="Z148" s="4"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A149" s="20" t="n">
@@ -10228,10 +10207,10 @@
       <c r="H149" s="22"/>
       <c r="I149" s="22"/>
       <c r="J149" s="22"/>
-      <c r="K149" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="L149" s="22"/>
+      <c r="K149" s="22"/>
+      <c r="L149" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="M149" s="23" t="s">
         <v>27</v>
       </c>
@@ -10282,7 +10261,7 @@
       <c r="I150" s="28"/>
       <c r="J150" s="28"/>
       <c r="K150" s="28" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="L150" s="28"/>
       <c r="M150" s="29"/>
@@ -10312,9 +10291,7 @@
       <c r="W150" s="14"/>
       <c r="X150" s="14"/>
       <c r="Y150" s="14"/>
-      <c r="Z150" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="Z150" s="4"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A151" s="20" t="n">
@@ -10334,7 +10311,7 @@
       <c r="J151" s="22"/>
       <c r="K151" s="22"/>
       <c r="L151" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M151" s="23" t="s">
         <v>27</v>
@@ -10384,10 +10361,10 @@
       <c r="G152" s="28"/>
       <c r="H152" s="28"/>
       <c r="I152" s="28"/>
-      <c r="J152" s="28"/>
-      <c r="K152" s="28" t="s">
+      <c r="J152" s="28" t="s">
         <v>98</v>
       </c>
+      <c r="K152" s="28"/>
       <c r="L152" s="28"/>
       <c r="M152" s="29"/>
       <c r="N152" s="29" t="s">
@@ -10436,10 +10413,10 @@
       <c r="H153" s="22"/>
       <c r="I153" s="22"/>
       <c r="J153" s="22"/>
-      <c r="K153" s="22"/>
-      <c r="L153" s="22" t="s">
-        <v>34</v>
-      </c>
+      <c r="K153" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L153" s="22"/>
       <c r="M153" s="23" t="s">
         <v>27</v>
       </c>
@@ -10542,7 +10519,7 @@
       <c r="J155" s="22"/>
       <c r="K155" s="22"/>
       <c r="L155" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M155" s="23" t="s">
         <v>27</v>
@@ -10594,7 +10571,7 @@
       <c r="I156" s="28"/>
       <c r="J156" s="28"/>
       <c r="K156" s="28" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L156" s="28"/>
       <c r="M156" s="29"/>
@@ -10646,7 +10623,7 @@
       <c r="J157" s="22"/>
       <c r="K157" s="22"/>
       <c r="L157" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M157" s="23" t="s">
         <v>27</v>
@@ -10698,7 +10675,7 @@
       <c r="I158" s="28"/>
       <c r="J158" s="28"/>
       <c r="K158" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L158" s="28"/>
       <c r="M158" s="29"/>
@@ -10728,7 +10705,9 @@
       <c r="W158" s="14"/>
       <c r="X158" s="14"/>
       <c r="Y158" s="14"/>
-      <c r="Z158" s="4"/>
+      <c r="Z158" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A159" s="20" t="n">
@@ -10748,7 +10727,7 @@
       <c r="J159" s="22"/>
       <c r="K159" s="22"/>
       <c r="L159" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M159" s="23" t="s">
         <v>27</v>
@@ -10800,7 +10779,7 @@
       <c r="I160" s="28"/>
       <c r="J160" s="28"/>
       <c r="K160" s="28" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="L160" s="28"/>
       <c r="M160" s="29"/>
@@ -10830,7 +10809,9 @@
       <c r="W160" s="14"/>
       <c r="X160" s="14"/>
       <c r="Y160" s="14"/>
-      <c r="Z160" s="4"/>
+      <c r="Z160" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A161" s="20" t="n">
@@ -10850,7 +10831,7 @@
       <c r="J161" s="22"/>
       <c r="K161" s="22"/>
       <c r="L161" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M161" s="23" t="s">
         <v>27</v>
@@ -10952,7 +10933,7 @@
       <c r="J163" s="22"/>
       <c r="K163" s="22"/>
       <c r="L163" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M163" s="23" t="s">
         <v>27</v>
@@ -11054,7 +11035,7 @@
       <c r="J165" s="22"/>
       <c r="K165" s="22"/>
       <c r="L165" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M165" s="23" t="s">
         <v>27</v>
@@ -11156,7 +11137,7 @@
       <c r="J167" s="22"/>
       <c r="K167" s="22"/>
       <c r="L167" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M167" s="23" t="s">
         <v>27</v>
@@ -11258,7 +11239,7 @@
       <c r="J169" s="22"/>
       <c r="K169" s="22"/>
       <c r="L169" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M169" s="23" t="s">
         <v>27</v>
@@ -11360,7 +11341,7 @@
       <c r="J171" s="22"/>
       <c r="K171" s="22"/>
       <c r="L171" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M171" s="23" t="s">
         <v>27</v>
@@ -11412,7 +11393,7 @@
       <c r="I172" s="28"/>
       <c r="J172" s="28"/>
       <c r="K172" s="28" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="L172" s="28"/>
       <c r="M172" s="29"/>
@@ -11462,7 +11443,7 @@
       <c r="J173" s="22"/>
       <c r="K173" s="22"/>
       <c r="L173" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M173" s="23" t="s">
         <v>27</v>
@@ -11514,7 +11495,7 @@
       <c r="I174" s="28"/>
       <c r="J174" s="28"/>
       <c r="K174" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L174" s="28"/>
       <c r="M174" s="29"/>
@@ -11564,7 +11545,7 @@
       <c r="J175" s="22"/>
       <c r="K175" s="22"/>
       <c r="L175" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M175" s="23" t="s">
         <v>27</v>
@@ -11616,7 +11597,7 @@
       <c r="I176" s="28"/>
       <c r="J176" s="28"/>
       <c r="K176" s="28" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="L176" s="28"/>
       <c r="M176" s="29"/>
@@ -11666,7 +11647,7 @@
       <c r="J177" s="22"/>
       <c r="K177" s="22"/>
       <c r="L177" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M177" s="23" t="s">
         <v>27</v>
@@ -11768,7 +11749,7 @@
       <c r="J179" s="22"/>
       <c r="K179" s="22"/>
       <c r="L179" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M179" s="23" t="s">
         <v>27</v>
@@ -11870,7 +11851,7 @@
       <c r="J181" s="22"/>
       <c r="K181" s="22"/>
       <c r="L181" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M181" s="23" t="s">
         <v>27</v>
@@ -11972,7 +11953,7 @@
       <c r="J183" s="22"/>
       <c r="K183" s="22"/>
       <c r="L183" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M183" s="23" t="s">
         <v>27</v>
@@ -12074,7 +12055,7 @@
       <c r="J185" s="22"/>
       <c r="K185" s="22"/>
       <c r="L185" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M185" s="23" t="s">
         <v>27</v>
@@ -12176,7 +12157,7 @@
       <c r="J187" s="22"/>
       <c r="K187" s="22"/>
       <c r="L187" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M187" s="23" t="s">
         <v>27</v>
@@ -12228,7 +12209,7 @@
       <c r="I188" s="28"/>
       <c r="J188" s="28"/>
       <c r="K188" s="28" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="L188" s="28"/>
       <c r="M188" s="29"/>
@@ -12278,7 +12259,7 @@
       <c r="J189" s="22"/>
       <c r="K189" s="22"/>
       <c r="L189" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M189" s="23" t="s">
         <v>27</v>
@@ -12330,7 +12311,7 @@
       <c r="I190" s="28"/>
       <c r="J190" s="28"/>
       <c r="K190" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L190" s="28"/>
       <c r="M190" s="29"/>
@@ -12380,7 +12361,7 @@
       <c r="J191" s="22"/>
       <c r="K191" s="22"/>
       <c r="L191" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M191" s="23" t="s">
         <v>27</v>
@@ -12432,7 +12413,7 @@
       <c r="I192" s="28"/>
       <c r="J192" s="28"/>
       <c r="K192" s="28" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="L192" s="28"/>
       <c r="M192" s="29"/>
@@ -12482,7 +12463,7 @@
       <c r="J193" s="22"/>
       <c r="K193" s="22"/>
       <c r="L193" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M193" s="23" t="s">
         <v>27</v>
@@ -12584,7 +12565,7 @@
       <c r="J195" s="22"/>
       <c r="K195" s="22"/>
       <c r="L195" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M195" s="23" t="s">
         <v>27</v>
@@ -12686,7 +12667,7 @@
       <c r="J197" s="22"/>
       <c r="K197" s="22"/>
       <c r="L197" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M197" s="23" t="s">
         <v>27</v>
@@ -12738,7 +12719,7 @@
       <c r="I198" s="28"/>
       <c r="J198" s="28"/>
       <c r="K198" s="28" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="L198" s="28"/>
       <c r="M198" s="29"/>
@@ -12788,7 +12769,7 @@
       <c r="J199" s="22"/>
       <c r="K199" s="22"/>
       <c r="L199" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M199" s="23" t="s">
         <v>27</v>
@@ -12840,7 +12821,7 @@
       <c r="I200" s="28"/>
       <c r="J200" s="28"/>
       <c r="K200" s="28" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="L200" s="28"/>
       <c r="M200" s="29"/>
@@ -12890,7 +12871,7 @@
       <c r="J201" s="22"/>
       <c r="K201" s="22"/>
       <c r="L201" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M201" s="23" t="s">
         <v>27</v>
@@ -12942,7 +12923,7 @@
       <c r="I202" s="28"/>
       <c r="J202" s="28"/>
       <c r="K202" s="28" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="L202" s="28"/>
       <c r="M202" s="29"/>
@@ -12992,7 +12973,7 @@
       <c r="J203" s="22"/>
       <c r="K203" s="22"/>
       <c r="L203" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M203" s="23" t="s">
         <v>27</v>
@@ -13094,7 +13075,7 @@
       <c r="J205" s="22"/>
       <c r="K205" s="22"/>
       <c r="L205" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M205" s="23" t="s">
         <v>27</v>
@@ -13144,10 +13125,10 @@
       <c r="G206" s="28"/>
       <c r="H206" s="28"/>
       <c r="I206" s="28"/>
-      <c r="J206" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="K206" s="28"/>
+      <c r="J206" s="28"/>
+      <c r="K206" s="28" t="s">
+        <v>120</v>
+      </c>
       <c r="L206" s="28"/>
       <c r="M206" s="29"/>
       <c r="N206" s="29" t="s">
@@ -13176,9 +13157,7 @@
       <c r="W206" s="14"/>
       <c r="X206" s="14"/>
       <c r="Y206" s="14"/>
-      <c r="Z206" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="Z206" s="4"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A207" s="20" t="n">
@@ -13196,10 +13175,10 @@
       <c r="H207" s="22"/>
       <c r="I207" s="22"/>
       <c r="J207" s="22"/>
-      <c r="K207" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="L207" s="22"/>
+      <c r="K207" s="22"/>
+      <c r="L207" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="M207" s="23" t="s">
         <v>27</v>
       </c>
@@ -13233,7 +13212,7 @@
       <c r="Y207" s="14"/>
       <c r="Z207" s="4"/>
     </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="208" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A208" s="26" t="n">
         <f aca="false">ROW() - 4</f>
         <v>204</v>
@@ -13244,14 +13223,14 @@
       <c r="C208" s="28"/>
       <c r="D208" s="28"/>
       <c r="E208" s="28"/>
-      <c r="F208" s="28" t="s">
-        <v>120</v>
-      </c>
+      <c r="F208" s="28"/>
       <c r="G208" s="28"/>
       <c r="H208" s="28"/>
       <c r="I208" s="28"/>
       <c r="J208" s="28"/>
-      <c r="K208" s="28"/>
+      <c r="K208" s="28" t="s">
+        <v>89</v>
+      </c>
       <c r="L208" s="28"/>
       <c r="M208" s="29"/>
       <c r="N208" s="29" t="s">
@@ -13280,11 +13259,9 @@
       <c r="W208" s="14"/>
       <c r="X208" s="14"/>
       <c r="Y208" s="14"/>
-      <c r="Z208" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="Z208" s="4"/>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A209" s="20" t="n">
         <f aca="false">ROW() - 4</f>
         <v>205</v>
@@ -13296,14 +13273,14 @@
       <c r="D209" s="22"/>
       <c r="E209" s="22"/>
       <c r="F209" s="22"/>
-      <c r="G209" s="22" t="s">
-        <v>34</v>
-      </c>
+      <c r="G209" s="22"/>
       <c r="H209" s="22"/>
       <c r="I209" s="22"/>
       <c r="J209" s="22"/>
       <c r="K209" s="22"/>
-      <c r="L209" s="22"/>
+      <c r="L209" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="M209" s="23" t="s">
         <v>27</v>
       </c>
@@ -13337,7 +13314,7 @@
       <c r="Y209" s="14"/>
       <c r="Z209" s="4"/>
     </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="210" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A210" s="26" t="n">
         <f aca="false">ROW() - 4</f>
         <v>206</v>
@@ -13349,12 +13326,12 @@
       <c r="D210" s="28"/>
       <c r="E210" s="28"/>
       <c r="F210" s="28"/>
-      <c r="G210" s="28" t="s">
-        <v>121</v>
-      </c>
+      <c r="G210" s="28"/>
       <c r="H210" s="28"/>
       <c r="I210" s="28"/>
-      <c r="J210" s="28"/>
+      <c r="J210" s="28" t="s">
+        <v>121</v>
+      </c>
       <c r="K210" s="28"/>
       <c r="L210" s="28"/>
       <c r="M210" s="29"/>
@@ -13388,7 +13365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="211" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A211" s="20" t="n">
         <f aca="false">ROW() - 4</f>
         <v>207</v>
@@ -13401,12 +13378,12 @@
       <c r="E211" s="22"/>
       <c r="F211" s="22"/>
       <c r="G211" s="22"/>
-      <c r="H211" s="22" t="s">
-        <v>34</v>
-      </c>
+      <c r="H211" s="22"/>
       <c r="I211" s="22"/>
       <c r="J211" s="22"/>
-      <c r="K211" s="22"/>
+      <c r="K211" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="L211" s="22"/>
       <c r="M211" s="23" t="s">
         <v>27</v>
@@ -13441,7 +13418,7 @@
       <c r="Y211" s="14"/>
       <c r="Z211" s="4"/>
     </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="212" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="true">
       <c r="A212" s="26" t="n">
         <f aca="false">ROW() - 4</f>
         <v>208</v>
@@ -13451,10 +13428,10 @@
       </c>
       <c r="C212" s="28"/>
       <c r="D212" s="28"/>
-      <c r="E212" s="28" t="s">
+      <c r="E212" s="28"/>
+      <c r="F212" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="F212" s="28"/>
       <c r="G212" s="28"/>
       <c r="H212" s="28"/>
       <c r="I212" s="28"/>
@@ -13503,10 +13480,10 @@
       <c r="C213" s="22"/>
       <c r="D213" s="22"/>
       <c r="E213" s="22"/>
-      <c r="F213" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G213" s="22"/>
+      <c r="F213" s="22"/>
+      <c r="G213" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="H213" s="22"/>
       <c r="I213" s="22"/>
       <c r="J213" s="22"/>
@@ -13556,10 +13533,10 @@
       <c r="C214" s="28"/>
       <c r="D214" s="28"/>
       <c r="E214" s="28"/>
-      <c r="F214" s="28" t="s">
+      <c r="F214" s="28"/>
+      <c r="G214" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="G214" s="28"/>
       <c r="H214" s="28"/>
       <c r="I214" s="28"/>
       <c r="J214" s="28"/>
@@ -13608,10 +13585,10 @@
       <c r="D215" s="22"/>
       <c r="E215" s="22"/>
       <c r="F215" s="22"/>
-      <c r="G215" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H215" s="22"/>
+      <c r="G215" s="22"/>
+      <c r="H215" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="I215" s="22"/>
       <c r="J215" s="22"/>
       <c r="K215" s="22"/>
@@ -13712,7 +13689,7 @@
       <c r="D217" s="22"/>
       <c r="E217" s="22"/>
       <c r="F217" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G217" s="22"/>
       <c r="H217" s="22"/>
@@ -13817,7 +13794,7 @@
       <c r="E219" s="22"/>
       <c r="F219" s="22"/>
       <c r="G219" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H219" s="22"/>
       <c r="I219" s="22"/>
@@ -13867,11 +13844,11 @@
       </c>
       <c r="C220" s="28"/>
       <c r="D220" s="28"/>
-      <c r="E220" s="28"/>
+      <c r="E220" s="28" t="s">
+        <v>126</v>
+      </c>
       <c r="F220" s="28"/>
-      <c r="G220" s="28" t="s">
-        <v>126</v>
-      </c>
+      <c r="G220" s="28"/>
       <c r="H220" s="28"/>
       <c r="I220" s="28"/>
       <c r="J220" s="28"/>
@@ -13919,11 +13896,11 @@
       <c r="C221" s="22"/>
       <c r="D221" s="22"/>
       <c r="E221" s="22"/>
-      <c r="F221" s="22"/>
+      <c r="F221" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="G221" s="22"/>
-      <c r="H221" s="22" t="s">
-        <v>34</v>
-      </c>
+      <c r="H221" s="22"/>
       <c r="I221" s="22"/>
       <c r="J221" s="22"/>
       <c r="K221" s="22"/>
@@ -13972,10 +13949,10 @@
       <c r="C222" s="28"/>
       <c r="D222" s="28"/>
       <c r="E222" s="28"/>
-      <c r="F222" s="28"/>
-      <c r="G222" s="28" t="s">
+      <c r="F222" s="28" t="s">
         <v>127</v>
       </c>
+      <c r="G222" s="28"/>
       <c r="H222" s="28"/>
       <c r="I222" s="28"/>
       <c r="J222" s="28"/>
@@ -14024,10 +14001,10 @@
       <c r="D223" s="22"/>
       <c r="E223" s="22"/>
       <c r="F223" s="22"/>
-      <c r="G223" s="22"/>
-      <c r="H223" s="22" t="s">
-        <v>34</v>
-      </c>
+      <c r="G223" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H223" s="22"/>
       <c r="I223" s="22"/>
       <c r="J223" s="22"/>
       <c r="K223" s="22"/>
@@ -14077,10 +14054,10 @@
       <c r="D224" s="28"/>
       <c r="E224" s="28"/>
       <c r="F224" s="28"/>
-      <c r="G224" s="28"/>
-      <c r="H224" s="28" t="s">
+      <c r="G224" s="28" t="s">
         <v>128</v>
       </c>
+      <c r="H224" s="28"/>
       <c r="I224" s="28"/>
       <c r="J224" s="28"/>
       <c r="K224" s="28"/>
@@ -14117,151 +14094,155 @@
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A225" s="26" t="n">
+      <c r="A225" s="20" t="n">
         <f aca="false">ROW() - 4</f>
         <v>221</v>
       </c>
-      <c r="B225" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C225" s="28"/>
-      <c r="D225" s="28"/>
-      <c r="E225" s="28"/>
-      <c r="F225" s="28"/>
-      <c r="G225" s="28"/>
-      <c r="H225" s="28"/>
-      <c r="I225" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="J225" s="28"/>
-      <c r="K225" s="28"/>
-      <c r="L225" s="28"/>
-      <c r="M225" s="29"/>
-      <c r="N225" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="O225" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P225" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q225" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="R225" s="29"/>
-      <c r="S225" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="T225" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="U225" s="27" t="n">
-        <v>5</v>
+      <c r="B225" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C225" s="22"/>
+      <c r="D225" s="22"/>
+      <c r="E225" s="22"/>
+      <c r="F225" s="22"/>
+      <c r="G225" s="22"/>
+      <c r="H225" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I225" s="22"/>
+      <c r="J225" s="22"/>
+      <c r="K225" s="22"/>
+      <c r="L225" s="22"/>
+      <c r="M225" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N225" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="O225" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P225" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q225" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R225" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="S225" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="T225" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="U225" s="21" t="n">
+        <v>4</v>
       </c>
       <c r="V225" s="14"/>
       <c r="W225" s="14"/>
       <c r="X225" s="14"/>
       <c r="Y225" s="14"/>
-      <c r="Z225" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="Z225" s="4"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A226" s="20" t="n">
+      <c r="A226" s="26" t="n">
         <f aca="false">ROW() - 4</f>
         <v>222</v>
       </c>
-      <c r="B226" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C226" s="22"/>
-      <c r="D226" s="22"/>
-      <c r="E226" s="22"/>
-      <c r="F226" s="22"/>
-      <c r="G226" s="22"/>
-      <c r="H226" s="22"/>
-      <c r="I226" s="22"/>
-      <c r="J226" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="K226" s="22"/>
-      <c r="L226" s="22"/>
-      <c r="M226" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="N226" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="O226" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P226" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q226" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R226" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="S226" s="21" t="n">
-        <v>6</v>
-      </c>
-      <c r="T226" s="21" t="n">
-        <v>4</v>
-      </c>
-      <c r="U226" s="21" t="n">
-        <v>4</v>
+      <c r="B226" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C226" s="28"/>
+      <c r="D226" s="28"/>
+      <c r="E226" s="28"/>
+      <c r="F226" s="28"/>
+      <c r="G226" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H226" s="28"/>
+      <c r="I226" s="28"/>
+      <c r="J226" s="28"/>
+      <c r="K226" s="28"/>
+      <c r="L226" s="28"/>
+      <c r="M226" s="29"/>
+      <c r="N226" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="O226" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P226" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q226" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R226" s="29"/>
+      <c r="S226" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="T226" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="U226" s="27" t="n">
+        <v>5</v>
       </c>
       <c r="V226" s="14"/>
       <c r="W226" s="14"/>
       <c r="X226" s="14"/>
       <c r="Y226" s="14"/>
-      <c r="Z226" s="4"/>
+      <c r="Z226" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A227" s="26" t="n">
+      <c r="A227" s="20" t="n">
         <f aca="false">ROW() - 4</f>
         <v>223</v>
       </c>
-      <c r="B227" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C227" s="28"/>
-      <c r="D227" s="28"/>
-      <c r="E227" s="28"/>
-      <c r="F227" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="G227" s="28"/>
-      <c r="H227" s="28"/>
-      <c r="I227" s="28"/>
-      <c r="J227" s="28"/>
-      <c r="K227" s="28"/>
-      <c r="L227" s="28"/>
-      <c r="M227" s="29"/>
-      <c r="N227" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="O227" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P227" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q227" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="R227" s="29"/>
-      <c r="S227" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="T227" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="U227" s="27" t="n">
-        <v>5</v>
+      <c r="B227" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C227" s="22"/>
+      <c r="D227" s="22"/>
+      <c r="E227" s="22"/>
+      <c r="F227" s="22"/>
+      <c r="G227" s="22"/>
+      <c r="H227" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I227" s="22"/>
+      <c r="J227" s="22"/>
+      <c r="K227" s="22"/>
+      <c r="L227" s="22"/>
+      <c r="M227" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N227" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="O227" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P227" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q227" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R227" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="S227" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="T227" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="U227" s="21" t="n">
+        <v>4</v>
       </c>
       <c r="V227" s="14"/>
       <c r="W227" s="14"/>
@@ -14270,57 +14251,55 @@
       <c r="Z227" s="4"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A228" s="20" t="n">
+      <c r="A228" s="26" t="n">
         <f aca="false">ROW() - 4</f>
         <v>224</v>
       </c>
-      <c r="B228" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C228" s="22"/>
-      <c r="D228" s="22"/>
-      <c r="E228" s="22"/>
-      <c r="F228" s="22"/>
-      <c r="G228" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H228" s="22"/>
-      <c r="I228" s="22"/>
-      <c r="J228" s="22"/>
-      <c r="K228" s="22"/>
-      <c r="L228" s="22"/>
-      <c r="M228" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="N228" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="O228" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P228" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q228" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R228" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="S228" s="21" t="n">
-        <v>6</v>
-      </c>
-      <c r="T228" s="21" t="n">
-        <v>4</v>
-      </c>
-      <c r="U228" s="21" t="n">
-        <v>4</v>
+      <c r="B228" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C228" s="28"/>
+      <c r="D228" s="28"/>
+      <c r="E228" s="28"/>
+      <c r="F228" s="28"/>
+      <c r="G228" s="28"/>
+      <c r="H228" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="I228" s="28"/>
+      <c r="J228" s="28"/>
+      <c r="K228" s="28"/>
+      <c r="L228" s="28"/>
+      <c r="M228" s="29"/>
+      <c r="N228" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="O228" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P228" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q228" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R228" s="29"/>
+      <c r="S228" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="T228" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="U228" s="27" t="n">
+        <v>5</v>
       </c>
       <c r="V228" s="14"/>
       <c r="W228" s="14"/>
       <c r="X228" s="14"/>
       <c r="Y228" s="14"/>
-      <c r="Z228" s="4"/>
+      <c r="Z228" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A229" s="26" t="n">
@@ -14332,13 +14311,13 @@
       </c>
       <c r="C229" s="28"/>
       <c r="D229" s="28"/>
-      <c r="E229" s="28" t="s">
-        <v>130</v>
-      </c>
+      <c r="E229" s="28"/>
       <c r="F229" s="28"/>
       <c r="G229" s="28"/>
       <c r="H229" s="28"/>
-      <c r="I229" s="28"/>
+      <c r="I229" s="28" t="s">
+        <v>46</v>
+      </c>
       <c r="J229" s="28"/>
       <c r="K229" s="28"/>
       <c r="L229" s="28"/>
@@ -14369,7 +14348,9 @@
       <c r="W229" s="14"/>
       <c r="X229" s="14"/>
       <c r="Y229" s="14"/>
-      <c r="Z229" s="4"/>
+      <c r="Z229" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A230" s="20" t="n">
@@ -14383,12 +14364,12 @@
       <c r="D230" s="22"/>
       <c r="E230" s="22"/>
       <c r="F230" s="22"/>
-      <c r="G230" s="22" t="s">
-        <v>34</v>
-      </c>
+      <c r="G230" s="22"/>
       <c r="H230" s="22"/>
       <c r="I230" s="22"/>
-      <c r="J230" s="22"/>
+      <c r="J230" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="K230" s="22"/>
       <c r="L230" s="22"/>
       <c r="M230" s="23" t="s">
@@ -14486,7 +14467,7 @@
       <c r="E232" s="22"/>
       <c r="F232" s="22"/>
       <c r="G232" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H232" s="22"/>
       <c r="I232" s="22"/>
@@ -14536,10 +14517,10 @@
       </c>
       <c r="C233" s="28"/>
       <c r="D233" s="28"/>
-      <c r="E233" s="28"/>
-      <c r="F233" s="28" t="s">
+      <c r="E233" s="28" t="s">
         <v>132</v>
       </c>
+      <c r="F233" s="28"/>
       <c r="G233" s="28"/>
       <c r="H233" s="28"/>
       <c r="I233" s="28"/>
@@ -14588,7 +14569,7 @@
       <c r="E234" s="22"/>
       <c r="F234" s="22"/>
       <c r="G234" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H234" s="22"/>
       <c r="I234" s="22"/>
@@ -14640,7 +14621,7 @@
       <c r="D235" s="28"/>
       <c r="E235" s="28"/>
       <c r="F235" s="28" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G235" s="28"/>
       <c r="H235" s="28"/>
@@ -14690,7 +14671,7 @@
       <c r="E236" s="22"/>
       <c r="F236" s="22"/>
       <c r="G236" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H236" s="22"/>
       <c r="I236" s="22"/>
@@ -14730,81 +14711,285 @@
       <c r="Y236" s="14"/>
       <c r="Z236" s="4"/>
     </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="20"/>
-      <c r="B237" s="21"/>
-      <c r="C237" s="22"/>
-      <c r="D237" s="22"/>
-      <c r="E237" s="22"/>
-      <c r="F237" s="22"/>
-      <c r="G237" s="22"/>
-      <c r="H237" s="22"/>
-      <c r="I237" s="22"/>
-      <c r="J237" s="22"/>
-      <c r="K237" s="22"/>
-      <c r="L237" s="22"/>
-      <c r="M237" s="23"/>
-      <c r="N237" s="23"/>
-      <c r="O237" s="23"/>
-      <c r="P237" s="23"/>
-      <c r="Q237" s="23"/>
-      <c r="R237" s="25"/>
-      <c r="S237" s="21"/>
-      <c r="T237" s="21"/>
-      <c r="U237" s="21"/>
+    <row r="237" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A237" s="26" t="n">
+        <f aca="false">ROW() - 4</f>
+        <v>233</v>
+      </c>
+      <c r="B237" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C237" s="28"/>
+      <c r="D237" s="28"/>
+      <c r="E237" s="28"/>
+      <c r="F237" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G237" s="28"/>
+      <c r="H237" s="28"/>
+      <c r="I237" s="28"/>
+      <c r="J237" s="28"/>
+      <c r="K237" s="28"/>
+      <c r="L237" s="28"/>
+      <c r="M237" s="29"/>
+      <c r="N237" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="O237" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P237" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q237" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R237" s="29"/>
+      <c r="S237" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="T237" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="U237" s="27" t="n">
+        <v>5</v>
+      </c>
       <c r="V237" s="14"/>
       <c r="W237" s="14"/>
       <c r="X237" s="14"/>
       <c r="Y237" s="14"/>
       <c r="Z237" s="4"/>
     </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="30"/>
-      <c r="B238" s="30"/>
-      <c r="C238" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D238" s="31" t="n">
+    <row r="238" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A238" s="20" t="n">
+        <f aca="false">ROW() - 4</f>
+        <v>234</v>
+      </c>
+      <c r="B238" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C238" s="22"/>
+      <c r="D238" s="22"/>
+      <c r="E238" s="22"/>
+      <c r="F238" s="22"/>
+      <c r="G238" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H238" s="22"/>
+      <c r="I238" s="22"/>
+      <c r="J238" s="22"/>
+      <c r="K238" s="22"/>
+      <c r="L238" s="22"/>
+      <c r="M238" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N238" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="O238" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P238" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q238" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R238" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="S238" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="T238" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="U238" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V238" s="14"/>
+      <c r="W238" s="14"/>
+      <c r="X238" s="14"/>
+      <c r="Y238" s="14"/>
+      <c r="Z238" s="4"/>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A239" s="26" t="n">
+        <f aca="false">ROW() - 4</f>
+        <v>235</v>
+      </c>
+      <c r="B239" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C239" s="28"/>
+      <c r="D239" s="28"/>
+      <c r="E239" s="28"/>
+      <c r="F239" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G239" s="28"/>
+      <c r="H239" s="28"/>
+      <c r="I239" s="28"/>
+      <c r="J239" s="28"/>
+      <c r="K239" s="28"/>
+      <c r="L239" s="28"/>
+      <c r="M239" s="29"/>
+      <c r="N239" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="O239" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P239" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q239" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R239" s="29"/>
+      <c r="S239" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="T239" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="U239" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V239" s="14"/>
+      <c r="W239" s="14"/>
+      <c r="X239" s="14"/>
+      <c r="Y239" s="14"/>
+      <c r="Z239" s="4"/>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A240" s="20" t="n">
+        <f aca="false">ROW() - 4</f>
+        <v>236</v>
+      </c>
+      <c r="B240" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C240" s="22"/>
+      <c r="D240" s="22"/>
+      <c r="E240" s="22"/>
+      <c r="F240" s="22"/>
+      <c r="G240" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H240" s="22"/>
+      <c r="I240" s="22"/>
+      <c r="J240" s="22"/>
+      <c r="K240" s="22"/>
+      <c r="L240" s="22"/>
+      <c r="M240" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N240" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="O240" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P240" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q240" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R240" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="S240" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="T240" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="U240" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V240" s="14"/>
+      <c r="W240" s="14"/>
+      <c r="X240" s="14"/>
+      <c r="Y240" s="14"/>
+      <c r="Z240" s="4"/>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="20"/>
+      <c r="B241" s="21"/>
+      <c r="C241" s="22"/>
+      <c r="D241" s="22"/>
+      <c r="E241" s="22"/>
+      <c r="F241" s="22"/>
+      <c r="G241" s="22"/>
+      <c r="H241" s="22"/>
+      <c r="I241" s="22"/>
+      <c r="J241" s="22"/>
+      <c r="K241" s="22"/>
+      <c r="L241" s="22"/>
+      <c r="M241" s="23"/>
+      <c r="N241" s="23"/>
+      <c r="O241" s="23"/>
+      <c r="P241" s="23"/>
+      <c r="Q241" s="23"/>
+      <c r="R241" s="25"/>
+      <c r="S241" s="21"/>
+      <c r="T241" s="21"/>
+      <c r="U241" s="21"/>
+      <c r="V241" s="14"/>
+      <c r="W241" s="14"/>
+      <c r="X241" s="14"/>
+      <c r="Y241" s="14"/>
+      <c r="Z241" s="4"/>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="30"/>
+      <c r="B242" s="30"/>
+      <c r="C242" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D242" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="E238" s="31" t="n">
+      <c r="E242" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="F238" s="31" t="n">
-        <v>4</v>
-      </c>
-      <c r="G238" s="32" t="n">
-        <v>5</v>
-      </c>
-      <c r="H238" s="32" t="n">
+      <c r="F242" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G242" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="H242" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="I238" s="32" t="n">
+      <c r="I242" s="32" t="n">
         <v>7</v>
       </c>
-      <c r="J238" s="32" t="n">
+      <c r="J242" s="32" t="n">
         <v>8</v>
       </c>
-      <c r="K238" s="32" t="n">
+      <c r="K242" s="32" t="n">
         <v>9</v>
       </c>
-      <c r="L238" s="32" t="n">
+      <c r="L242" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="M238" s="30"/>
-      <c r="N238" s="33"/>
-      <c r="O238" s="4"/>
-      <c r="P238" s="30"/>
-      <c r="Q238" s="30"/>
-      <c r="R238" s="30"/>
-      <c r="S238" s="34"/>
-      <c r="T238" s="34"/>
-      <c r="U238" s="34"/>
-      <c r="V238" s="4"/>
-      <c r="W238" s="4"/>
-      <c r="X238" s="4"/>
-      <c r="Y238" s="4"/>
-      <c r="Z238" s="4" t="s">
+      <c r="M242" s="30"/>
+      <c r="N242" s="33"/>
+      <c r="O242" s="4"/>
+      <c r="P242" s="30"/>
+      <c r="Q242" s="30"/>
+      <c r="R242" s="30"/>
+      <c r="S242" s="34"/>
+      <c r="T242" s="34"/>
+      <c r="U242" s="34"/>
+      <c r="V242" s="4"/>
+      <c r="W242" s="4"/>
+      <c r="X242" s="4"/>
+      <c r="Y242" s="4"/>
+      <c r="Z242" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14838,14 +15023,14 @@
     <tabColor rgb="FFD500F9"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F198"/>
+  <dimension ref="A1:G198"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
-      <selection pane="bottomRight" activeCell="D57" activeCellId="0" sqref="D57"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="0"/>
@@ -14864,7 +15049,7 @@
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="36" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D1" s="36"/>
       <c r="E1" s="37"/>
@@ -14875,10 +15060,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D2" s="40"/>
       <c r="E2" s="37"/>
@@ -14888,10 +15073,10 @@
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="41" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="38"/>
@@ -14910,19 +15095,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
       <c r="E5" s="37"/>
       <c r="F5" s="38"/>
     </row>
-    <row r="6" customFormat="false" ht="94.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="45"/>
       <c r="D6" s="46" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E6" s="37"/>
       <c r="F6" s="38"/>
@@ -14931,22 +15116,22 @@
       <c r="A7" s="47"/>
       <c r="B7" s="47"/>
       <c r="C7" s="48" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E7" s="37" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="38"/>
     </row>
-    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="8" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="45"/>
       <c r="D8" s="46" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="38"/>
@@ -14955,10 +15140,10 @@
       <c r="A9" s="50"/>
       <c r="B9" s="50"/>
       <c r="C9" s="51" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="38"/>
@@ -14968,17 +15153,17 @@
       <c r="B10" s="44"/>
       <c r="C10" s="45"/>
       <c r="D10" s="46" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="38"/>
     </row>
-    <row r="11" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="11" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="45"/>
       <c r="D11" s="46" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="38"/>
@@ -14988,7 +15173,7 @@
       <c r="B12" s="44"/>
       <c r="C12" s="45"/>
       <c r="D12" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="38"/>
@@ -14997,10 +15182,10 @@
       <c r="A13" s="50"/>
       <c r="B13" s="50"/>
       <c r="C13" s="51" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="38"/>
@@ -15009,10 +15194,10 @@
       <c r="A14" s="53"/>
       <c r="B14" s="53"/>
       <c r="C14" s="54" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
@@ -15022,7 +15207,7 @@
       <c r="B15" s="44"/>
       <c r="C15" s="45"/>
       <c r="D15" s="56" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="38"/>
@@ -15032,17 +15217,17 @@
       <c r="B16" s="44"/>
       <c r="C16" s="45"/>
       <c r="D16" s="56" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="38"/>
     </row>
-    <row r="17" customFormat="false" ht="53.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="17" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="45"/>
       <c r="D17" s="46" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
@@ -15051,10 +15236,10 @@
       <c r="A18" s="53"/>
       <c r="B18" s="53"/>
       <c r="C18" s="54" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
@@ -15069,11 +15254,11 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="42" t="n">
-        <f aca="false">VINE_Documents!$A$15</f>
-        <v>11</v>
+        <f aca="false">VINE_Documents!$A$19</f>
+        <v>15</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C20" s="43"/>
       <c r="D20" s="43"/>
@@ -15084,10 +15269,10 @@
       <c r="A21" s="58"/>
       <c r="B21" s="58"/>
       <c r="C21" s="48" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D21" s="59" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
@@ -15097,7 +15282,7 @@
       <c r="B22" s="44"/>
       <c r="C22" s="57"/>
       <c r="D22" s="46" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
@@ -15106,10 +15291,10 @@
       <c r="A23" s="60"/>
       <c r="B23" s="60"/>
       <c r="C23" s="54" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D23" s="61" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
@@ -15119,7 +15304,7 @@
       <c r="B24" s="44"/>
       <c r="C24" s="57"/>
       <c r="D24" s="46" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
@@ -15128,10 +15313,10 @@
       <c r="A25" s="62"/>
       <c r="B25" s="62"/>
       <c r="C25" s="63" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
@@ -15140,10 +15325,10 @@
       <c r="A26" s="65"/>
       <c r="B26" s="65"/>
       <c r="C26" s="66" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D26" s="67" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
@@ -15152,10 +15337,10 @@
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="57" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
@@ -15164,10 +15349,10 @@
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="57" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
@@ -15176,10 +15361,10 @@
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="57" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
@@ -15189,7 +15374,7 @@
       <c r="B30" s="44"/>
       <c r="C30" s="57"/>
       <c r="D30" s="46" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
@@ -15199,7 +15384,7 @@
       <c r="B31" s="44"/>
       <c r="C31" s="57"/>
       <c r="D31" s="46" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
@@ -15209,18 +15394,18 @@
       <c r="B32" s="44"/>
       <c r="C32" s="57"/>
       <c r="D32" s="46" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="42" t="n">
-        <f aca="false">VINE_Documents!$A$17</f>
-        <v>13</v>
+        <f aca="false">VINE_Documents!$A$21</f>
+        <v>17</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C33" s="43"/>
       <c r="D33" s="43"/>
@@ -15231,20 +15416,20 @@
       <c r="A34" s="68"/>
       <c r="B34" s="68"/>
       <c r="C34" s="48" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D34" s="59" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="311.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="68"/>
       <c r="B35" s="68"/>
       <c r="C35" s="57"/>
       <c r="D35" s="69" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
@@ -15253,10 +15438,10 @@
       <c r="A36" s="68"/>
       <c r="B36" s="68"/>
       <c r="C36" s="51" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D36" s="70" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
@@ -15266,27 +15451,27 @@
       <c r="B37" s="58"/>
       <c r="C37" s="57"/>
       <c r="D37" s="69" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="58"/>
       <c r="B38" s="58"/>
       <c r="C38" s="57"/>
       <c r="D38" s="69" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" customFormat="false" ht="145.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="58"/>
       <c r="B39" s="58"/>
       <c r="C39" s="71"/>
       <c r="D39" s="72" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
@@ -15295,20 +15480,20 @@
       <c r="A40" s="58"/>
       <c r="B40" s="58"/>
       <c r="C40" s="51" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D40" s="70" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="58"/>
       <c r="B41" s="58"/>
       <c r="C41" s="73"/>
       <c r="D41" s="74" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
@@ -15317,10 +15502,10 @@
       <c r="A42" s="58"/>
       <c r="B42" s="58"/>
       <c r="C42" s="51" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D42" s="70" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
@@ -15329,20 +15514,20 @@
       <c r="A43" s="58"/>
       <c r="B43" s="58"/>
       <c r="C43" s="54" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D43" s="61" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" customFormat="false" ht="135.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="127.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="58"/>
       <c r="B44" s="58"/>
       <c r="C44" s="73"/>
       <c r="D44" s="74" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
@@ -15351,10 +15536,10 @@
       <c r="A45" s="58"/>
       <c r="B45" s="58"/>
       <c r="C45" s="51" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D45" s="70" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
@@ -15363,20 +15548,20 @@
       <c r="A46" s="58"/>
       <c r="B46" s="58"/>
       <c r="C46" s="54" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D46" s="61" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="58"/>
       <c r="B47" s="58"/>
       <c r="C47" s="73"/>
       <c r="D47" s="74" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
@@ -15386,17 +15571,17 @@
       <c r="B48" s="58"/>
       <c r="C48" s="57"/>
       <c r="D48" s="75" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" customFormat="false" ht="135.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="127.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="58"/>
       <c r="B49" s="58"/>
       <c r="C49" s="73"/>
       <c r="D49" s="74" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
@@ -15405,20 +15590,20 @@
       <c r="A50" s="58"/>
       <c r="B50" s="58"/>
       <c r="C50" s="54" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="61" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" customFormat="false" ht="53.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="58"/>
       <c r="B51" s="58"/>
       <c r="C51" s="73"/>
       <c r="D51" s="74" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
@@ -15428,17 +15613,17 @@
       <c r="B52" s="58"/>
       <c r="C52" s="57"/>
       <c r="D52" s="75" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" customFormat="false" ht="135.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="127.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="58"/>
       <c r="B53" s="58"/>
       <c r="C53" s="73"/>
       <c r="D53" s="74" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
@@ -15447,10 +15632,10 @@
       <c r="A54" s="58"/>
       <c r="B54" s="58"/>
       <c r="C54" s="51" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D54" s="70" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
@@ -15475,10 +15660,10 @@
       <c r="A57" s="58"/>
       <c r="B57" s="58"/>
       <c r="C57" s="51" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D57" s="70" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
@@ -15488,17 +15673,17 @@
       <c r="B58" s="58"/>
       <c r="C58" s="57"/>
       <c r="D58" s="69" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" customFormat="false" ht="124.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="58"/>
       <c r="B59" s="58"/>
       <c r="C59" s="73"/>
       <c r="D59" s="74" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
@@ -15507,20 +15692,20 @@
       <c r="A60" s="58"/>
       <c r="B60" s="58"/>
       <c r="C60" s="54" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D60" s="61" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="58"/>
       <c r="B61" s="58"/>
       <c r="C61" s="73"/>
       <c r="D61" s="74" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
@@ -15529,20 +15714,20 @@
       <c r="A62" s="58"/>
       <c r="B62" s="58"/>
       <c r="C62" s="76" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D62" s="64" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" customFormat="false" ht="53.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="58"/>
       <c r="B63" s="58"/>
       <c r="C63" s="73"/>
       <c r="D63" s="74" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
@@ -15551,20 +15736,20 @@
       <c r="A64" s="58"/>
       <c r="B64" s="58"/>
       <c r="C64" s="77" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D64" s="78" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" customFormat="false" ht="124.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="58"/>
       <c r="B65" s="58"/>
       <c r="C65" s="73"/>
       <c r="D65" s="74" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
@@ -15573,20 +15758,20 @@
       <c r="A66" s="58"/>
       <c r="B66" s="58"/>
       <c r="C66" s="76" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D66" s="64" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" customFormat="false" ht="73.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="58"/>
       <c r="B67" s="58"/>
       <c r="C67" s="73"/>
       <c r="D67" s="74" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
@@ -15595,10 +15780,10 @@
       <c r="A68" s="58"/>
       <c r="B68" s="58"/>
       <c r="C68" s="77" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D68" s="78" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
@@ -15607,20 +15792,20 @@
       <c r="A69" s="58"/>
       <c r="B69" s="58"/>
       <c r="C69" s="77" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D69" s="78" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" customFormat="false" ht="124.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="58"/>
       <c r="B70" s="58"/>
       <c r="C70" s="73"/>
       <c r="D70" s="74" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
@@ -15629,130 +15814,130 @@
       <c r="A71" s="58"/>
       <c r="B71" s="58"/>
       <c r="C71" s="77" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="78" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" s="1" customFormat="true" ht="145.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="58"/>
       <c r="B72" s="58"/>
       <c r="C72" s="73"/>
       <c r="D72" s="74" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="58"/>
       <c r="B73" s="58"/>
       <c r="C73" s="54" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D73" s="61" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" s="1" customFormat="true" ht="32.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="58"/>
       <c r="B74" s="58"/>
       <c r="C74" s="79"/>
       <c r="D74" s="74" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="58"/>
       <c r="B75" s="58"/>
       <c r="C75" s="76" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D75" s="64" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" s="1" customFormat="true" ht="53.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="58"/>
       <c r="B76" s="58"/>
       <c r="C76" s="80"/>
       <c r="D76" s="74" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="58"/>
       <c r="B77" s="58"/>
       <c r="C77" s="77" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D77" s="78" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" s="1" customFormat="true" ht="124.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="58"/>
       <c r="B78" s="58"/>
       <c r="C78" s="73"/>
       <c r="D78" s="74" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="58"/>
       <c r="B79" s="58"/>
       <c r="C79" s="76" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D79" s="64" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" s="1" customFormat="true" ht="53.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="58"/>
       <c r="B80" s="58"/>
       <c r="C80" s="80"/>
       <c r="D80" s="74" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="58"/>
       <c r="B81" s="58"/>
       <c r="C81" s="77" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D81" s="78" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" s="1" customFormat="true" ht="124.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="58"/>
       <c r="B82" s="58"/>
       <c r="C82" s="73"/>
       <c r="D82" s="74" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
@@ -15761,10 +15946,10 @@
       <c r="A83" s="58"/>
       <c r="B83" s="58"/>
       <c r="C83" s="54" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D83" s="61" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
@@ -15773,20 +15958,20 @@
       <c r="A84" s="58"/>
       <c r="B84" s="58"/>
       <c r="C84" s="76" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D84" s="64" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" customFormat="false" ht="42.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="58"/>
       <c r="B85" s="58"/>
       <c r="C85" s="80"/>
       <c r="D85" s="74" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
@@ -15795,10 +15980,10 @@
       <c r="A86" s="58"/>
       <c r="B86" s="58"/>
       <c r="C86" s="77" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D86" s="78" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
@@ -15807,20 +15992,20 @@
       <c r="A87" s="58"/>
       <c r="B87" s="58"/>
       <c r="C87" s="76" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D87" s="64" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" customFormat="false" ht="63.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="58"/>
       <c r="B88" s="58"/>
       <c r="C88" s="80"/>
       <c r="D88" s="74" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
@@ -15829,10 +16014,10 @@
       <c r="A89" s="58"/>
       <c r="B89" s="58"/>
       <c r="C89" s="77" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D89" s="78" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
@@ -15841,10 +16026,10 @@
       <c r="A90" s="58"/>
       <c r="B90" s="58"/>
       <c r="C90" s="51" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D90" s="70" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
@@ -15853,10 +16038,10 @@
       <c r="A91" s="58"/>
       <c r="B91" s="58"/>
       <c r="C91" s="54" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D91" s="61" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
@@ -15865,52 +16050,52 @@
       <c r="A92" s="58"/>
       <c r="B92" s="58"/>
       <c r="C92" s="76" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D92" s="64" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A93" s="58"/>
       <c r="B93" s="58"/>
       <c r="C93" s="81"/>
       <c r="D93" s="69" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A94" s="58"/>
       <c r="B94" s="58"/>
       <c r="C94" s="77" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D94" s="78" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" customFormat="false" ht="73.65" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="95" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A95" s="58"/>
       <c r="B95" s="58"/>
       <c r="C95" s="82"/>
       <c r="D95" s="74" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" customFormat="false" ht="53.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="96" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A96" s="58"/>
       <c r="B96" s="58"/>
       <c r="C96" s="81"/>
       <c r="D96" s="69" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
@@ -15919,20 +16104,20 @@
       <c r="A97" s="58"/>
       <c r="B97" s="58"/>
       <c r="C97" s="77" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D97" s="78" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" customFormat="false" ht="63.4" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+    <row r="98" customFormat="false" ht="59.7" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A98" s="58"/>
       <c r="B98" s="58"/>
       <c r="C98" s="82"/>
       <c r="D98" s="74" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
@@ -15941,20 +16126,20 @@
       <c r="A99" s="58"/>
       <c r="B99" s="58"/>
       <c r="C99" s="66" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D99" s="67" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" customFormat="false" ht="124.95" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+    <row r="100" customFormat="false" ht="117.9" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A100" s="58"/>
       <c r="B100" s="58"/>
       <c r="C100" s="82"/>
       <c r="D100" s="74" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E100" s="37"/>
       <c r="F100" s="38"/>
@@ -15963,20 +16148,20 @@
       <c r="A101" s="58"/>
       <c r="B101" s="58"/>
       <c r="C101" s="77" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D101" s="78" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E101" s="37"/>
       <c r="F101" s="38"/>
     </row>
-    <row r="102" customFormat="false" ht="73.65" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+    <row r="102" customFormat="false" ht="69.4" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A102" s="58"/>
       <c r="B102" s="58"/>
       <c r="C102" s="82"/>
       <c r="D102" s="74" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E102" s="37"/>
       <c r="F102" s="38"/>
@@ -15985,20 +16170,20 @@
       <c r="A103" s="58"/>
       <c r="B103" s="58"/>
       <c r="C103" s="66" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D103" s="67" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E103" s="37"/>
       <c r="F103" s="38"/>
     </row>
-    <row r="104" customFormat="false" ht="124.95" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+    <row r="104" customFormat="false" ht="117.9" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A104" s="58"/>
       <c r="B104" s="58"/>
       <c r="C104" s="82"/>
       <c r="D104" s="74" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E104" s="37"/>
       <c r="F104" s="38"/>
@@ -16007,20 +16192,20 @@
       <c r="A105" s="58"/>
       <c r="B105" s="58"/>
       <c r="C105" s="66" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D105" s="67" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E105" s="37"/>
       <c r="F105" s="38"/>
     </row>
-    <row r="106" customFormat="false" ht="166" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+    <row r="106" customFormat="false" ht="156.7" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A106" s="58"/>
       <c r="B106" s="58"/>
       <c r="C106" s="82"/>
       <c r="D106" s="74" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E106" s="37"/>
       <c r="F106" s="38"/>
@@ -16029,20 +16214,20 @@
       <c r="A107" s="58"/>
       <c r="B107" s="58"/>
       <c r="C107" s="77" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D107" s="78" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E107" s="37"/>
       <c r="F107" s="38"/>
     </row>
-    <row r="108" customFormat="false" ht="53.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="108" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A108" s="58"/>
       <c r="B108" s="58"/>
       <c r="C108" s="82"/>
       <c r="D108" s="74" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E108" s="37"/>
       <c r="F108" s="38"/>
@@ -16059,10 +16244,10 @@
       <c r="A110" s="58"/>
       <c r="B110" s="58"/>
       <c r="C110" s="76" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D110" s="64" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E110" s="37"/>
       <c r="F110" s="38"/>
@@ -16072,7 +16257,7 @@
       <c r="B111" s="58"/>
       <c r="C111" s="81"/>
       <c r="D111" s="69" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E111" s="37"/>
       <c r="F111" s="38"/>
@@ -16081,30 +16266,31 @@
       <c r="A112" s="58"/>
       <c r="B112" s="58"/>
       <c r="C112" s="77" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D112" s="78" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E112" s="37"/>
       <c r="F112" s="38"/>
     </row>
-    <row r="113" s="88" customFormat="true" ht="53.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="113" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A113" s="83"/>
       <c r="B113" s="83"/>
       <c r="C113" s="84"/>
       <c r="D113" s="85" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E113" s="86"/>
       <c r="F113" s="87"/>
-    </row>
-    <row r="114" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="G113" s="88"/>
+    </row>
+    <row r="114" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A114" s="58"/>
       <c r="B114" s="58"/>
       <c r="C114" s="81"/>
       <c r="D114" s="69" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E114" s="37"/>
       <c r="F114" s="38"/>
@@ -16113,10 +16299,10 @@
       <c r="A115" s="58"/>
       <c r="B115" s="58"/>
       <c r="C115" s="76" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D115" s="64" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E115" s="37"/>
       <c r="F115" s="38"/>
@@ -16126,7 +16312,7 @@
       <c r="B116" s="58"/>
       <c r="C116" s="81"/>
       <c r="D116" s="69" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E116" s="37"/>
       <c r="F116" s="38"/>
@@ -16135,30 +16321,30 @@
       <c r="A117" s="58"/>
       <c r="B117" s="58"/>
       <c r="C117" s="77" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D117" s="78" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E117" s="37"/>
       <c r="F117" s="38"/>
     </row>
-    <row r="118" customFormat="false" ht="53.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="118" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A118" s="58"/>
       <c r="B118" s="58"/>
       <c r="C118" s="82"/>
       <c r="D118" s="74" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E118" s="37"/>
       <c r="F118" s="38"/>
     </row>
-    <row r="119" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="119" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A119" s="58"/>
       <c r="B119" s="58"/>
       <c r="C119" s="81"/>
       <c r="D119" s="69" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E119" s="37"/>
       <c r="F119" s="38"/>
@@ -16167,10 +16353,10 @@
       <c r="A120" s="58"/>
       <c r="B120" s="58"/>
       <c r="C120" s="54" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D120" s="61" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E120" s="37"/>
       <c r="F120" s="38"/>
@@ -16180,7 +16366,7 @@
       <c r="B121" s="58"/>
       <c r="C121" s="81"/>
       <c r="D121" s="69" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E121" s="37"/>
       <c r="F121" s="38"/>
@@ -16189,10 +16375,10 @@
       <c r="A122" s="58"/>
       <c r="B122" s="58"/>
       <c r="C122" s="76" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D122" s="64" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E122" s="37"/>
       <c r="F122" s="38"/>
@@ -16202,7 +16388,7 @@
       <c r="B123" s="58"/>
       <c r="C123" s="81"/>
       <c r="D123" s="69" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E123" s="37"/>
       <c r="F123" s="38"/>
@@ -16211,30 +16397,30 @@
       <c r="A124" s="58"/>
       <c r="B124" s="58"/>
       <c r="C124" s="77" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D124" s="78" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E124" s="37"/>
       <c r="F124" s="38"/>
     </row>
-    <row r="125" customFormat="false" ht="53.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="125" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A125" s="58"/>
       <c r="B125" s="58"/>
       <c r="C125" s="82"/>
       <c r="D125" s="74" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E125" s="37"/>
       <c r="F125" s="38"/>
     </row>
-    <row r="126" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="126" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A126" s="58"/>
       <c r="B126" s="58"/>
       <c r="C126" s="81"/>
       <c r="D126" s="69" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E126" s="37"/>
       <c r="F126" s="38"/>
@@ -16243,10 +16429,10 @@
       <c r="A127" s="58"/>
       <c r="B127" s="58"/>
       <c r="C127" s="54" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D127" s="61" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E127" s="37"/>
       <c r="F127" s="38"/>
@@ -16255,10 +16441,10 @@
       <c r="A128" s="58"/>
       <c r="B128" s="58"/>
       <c r="C128" s="76" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D128" s="64" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E128" s="37"/>
       <c r="F128" s="38"/>
@@ -16268,7 +16454,7 @@
       <c r="B129" s="58"/>
       <c r="C129" s="81"/>
       <c r="D129" s="69" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E129" s="37"/>
       <c r="F129" s="38"/>
@@ -16277,30 +16463,30 @@
       <c r="A130" s="58"/>
       <c r="B130" s="58"/>
       <c r="C130" s="77" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D130" s="78" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E130" s="37"/>
       <c r="F130" s="38"/>
     </row>
-    <row r="131" customFormat="false" ht="73.65" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="131" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A131" s="58"/>
       <c r="B131" s="58"/>
       <c r="C131" s="82"/>
       <c r="D131" s="74" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E131" s="37"/>
       <c r="F131" s="38"/>
     </row>
-    <row r="132" customFormat="false" ht="42.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="132" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A132" s="58"/>
       <c r="B132" s="58"/>
       <c r="C132" s="81"/>
       <c r="D132" s="69" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E132" s="37"/>
       <c r="F132" s="38"/>
@@ -16309,10 +16495,10 @@
       <c r="A133" s="58"/>
       <c r="B133" s="58"/>
       <c r="C133" s="54" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D133" s="61" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E133" s="37"/>
       <c r="F133" s="38"/>
@@ -16321,10 +16507,10 @@
       <c r="A134" s="58"/>
       <c r="B134" s="58"/>
       <c r="C134" s="76" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D134" s="64" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E134" s="37"/>
       <c r="F134" s="38"/>
@@ -16334,7 +16520,7 @@
       <c r="B135" s="58"/>
       <c r="C135" s="81"/>
       <c r="D135" s="69" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E135" s="37"/>
       <c r="F135" s="38"/>
@@ -16343,30 +16529,30 @@
       <c r="A136" s="58"/>
       <c r="B136" s="58"/>
       <c r="C136" s="77" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D136" s="78" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E136" s="37"/>
       <c r="F136" s="38"/>
     </row>
-    <row r="137" customFormat="false" ht="53.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="137" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A137" s="58"/>
       <c r="B137" s="58"/>
       <c r="C137" s="82"/>
       <c r="D137" s="74" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E137" s="37"/>
       <c r="F137" s="38"/>
     </row>
-    <row r="138" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="138" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A138" s="58"/>
       <c r="B138" s="58"/>
       <c r="C138" s="81"/>
       <c r="D138" s="69" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E138" s="37"/>
       <c r="F138" s="38"/>
@@ -16375,10 +16561,10 @@
       <c r="A139" s="58"/>
       <c r="B139" s="58"/>
       <c r="C139" s="54" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D139" s="61" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E139" s="37"/>
       <c r="F139" s="38"/>
@@ -16387,10 +16573,10 @@
       <c r="A140" s="58"/>
       <c r="B140" s="58"/>
       <c r="C140" s="76" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D140" s="64" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E140" s="37"/>
       <c r="F140" s="38"/>
@@ -16400,7 +16586,7 @@
       <c r="B141" s="58"/>
       <c r="C141" s="81"/>
       <c r="D141" s="69" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E141" s="37"/>
       <c r="F141" s="38"/>
@@ -16409,30 +16595,30 @@
       <c r="A142" s="58"/>
       <c r="B142" s="58"/>
       <c r="C142" s="77" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D142" s="78" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E142" s="37"/>
       <c r="F142" s="38"/>
     </row>
-    <row r="143" customFormat="false" ht="53.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="143" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A143" s="58"/>
       <c r="B143" s="58"/>
       <c r="C143" s="82"/>
       <c r="D143" s="74" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E143" s="37"/>
       <c r="F143" s="38"/>
     </row>
-    <row r="144" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="144" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A144" s="58"/>
       <c r="B144" s="58"/>
       <c r="C144" s="81"/>
       <c r="D144" s="69" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E144" s="37"/>
       <c r="F144" s="38"/>
@@ -16441,10 +16627,10 @@
       <c r="A145" s="58"/>
       <c r="B145" s="58"/>
       <c r="C145" s="54" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D145" s="61" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E145" s="37"/>
       <c r="F145" s="38"/>
@@ -16453,10 +16639,10 @@
       <c r="A146" s="58"/>
       <c r="B146" s="58"/>
       <c r="C146" s="76" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D146" s="64" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E146" s="37"/>
       <c r="F146" s="38"/>
@@ -16466,7 +16652,7 @@
       <c r="B147" s="58"/>
       <c r="C147" s="81"/>
       <c r="D147" s="69" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E147" s="37"/>
       <c r="F147" s="38"/>
@@ -16475,41 +16661,41 @@
       <c r="A148" s="58"/>
       <c r="B148" s="58"/>
       <c r="C148" s="77" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D148" s="78" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E148" s="37"/>
       <c r="F148" s="38"/>
     </row>
-    <row r="149" customFormat="false" ht="53.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="149" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A149" s="58"/>
       <c r="B149" s="58"/>
       <c r="C149" s="82"/>
       <c r="D149" s="74" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E149" s="37"/>
       <c r="F149" s="38"/>
     </row>
-    <row r="150" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="150" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A150" s="58"/>
       <c r="B150" s="58"/>
       <c r="C150" s="81"/>
       <c r="D150" s="69" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E150" s="37"/>
       <c r="F150" s="38"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="89" t="n">
-        <f aca="false">VINE_Documents!$A$19</f>
-        <v>15</v>
+        <f aca="false">VINE_Documents!$A$23</f>
+        <v>19</v>
       </c>
       <c r="B151" s="43" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C151" s="43"/>
       <c r="D151" s="90"/>
@@ -16520,10 +16706,10 @@
       <c r="A152" s="47"/>
       <c r="B152" s="47"/>
       <c r="C152" s="91" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D152" s="92" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E152" s="37"/>
       <c r="F152" s="38"/>
@@ -16532,7 +16718,7 @@
       <c r="A153" s="60"/>
       <c r="B153" s="60"/>
       <c r="C153" s="93" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D153" s="94"/>
       <c r="E153" s="37"/>
@@ -16543,7 +16729,7 @@
       <c r="B154" s="44"/>
       <c r="C154" s="95"/>
       <c r="D154" s="96" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E154" s="37"/>
       <c r="F154" s="38"/>
@@ -16553,7 +16739,7 @@
       <c r="B155" s="44"/>
       <c r="C155" s="95"/>
       <c r="D155" s="96" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E155" s="37"/>
       <c r="F155" s="38"/>
@@ -16562,10 +16748,10 @@
       <c r="A156" s="97"/>
       <c r="B156" s="97"/>
       <c r="C156" s="98" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D156" s="99" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E156" s="37"/>
       <c r="F156" s="38"/>
@@ -16574,10 +16760,10 @@
       <c r="A157" s="100"/>
       <c r="B157" s="100"/>
       <c r="C157" s="101" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D157" s="102" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E157" s="37"/>
       <c r="F157" s="38"/>
@@ -16594,10 +16780,10 @@
       <c r="A159" s="100"/>
       <c r="B159" s="100"/>
       <c r="C159" s="101" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D159" s="102" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E159" s="37"/>
       <c r="F159" s="38"/>
@@ -16614,10 +16800,10 @@
       <c r="A161" s="97"/>
       <c r="B161" s="97"/>
       <c r="C161" s="98" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D161" s="99" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E161" s="37"/>
       <c r="F161" s="38"/>
@@ -16626,10 +16812,10 @@
       <c r="A162" s="100"/>
       <c r="B162" s="100"/>
       <c r="C162" s="101" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D162" s="102" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E162" s="37"/>
       <c r="F162" s="38"/>
@@ -16646,10 +16832,10 @@
       <c r="A164" s="100"/>
       <c r="B164" s="100"/>
       <c r="C164" s="101" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D164" s="102" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E164" s="37"/>
       <c r="F164" s="38"/>
@@ -16666,10 +16852,10 @@
       <c r="A166" s="97"/>
       <c r="B166" s="97"/>
       <c r="C166" s="98" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D166" s="99" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E166" s="37"/>
       <c r="F166" s="38"/>
@@ -16678,10 +16864,10 @@
       <c r="A167" s="100"/>
       <c r="B167" s="100"/>
       <c r="C167" s="101" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D167" s="102" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E167" s="37"/>
       <c r="F167" s="38"/>
@@ -16698,10 +16884,10 @@
       <c r="A169" s="97"/>
       <c r="B169" s="97"/>
       <c r="C169" s="98" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D169" s="99" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E169" s="37"/>
       <c r="F169" s="38"/>
@@ -16710,10 +16896,10 @@
       <c r="A170" s="100"/>
       <c r="B170" s="100"/>
       <c r="C170" s="101" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D170" s="102" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E170" s="37"/>
       <c r="F170" s="38"/>
@@ -16722,10 +16908,10 @@
       <c r="A171" s="100"/>
       <c r="B171" s="100"/>
       <c r="C171" s="101" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D171" s="102" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E171" s="37"/>
       <c r="F171" s="38"/>
@@ -16742,10 +16928,10 @@
       <c r="A173" s="97"/>
       <c r="B173" s="97"/>
       <c r="C173" s="98" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D173" s="99" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E173" s="37"/>
       <c r="F173" s="38"/>
@@ -16754,10 +16940,10 @@
       <c r="A174" s="100"/>
       <c r="B174" s="100"/>
       <c r="C174" s="101" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D174" s="102" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E174" s="37"/>
       <c r="F174" s="38"/>
@@ -16774,10 +16960,10 @@
       <c r="A176" s="97"/>
       <c r="B176" s="97"/>
       <c r="C176" s="98" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D176" s="99" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E176" s="37"/>
       <c r="F176" s="38"/>
@@ -16786,10 +16972,10 @@
       <c r="A177" s="100"/>
       <c r="B177" s="100"/>
       <c r="C177" s="101" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D177" s="102" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E177" s="37"/>
       <c r="F177" s="38"/>
@@ -16806,10 +16992,10 @@
       <c r="A179" s="97"/>
       <c r="B179" s="97"/>
       <c r="C179" s="98" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D179" s="99" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E179" s="37"/>
       <c r="F179" s="38"/>
@@ -16818,10 +17004,10 @@
       <c r="A180" s="100"/>
       <c r="B180" s="100"/>
       <c r="C180" s="101" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D180" s="102" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E180" s="37"/>
       <c r="F180" s="38"/>
@@ -16838,10 +17024,10 @@
       <c r="A182" s="97"/>
       <c r="B182" s="97"/>
       <c r="C182" s="98" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D182" s="99" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E182" s="37"/>
       <c r="F182" s="38"/>
@@ -16850,10 +17036,10 @@
       <c r="A183" s="100"/>
       <c r="B183" s="100"/>
       <c r="C183" s="101" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D183" s="102" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E183" s="37"/>
       <c r="F183" s="38"/>
@@ -16870,10 +17056,10 @@
       <c r="A185" s="97"/>
       <c r="B185" s="97"/>
       <c r="C185" s="98" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D185" s="99" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E185" s="37"/>
       <c r="F185" s="38"/>
@@ -16882,10 +17068,10 @@
       <c r="A186" s="100"/>
       <c r="B186" s="100"/>
       <c r="C186" s="101" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D186" s="102" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E186" s="37"/>
       <c r="F186" s="38"/>
@@ -16902,10 +17088,10 @@
       <c r="A188" s="100"/>
       <c r="B188" s="100"/>
       <c r="C188" s="101" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D188" s="102" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E188" s="37"/>
       <c r="F188" s="38"/>
@@ -16922,10 +17108,10 @@
       <c r="A190" s="100"/>
       <c r="B190" s="100"/>
       <c r="C190" s="101" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D190" s="102" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E190" s="37"/>
       <c r="F190" s="38"/>
@@ -16942,10 +17128,10 @@
       <c r="A192" s="97"/>
       <c r="B192" s="97"/>
       <c r="C192" s="98" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D192" s="99" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E192" s="37"/>
       <c r="F192" s="38"/>
@@ -16954,10 +17140,10 @@
       <c r="A193" s="100"/>
       <c r="B193" s="100"/>
       <c r="C193" s="101" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D193" s="102" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E193" s="37"/>
       <c r="F193" s="38"/>
@@ -16974,10 +17160,10 @@
       <c r="A195" s="100"/>
       <c r="B195" s="100"/>
       <c r="C195" s="101" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D195" s="102" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E195" s="37"/>
       <c r="F195" s="38"/>
@@ -17070,7 +17256,7 @@
       </c>
       <c r="D1" s="36"/>
       <c r="E1" s="36" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
@@ -17090,16 +17276,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C2" s="107" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D2" s="107" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F2" s="40"/>
       <c r="G2" s="40"/>
@@ -17120,10 +17306,10 @@
       <c r="C3" s="107"/>
       <c r="D3" s="107"/>
       <c r="E3" s="41" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
@@ -17139,11 +17325,11 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="42" t="n">
-        <f aca="false">VINE_Documents!$A$29</f>
-        <v>25</v>
+        <f aca="false">VINE_Documents!$A$33</f>
+        <v>29</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C4" s="108"/>
       <c r="D4" s="108"/>
@@ -17167,16 +17353,16 @@
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="110" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D5" s="111" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
@@ -17220,7 +17406,7 @@
       <c r="D7" s="111"/>
       <c r="E7" s="48"/>
       <c r="F7" s="49" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G7" s="112"/>
       <c r="H7" s="112"/>
@@ -17243,7 +17429,7 @@
       <c r="D8" s="111"/>
       <c r="E8" s="48"/>
       <c r="F8" s="49" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G8" s="112"/>
       <c r="H8" s="112"/>
@@ -17266,7 +17452,7 @@
       <c r="D9" s="111"/>
       <c r="E9" s="48"/>
       <c r="F9" s="49" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G9" s="112"/>
       <c r="H9" s="112"/>
@@ -17289,7 +17475,7 @@
       <c r="D10" s="111"/>
       <c r="E10" s="48"/>
       <c r="F10" s="49" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G10" s="112"/>
       <c r="H10" s="112"/>
@@ -17312,7 +17498,7 @@
       <c r="D11" s="111"/>
       <c r="E11" s="48"/>
       <c r="F11" s="49" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G11" s="112"/>
       <c r="H11" s="112"/>
@@ -17356,7 +17542,7 @@
       <c r="D13" s="111"/>
       <c r="E13" s="48"/>
       <c r="F13" s="49" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G13" s="112"/>
       <c r="H13" s="112"/>
@@ -17379,7 +17565,7 @@
       <c r="D14" s="111"/>
       <c r="E14" s="48"/>
       <c r="F14" s="49" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G14" s="112"/>
       <c r="H14" s="112"/>
@@ -17402,7 +17588,7 @@
       <c r="D15" s="111"/>
       <c r="E15" s="48"/>
       <c r="F15" s="49" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G15" s="112"/>
       <c r="H15" s="112"/>
@@ -17425,7 +17611,7 @@
       <c r="D16" s="111"/>
       <c r="E16" s="48"/>
       <c r="F16" s="49" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G16" s="112"/>
       <c r="H16" s="112"/>
@@ -17448,7 +17634,7 @@
       <c r="D17" s="111"/>
       <c r="E17" s="48"/>
       <c r="F17" s="49" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G17" s="112"/>
       <c r="H17" s="112"/>
@@ -17471,7 +17657,7 @@
       <c r="D18" s="111"/>
       <c r="E18" s="48"/>
       <c r="F18" s="49" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G18" s="112"/>
       <c r="H18" s="112"/>
@@ -17494,7 +17680,7 @@
       <c r="D19" s="111"/>
       <c r="E19" s="48"/>
       <c r="F19" s="49" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G19" s="112"/>
       <c r="H19" s="112"/>
@@ -17517,7 +17703,7 @@
       <c r="D20" s="111"/>
       <c r="E20" s="48"/>
       <c r="F20" s="49" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="112"/>
       <c r="H20" s="112"/>
@@ -17540,7 +17726,7 @@
       <c r="D21" s="111"/>
       <c r="E21" s="48"/>
       <c r="F21" s="49" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G21" s="112"/>
       <c r="H21" s="112"/>
